--- a/sample/장끼모음/1029주문장 토탈 최종_receipt.xlsx
+++ b/sample/장끼모음/1029주문장 토탈 최종_receipt.xlsx
@@ -64,13 +64,13 @@
     <t>그라운드남방</t>
   </si>
   <si>
-    <t>punm4jj4g3</t>
+    <t>dlvuhsxfz37</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>lvh5c3euajh</t>
+    <t>nmm98jy59n8</t>
   </si>
   <si>
     <t>36.데님트월바지</t>
@@ -82,7 +82,7 @@
     <t>데님트월팬츠</t>
   </si>
   <si>
-    <t>t8brsl1dd2</t>
+    <t>36n75hxu3tk</t>
   </si>
   <si>
     <t>8.면카라니트</t>
@@ -97,7 +97,7 @@
     <t>면카라니트</t>
   </si>
   <si>
-    <t>n6b94jt3t3</t>
+    <t>qmve7op36k</t>
   </si>
   <si>
     <t>27.베이직트임티</t>
@@ -109,7 +109,7 @@
     <t>베이직트임티셔츠</t>
   </si>
   <si>
-    <t>j7lii7b3kse</t>
+    <t>7wjm1jgvpmi</t>
   </si>
   <si>
     <t>아이</t>
@@ -118,10 +118,10 @@
     <t>아이보리</t>
   </si>
   <si>
-    <t>wumy8z7s6er</t>
-  </si>
-  <si>
-    <t>p6n082j5d4b</t>
+    <t>mc0yafmaayb</t>
+  </si>
+  <si>
+    <t>o3qqm4rd36k</t>
   </si>
   <si>
     <t>40.브런치골댄캡</t>
@@ -139,7 +139,7 @@
     <t>FREE</t>
   </si>
   <si>
-    <t>fmbblcha0bi</t>
+    <t>yshgjmez86</t>
   </si>
   <si>
     <t>9.스쿨룩조끼</t>
@@ -148,7 +148,7 @@
     <t>스쿨룩조끼</t>
   </si>
   <si>
-    <t>t78ifr0g5u8</t>
+    <t>zp25c1pbht</t>
   </si>
   <si>
     <t>1.워크자켓</t>
@@ -157,7 +157,7 @@
     <t>워크자켓</t>
   </si>
   <si>
-    <t>bxphpgtpe9k</t>
+    <t>evdkuqgi9lj</t>
   </si>
   <si>
     <t>7.피셔맨니트</t>
@@ -166,7 +166,7 @@
     <t>피셔맨니트</t>
   </si>
   <si>
-    <t>dwr3yk6szdn</t>
+    <t>fv35jxoxeu</t>
   </si>
   <si>
     <t>39.헤리티지팬츠</t>
@@ -175,7 +175,7 @@
     <t>헤리티지팬츠</t>
   </si>
   <si>
-    <t>7tr5g6gm3kx</t>
+    <t>zbzgvgdsjl</t>
   </si>
   <si>
     <t>고유</t>
@@ -193,7 +193,7 @@
     <t>B티라미슈팬츠</t>
   </si>
   <si>
-    <t>ctcsscy7eip</t>
+    <t>0a7c0t74896p</t>
   </si>
   <si>
     <t>b-후드폴라</t>
@@ -205,25 +205,25 @@
     <t>B후드폴라</t>
   </si>
   <si>
-    <t>n2qyop7ki3r</t>
+    <t>wwjlp19qm3o</t>
   </si>
   <si>
     <t>오트밀</t>
   </si>
   <si>
-    <t>04odu4l2fh2o</t>
+    <t>onuzv5ciham</t>
   </si>
   <si>
     <t>고유맨투맨</t>
   </si>
   <si>
-    <t>gdm40oa1ea7</t>
+    <t>5m8e33e3hi9</t>
   </si>
   <si>
     <t>XS</t>
   </si>
   <si>
-    <t>c1tjr5as8j</t>
+    <t>9a762ebh5s</t>
   </si>
   <si>
     <t>고유세뚜</t>
@@ -232,13 +232,13 @@
     <t>네이비</t>
   </si>
   <si>
-    <t>hasy8oyxsqg</t>
-  </si>
-  <si>
-    <t>0a0xw4n6ims3</t>
-  </si>
-  <si>
-    <t>2n9pc84k8sk</t>
+    <t>yfvv36uphsf</t>
+  </si>
+  <si>
+    <t>5lremt7dw3a</t>
+  </si>
+  <si>
+    <t>cargavcpcdn</t>
   </si>
   <si>
     <t>고유스타킹</t>
@@ -253,7 +253,7 @@
     <t>챠콜</t>
   </si>
   <si>
-    <t>dsg8rjta7zf</t>
+    <t>91fexbv5ex</t>
   </si>
   <si>
     <t>꽁꽁jp</t>
@@ -265,7 +265,7 @@
     <t>꽁꽁점퍼</t>
   </si>
   <si>
-    <t>ookctd8lh3g</t>
+    <t>cojnt1gjm9h</t>
   </si>
   <si>
     <t>카키</t>
@@ -274,7 +274,7 @@
     <t>JL</t>
   </si>
   <si>
-    <t>i1zsrxyb2wq</t>
+    <t>94a5bvhn5tp</t>
   </si>
   <si>
     <t>네모패딩</t>
@@ -283,7 +283,7 @@
     <t>M</t>
   </si>
   <si>
-    <t>81y5fz8u13e</t>
+    <t>tw5ot8cr4y</t>
   </si>
   <si>
     <t>단카라t-맘</t>
@@ -298,7 +298,7 @@
     <t>단카라T맘</t>
   </si>
   <si>
-    <t>wd9jdi64ws</t>
+    <t>5f4vz3taiek</t>
   </si>
   <si>
     <t>단카라t</t>
@@ -307,7 +307,7 @@
     <t>단카라티셔츠</t>
   </si>
   <si>
-    <t>kbqkv55k8g</t>
+    <t>f5vfu6ygjot</t>
   </si>
   <si>
     <t>두줄jp</t>
@@ -316,7 +316,7 @@
     <t>두줄점퍼</t>
   </si>
   <si>
-    <t>2u7jvofua6</t>
+    <t>urzhoxunrze</t>
   </si>
   <si>
     <t>레이스바지</t>
@@ -325,22 +325,22 @@
     <t>레이스팬츠</t>
   </si>
   <si>
-    <t>c9w0acj6zfw</t>
+    <t>j0kxpq7tq98</t>
   </si>
   <si>
     <t>옐로우베</t>
   </si>
   <si>
-    <t>7x1qyjzjgfw</t>
-  </si>
-  <si>
-    <t>mkom32412z</t>
+    <t>pnv2mcv07s</t>
+  </si>
+  <si>
+    <t>f8ovpkecqt</t>
   </si>
   <si>
     <t>마미손머플러</t>
   </si>
   <si>
-    <t>d8xbw3e0qll</t>
+    <t>qhal4xikufm</t>
   </si>
   <si>
     <t>바닐비니</t>
@@ -349,16 +349,16 @@
     <t>아동</t>
   </si>
   <si>
-    <t>47alq8xtfvc</t>
+    <t>uy4ccncb9y</t>
   </si>
   <si>
     <t>바닐워머</t>
   </si>
   <si>
-    <t>644og9t8a5e</t>
-  </si>
-  <si>
-    <t>y2tv1moyb2</t>
+    <t>55fbhudtdf5</t>
+  </si>
+  <si>
+    <t>wvxmlqfcoc</t>
   </si>
   <si>
     <t>뽀송mtm</t>
@@ -367,13 +367,13 @@
     <t>뽀송맨투맨</t>
   </si>
   <si>
-    <t>7wb1r6uc714</t>
+    <t>hv091h51vfb</t>
   </si>
   <si>
     <t>섞어후드</t>
   </si>
   <si>
-    <t>0q4mcri05e2</t>
+    <t>qpxgpmbxzy</t>
   </si>
   <si>
     <t>소프트폴라</t>
@@ -382,7 +382,7 @@
     <t>레드</t>
   </si>
   <si>
-    <t>io7xqylgjm</t>
+    <t>yj98y0ptwq9</t>
   </si>
   <si>
     <t>유니크jp</t>
@@ -394,7 +394,7 @@
     <t>유니크점퍼</t>
   </si>
   <si>
-    <t>taipvvqgdan</t>
+    <t>ztigginkzqi</t>
   </si>
   <si>
     <t>첵책바지</t>
@@ -403,7 +403,7 @@
     <t>첵책팬츠</t>
   </si>
   <si>
-    <t>1v1lo5jrxzvh</t>
+    <t>ete8r8fux9</t>
   </si>
   <si>
     <t>킹골pt</t>
@@ -412,7 +412,7 @@
     <t>킹골팬츠</t>
   </si>
   <si>
-    <t>rs2jng20r7</t>
+    <t>tadk2gefx8q</t>
   </si>
   <si>
     <t>타이트set-맘</t>
@@ -424,7 +424,7 @@
     <t>타이트SET맘</t>
   </si>
   <si>
-    <t>xzfg5yssup</t>
+    <t>8a7ilpzrqeu</t>
   </si>
   <si>
     <t>타이트set</t>
@@ -433,19 +433,19 @@
     <t>타이트세트</t>
   </si>
   <si>
-    <t>0t72wzxrhkr</t>
+    <t>aui654z6iwg</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>yvwqeoqwk3k</t>
-  </si>
-  <si>
-    <t>8qg3zmtzx2</t>
-  </si>
-  <si>
-    <t>mqryid1kflo</t>
+    <t>osfput64ef</t>
+  </si>
+  <si>
+    <t>dvtxqqs3bff</t>
+  </si>
+  <si>
+    <t>cl1hqdg19to</t>
   </si>
   <si>
     <t>후드폴라</t>
@@ -454,13 +454,13 @@
     <t>JS</t>
   </si>
   <si>
-    <t>362kuk7vxd5</t>
-  </si>
-  <si>
-    <t>l2bga620r8</t>
-  </si>
-  <si>
-    <t>okui1icjqe</t>
+    <t>1j7n56bxwzh</t>
+  </si>
+  <si>
+    <t>di4eti0aov</t>
+  </si>
+  <si>
+    <t>zf0c13tzz3a</t>
   </si>
   <si>
     <t>후드폴라-맘</t>
@@ -469,28 +469,28 @@
     <t>후드폴라맘</t>
   </si>
   <si>
-    <t>sswmvange1p</t>
+    <t>kkemohzsl7n</t>
   </si>
   <si>
     <t>JM</t>
   </si>
   <si>
-    <t>x7kxbqq56ml</t>
-  </si>
-  <si>
-    <t>ld5bmma6zgr</t>
-  </si>
-  <si>
-    <t>5j8mi8gei0o</t>
-  </si>
-  <si>
-    <t>m8lfotjs5v</t>
-  </si>
-  <si>
-    <t>jnjra7vg6jr</t>
-  </si>
-  <si>
-    <t>nj7e280pww</t>
+    <t>8jcm4nngsbq</t>
+  </si>
+  <si>
+    <t>3naugwy4iir</t>
+  </si>
+  <si>
+    <t>pba9d4o88i</t>
+  </si>
+  <si>
+    <t>2arzqvjhi4f</t>
+  </si>
+  <si>
+    <t>9st6hmnvbn6</t>
+  </si>
+  <si>
+    <t>4z18m74f8ap</t>
   </si>
   <si>
     <t>흑과백t</t>
@@ -499,13 +499,13 @@
     <t>흑과백티셔츠</t>
   </si>
   <si>
-    <t>ulu7lqsz1ha</t>
-  </si>
-  <si>
-    <t>vjmo3tl9kw</t>
-  </si>
-  <si>
-    <t>16pm9rxa3al</t>
+    <t>p339270ay6</t>
+  </si>
+  <si>
+    <t>x9tvllur0r</t>
+  </si>
+  <si>
+    <t>v8hpehfbpjk</t>
   </si>
   <si>
     <t>그로우비</t>
@@ -520,10 +520,10 @@
     <t>잔잔나그랑키즈</t>
   </si>
   <si>
-    <t>wxnap1mld3</t>
-  </si>
-  <si>
-    <t>bfrpu31jgdk</t>
+    <t>dxlm2f3ueki</t>
+  </si>
+  <si>
+    <t>fdcq0jklfeo</t>
   </si>
   <si>
     <t>누누</t>
@@ -538,7 +538,7 @@
     <t>블레어원피스</t>
   </si>
   <si>
-    <t>l7ffczm9ojm</t>
+    <t>gzbphfdfchg</t>
   </si>
   <si>
     <t>니니벨로</t>
@@ -556,7 +556,7 @@
     <t>베이지SET</t>
   </si>
   <si>
-    <t>zy00pyjyx2</t>
+    <t>o62fy998z1g</t>
   </si>
   <si>
     <t>ACC)고양이비니</t>
@@ -571,7 +571,7 @@
     <t>KIDS</t>
   </si>
   <si>
-    <t>lg1swzr38o</t>
+    <t>duora91sqtn</t>
   </si>
   <si>
     <t>ACC)곰돌미뽀글이모자</t>
@@ -580,7 +580,7 @@
     <t>ACC곰돌미뽀글이모자</t>
   </si>
   <si>
-    <t>nydix3kiq9e</t>
+    <t>2vjqby8fjff</t>
   </si>
   <si>
     <t>눈송이반팔가디건</t>
@@ -592,16 +592,16 @@
     <t>옐로우</t>
   </si>
   <si>
-    <t>cr89r0yseo</t>
+    <t>1nlmf1e0txpi</t>
   </si>
   <si>
     <t>뉴챠밍부츠컷팬츠</t>
   </si>
   <si>
-    <t>qcykzcdphr</t>
-  </si>
-  <si>
-    <t>t5tfzglnrfo</t>
+    <t>8wh9votf76s</t>
+  </si>
+  <si>
+    <t>ds6pk2be4dq</t>
   </si>
   <si>
     <t>니니후리스고쟁이</t>
@@ -610,16 +610,16 @@
     <t>브라운리본</t>
   </si>
   <si>
-    <t>7kz62i1mqg3</t>
-  </si>
-  <si>
-    <t>px8ylwxefe</t>
+    <t>zgmvmc3y6en</t>
+  </si>
+  <si>
+    <t>sxvheignql</t>
   </si>
   <si>
     <t>아이꽃</t>
   </si>
   <si>
-    <t>he9c7ok2474</t>
+    <t>9r81vuhr3</t>
   </si>
   <si>
     <t>뜨게리본폴라티</t>
@@ -628,7 +628,7 @@
     <t>뜨게리본폴라티셔츠</t>
   </si>
   <si>
-    <t>crpwpdm41z5</t>
+    <t>8rh53033d5g</t>
   </si>
   <si>
     <t>뜨거리본폴라티</t>
@@ -637,34 +637,34 @@
     <t>뜨거리본폴라티셔츠</t>
   </si>
   <si>
-    <t>3hbynac63ky</t>
+    <t>89bc8ti701o</t>
   </si>
   <si>
     <t>러빗블루머팬츠</t>
   </si>
   <si>
-    <t>2gnvv7w04vf</t>
+    <t>2o1n0clsj0r</t>
   </si>
   <si>
     <t>러빗후드집업</t>
   </si>
   <si>
-    <t>20vm4ta8aezk</t>
+    <t>k5w06lea2p</t>
   </si>
   <si>
     <t>럽유먼투맨</t>
   </si>
   <si>
-    <t>1fnliu9oeunj</t>
-  </si>
-  <si>
-    <t>qre05pdw3m8</t>
+    <t>0qt7idcpdx2</t>
+  </si>
+  <si>
+    <t>gfkl471sknf</t>
   </si>
   <si>
     <t>럽유맨투맨</t>
   </si>
   <si>
-    <t>fakmcuyi3ak</t>
+    <t>xh2m0hev1bq</t>
   </si>
   <si>
     <t>메리체크팬츠</t>
@@ -673,37 +673,37 @@
     <t>2XL</t>
   </si>
   <si>
-    <t>77fleaqclo3</t>
+    <t>94jlta8zwnt</t>
   </si>
   <si>
     <t>멜로디레이스맨투펜</t>
   </si>
   <si>
-    <t>74mgssx7tpr</t>
+    <t>j8axe0vmka</t>
   </si>
   <si>
     <t>멜로디레이스맨투맨</t>
   </si>
   <si>
-    <t>6ocorllxgv2</t>
-  </si>
-  <si>
-    <t>m7fogh80x7</t>
-  </si>
-  <si>
-    <t>shgnub7szzd</t>
+    <t>kz3dm4qn7yg</t>
+  </si>
+  <si>
+    <t>bd3bfwptdb</t>
+  </si>
+  <si>
+    <t>pd47m8rfk5</t>
   </si>
   <si>
     <t>멜로디리본팬츠</t>
   </si>
   <si>
-    <t>j87rt19jafi</t>
-  </si>
-  <si>
-    <t>gigfrzgcc3</t>
-  </si>
-  <si>
-    <t>plj2a9iu25h</t>
+    <t>mtb5scgemno</t>
+  </si>
+  <si>
+    <t>pb4yd57s5u8</t>
+  </si>
+  <si>
+    <t>mbqudayr90k</t>
   </si>
   <si>
     <t>무드골덴고쟁이(겨울)</t>
@@ -712,19 +712,19 @@
     <t>무드골덴고쟁이겨울</t>
   </si>
   <si>
-    <t>i9h53qdmmmi</t>
-  </si>
-  <si>
-    <t>4v4mlupjm0v</t>
-  </si>
-  <si>
-    <t>exvds2m6y6</t>
-  </si>
-  <si>
-    <t>f272z01d65</t>
-  </si>
-  <si>
-    <t>qt094luz6y8</t>
+    <t>6uyaln0on0v</t>
+  </si>
+  <si>
+    <t>mofntge86wh</t>
+  </si>
+  <si>
+    <t>k86k880dpp8</t>
+  </si>
+  <si>
+    <t>jynklt2qlr</t>
+  </si>
+  <si>
+    <t>jcaji04o2j</t>
   </si>
   <si>
     <t>벨벳카라세트</t>
@@ -733,13 +733,13 @@
     <t>블럭</t>
   </si>
   <si>
-    <t>f2kuga0afbg</t>
+    <t>196bn731n3d</t>
   </si>
   <si>
     <t>보들자수곰세트</t>
   </si>
   <si>
-    <t>jo5st9iuq2g</t>
+    <t>70urqqt1475</t>
   </si>
   <si>
     <t>오리지널후드티</t>
@@ -748,13 +748,13 @@
     <t>오리지널후드티셔츠</t>
   </si>
   <si>
-    <t>c8ggz0va9c</t>
-  </si>
-  <si>
-    <t>kab2rromgo</t>
-  </si>
-  <si>
-    <t>gwbbxuwn5a</t>
+    <t>qa320svdp8</t>
+  </si>
+  <si>
+    <t>8rfn7ywoz2k</t>
+  </si>
+  <si>
+    <t>s59xe6au4dk</t>
   </si>
   <si>
     <t>기획) 1+1월폴라티</t>
@@ -763,7 +763,7 @@
     <t>기획11월폴라티셔츠</t>
   </si>
   <si>
-    <t>ofd08pk5ak</t>
+    <t>jl4o7eys9l</t>
   </si>
   <si>
     <t>기획) 1+1웜플라티</t>
@@ -772,13 +772,13 @@
     <t>기획11웜플라티셔츠</t>
   </si>
   <si>
-    <t>blax391kz96</t>
+    <t>s9pyjfs2gs9</t>
   </si>
   <si>
     <t>체리케이크맨투맨</t>
   </si>
   <si>
-    <t>u8pb7xa2w</t>
+    <t>k37qpc5l7ll</t>
   </si>
   <si>
     <t>Adut0체리케이크맨투맨</t>
@@ -787,13 +787,13 @@
     <t>ADUT0체리케이크맨투맨</t>
   </si>
   <si>
-    <t>tzhbkk1flg8</t>
+    <t>mx3n93vpcya</t>
   </si>
   <si>
     <t>퍼피나그랑맨투맨</t>
   </si>
   <si>
-    <t>4q4wx5xkodv</t>
+    <t>necsehs464</t>
   </si>
   <si>
     <t>ACC)포근귀달이빙거지</t>
@@ -805,37 +805,37 @@
     <t>ACC포근귀달이빙거지</t>
   </si>
   <si>
-    <t>22q60xp9weu</t>
+    <t>i4bptqiofwq</t>
   </si>
   <si>
     <t>포근벨로아팬츠</t>
   </si>
   <si>
-    <t>nmybro5qe6f</t>
+    <t>6h0dszep9vb</t>
   </si>
   <si>
     <t>폭닥워머레깅스</t>
   </si>
   <si>
-    <t>x6kadyj1pe</t>
+    <t>qip5bo93bp9</t>
   </si>
   <si>
     <t>하트자수절개팬츠</t>
   </si>
   <si>
-    <t>m58zjb40x5</t>
+    <t>f7e5jeovfa5</t>
   </si>
   <si>
     <t>홀리데이원피스</t>
   </si>
   <si>
-    <t>782bljaor2c</t>
-  </si>
-  <si>
-    <t>kynqcpkprbd</t>
-  </si>
-  <si>
-    <t>ghge1a6h47v</t>
+    <t>7zwber44m2g</t>
+  </si>
+  <si>
+    <t>j94fq9x7xl</t>
+  </si>
+  <si>
+    <t>y2jsj8v2tb</t>
   </si>
   <si>
     <t>더고구마</t>
@@ -847,7 +847,7 @@
     <t>TG골덴기모배기팬츠</t>
   </si>
   <si>
-    <t>ondek4xvdcs</t>
+    <t>32f7p0lren6</t>
   </si>
   <si>
     <t>tg-단가라 기모카라t</t>
@@ -856,7 +856,7 @@
     <t>TG단가라기모카라티셔츠</t>
   </si>
   <si>
-    <t>rl2c7qmfaus</t>
+    <t>z2mkn3zgye</t>
   </si>
   <si>
     <t>tg-데미지 기모청pt</t>
@@ -868,7 +868,7 @@
     <t>TG데미지기모청팬츠</t>
   </si>
   <si>
-    <t>9xm2rov8i3a</t>
+    <t>j93jllohnsh</t>
   </si>
   <si>
     <t>tg-로스앤젤레스 자수MTM</t>
@@ -880,10 +880,10 @@
     <t>TG로스앤젤레스자수맨투맨</t>
   </si>
   <si>
-    <t>ticsc8gkdyn</t>
-  </si>
-  <si>
-    <t>y42slfurf7s</t>
+    <t>wiman89ijcc</t>
+  </si>
+  <si>
+    <t>aj3ss0sjip</t>
   </si>
   <si>
     <t>tg-방방 포근pt</t>
@@ -892,25 +892,25 @@
     <t>TG방방포근팬츠</t>
   </si>
   <si>
-    <t>v8yf6f6vaf</t>
-  </si>
-  <si>
-    <t>1euvdbnt8yq</t>
-  </si>
-  <si>
-    <t>upq5olel5s</t>
-  </si>
-  <si>
-    <t>8t9fjchkh86</t>
+    <t>rez4dkqlboe</t>
+  </si>
+  <si>
+    <t>5ik56ddvxii</t>
+  </si>
+  <si>
+    <t>8pnygnm00in</t>
+  </si>
+  <si>
+    <t>ra6pgiv5kk</t>
   </si>
   <si>
     <t>백메란지</t>
   </si>
   <si>
-    <t>pjszkhh6zom</t>
-  </si>
-  <si>
-    <t>pqgt38j7cj9</t>
+    <t>q0ffuyv4drd</t>
+  </si>
+  <si>
+    <t>jm4qk7ft6er</t>
   </si>
   <si>
     <t>tg-아이브 퍼프t</t>
@@ -919,7 +919,7 @@
     <t>TG아이브퍼프티셔츠</t>
   </si>
   <si>
-    <t>bzvmmk6dkcb</t>
+    <t>s8t9sckhgg</t>
   </si>
   <si>
     <t>tg-오스카 폴라t</t>
@@ -928,7 +928,7 @@
     <t>TG오스카폴라티셔츠</t>
   </si>
   <si>
-    <t>mid8wjnitwg</t>
+    <t>1y7onu4ylxc</t>
   </si>
   <si>
     <t>tg-오스카플라1</t>
@@ -937,7 +937,7 @@
     <t>TG오스카플라1</t>
   </si>
   <si>
-    <t>npbazipblkr</t>
+    <t>xg67szp5wgs</t>
   </si>
   <si>
     <t>tg-유니콘mtm</t>
@@ -949,10 +949,10 @@
     <t>TG유니콘맨투맨</t>
   </si>
   <si>
-    <t>x9qq5hatsua</t>
-  </si>
-  <si>
-    <t>dapjyq23cdg</t>
+    <t>22lqu5805ph</t>
+  </si>
+  <si>
+    <t>v5r1cei71n</t>
   </si>
   <si>
     <t>tg-치즈 폴라t</t>
@@ -961,10 +961,10 @@
     <t>TG치즈폴라티셔츠</t>
   </si>
   <si>
-    <t>bsnkpfs15z</t>
-  </si>
-  <si>
-    <t>daqdn55v5zo</t>
+    <t>y39uked4kb9</t>
+  </si>
+  <si>
+    <t>a5cyxsgmv4i</t>
   </si>
   <si>
     <t>tg-기모 톡톡청pt</t>
@@ -976,19 +976,19 @@
     <t>TG기모톡톡청팬츠</t>
   </si>
   <si>
-    <t>sfs08ocxqsh</t>
+    <t>9gplmdppual</t>
   </si>
   <si>
     <t>블랙청</t>
   </si>
   <si>
-    <t>w3ys7363u9i</t>
-  </si>
-  <si>
-    <t>dyomuj8y0aw</t>
-  </si>
-  <si>
-    <t>fghv8a3xlii</t>
+    <t>i3tzb7uyg9e</t>
+  </si>
+  <si>
+    <t>u5dcqg31z4i</t>
+  </si>
+  <si>
+    <t>pz6ara5amml</t>
   </si>
   <si>
     <t>tg-퍼머독 mtm</t>
@@ -1000,7 +1000,7 @@
     <t>TG퍼머독맨투맨</t>
   </si>
   <si>
-    <t>44bi0nr0vop</t>
+    <t>u9iy4xc4iy</t>
   </si>
   <si>
     <t>tg-포근해 후드t</t>
@@ -1009,13 +1009,13 @@
     <t>TG포근해후드티셔츠</t>
   </si>
   <si>
-    <t>awttnmkupv8</t>
-  </si>
-  <si>
-    <t>1kq5l9dfyde</t>
-  </si>
-  <si>
-    <t>nyuofv0jjsp</t>
+    <t>qmhu0vykyvl</t>
+  </si>
+  <si>
+    <t>k3syl11f4hb</t>
+  </si>
+  <si>
+    <t>zks94dgxwc</t>
   </si>
   <si>
     <t>tg-하나.둘.셋 mtm</t>
@@ -1027,7 +1027,7 @@
     <t>TG하나둘셋맨투맨</t>
   </si>
   <si>
-    <t>4afqhtfj8fa</t>
+    <t>7pp467dou7g</t>
   </si>
   <si>
     <t>tg-후레쉬 조거pt</t>
@@ -1036,7 +1036,7 @@
     <t>TG후레쉬조거팬츠</t>
   </si>
   <si>
-    <t>eaj99ux6jw8</t>
+    <t>a38hv2r6ql</t>
   </si>
   <si>
     <t>더랄라</t>
@@ -1048,7 +1048,7 @@
     <t/>
   </si>
   <si>
-    <t>nclhp3nojyg</t>
+    <t>0oqkupaxemyb</t>
   </si>
   <si>
     <t>나홀로T</t>
@@ -1057,13 +1057,13 @@
     <t>나홀로티셔츠</t>
   </si>
   <si>
-    <t>txjt3qwccpg</t>
+    <t>f0261xruawh</t>
   </si>
   <si>
     <t>나팔레깅스</t>
   </si>
   <si>
-    <t>tho7syz8d68</t>
+    <t>m52np1cyy1</t>
   </si>
   <si>
     <t>랄라KC골지타이즈</t>
@@ -1072,13 +1072,13 @@
     <t>모카</t>
   </si>
   <si>
-    <t>bg3jub5m7lm</t>
-  </si>
-  <si>
-    <t>341uwnfk3gv</t>
-  </si>
-  <si>
-    <t>lstbra8sy9</t>
+    <t>r7kwx9hbud</t>
+  </si>
+  <si>
+    <t>n1o7cstkmli</t>
+  </si>
+  <si>
+    <t>7y6es9djbsb</t>
   </si>
   <si>
     <t>렛츠고T</t>
@@ -1087,10 +1087,10 @@
     <t>렛츠고티셔츠</t>
   </si>
   <si>
-    <t>voop22z7c7f</t>
-  </si>
-  <si>
-    <t>8fw8o1duf0e</t>
+    <t>su4vc7u7kml</t>
+  </si>
+  <si>
+    <t>nccz1hp63lk</t>
   </si>
   <si>
     <t>미미러플T</t>
@@ -1099,13 +1099,13 @@
     <t>미미러플티셔츠</t>
   </si>
   <si>
-    <t>c076nxfrvvq</t>
+    <t>8joy89dk7s4</t>
   </si>
   <si>
     <t>보카귀돌이</t>
   </si>
   <si>
-    <t>3n9gyiwp1fk</t>
+    <t>pa7di7l1seg</t>
   </si>
   <si>
     <t>비숑PT</t>
@@ -1117,13 +1117,13 @@
     <t>비숑팬츠</t>
   </si>
   <si>
-    <t>engemip8gh</t>
+    <t>p7p6uvduaqe</t>
   </si>
   <si>
     <t>앙기모레깅스</t>
   </si>
   <si>
-    <t>lub75msrf2p</t>
+    <t>31e9iv7ifkk</t>
   </si>
   <si>
     <t>에덴본딩OPS</t>
@@ -1132,7 +1132,7 @@
     <t>에덴본딩원피스</t>
   </si>
   <si>
-    <t>5d3r164ghv</t>
+    <t>4gvrb6l5xp</t>
   </si>
   <si>
     <t>우디PT</t>
@@ -1141,19 +1141,19 @@
     <t>우디팬츠</t>
   </si>
   <si>
-    <t>mhpksxq68jq</t>
+    <t>igqye0fir7h</t>
   </si>
   <si>
     <t>퍼프토끼슈트</t>
   </si>
   <si>
-    <t>5z4fkercbwh</t>
+    <t>qzy25czti69</t>
   </si>
   <si>
     <t>퍼프티라노슈트</t>
   </si>
   <si>
-    <t>zbtuqanuiw</t>
+    <t>0tstsztnudi</t>
   </si>
   <si>
     <t>프리T</t>
@@ -1162,7 +1162,7 @@
     <t>프리티셔츠</t>
   </si>
   <si>
-    <t>ylofoaf5td9</t>
+    <t>kheawppw43</t>
   </si>
   <si>
     <t>더리틀오브</t>
@@ -1174,7 +1174,7 @@
     <t>굿모닝티셔츠</t>
   </si>
   <si>
-    <t>hvhlp13d3se</t>
+    <t>5q8f7ej3hlm</t>
   </si>
   <si>
     <t>와이드절개조거PT</t>
@@ -1183,7 +1183,7 @@
     <t>와이드절개조거팬츠</t>
   </si>
   <si>
-    <t>nzodhluou1h</t>
+    <t>ppqk6to57ui</t>
   </si>
   <si>
     <t>데일리베베</t>
@@ -1201,7 +1201,7 @@
     <t>블랙SET</t>
   </si>
   <si>
-    <t>r12xeb90toj</t>
+    <t>auwjrdz80hs</t>
   </si>
   <si>
     <t>24F)1+1페이크클라</t>
@@ -1219,7 +1219,7 @@
     <t>그레이SET</t>
   </si>
   <si>
-    <t>9f86w2urfvo</t>
+    <t>62s05nix97s</t>
   </si>
   <si>
     <t>24F)1+1페이크폴라</t>
@@ -1237,7 +1237,7 @@
     <t>오트밀SET</t>
   </si>
   <si>
-    <t>tk41pftdg6c</t>
+    <t>g1uoa0y8ro</t>
   </si>
   <si>
     <t>크림set</t>
@@ -1246,7 +1246,7 @@
     <t>크림SET</t>
   </si>
   <si>
-    <t>tbr5h6jsx2</t>
+    <t>f4r9xdoc0tf</t>
   </si>
   <si>
     <t>핑크set</t>
@@ -1255,7 +1255,7 @@
     <t>핑크SET</t>
   </si>
   <si>
-    <t>18f3jcbkxuv</t>
+    <t>h8qxn4xefsi</t>
   </si>
   <si>
     <t>24Fg기획)1+1기본충실T</t>
@@ -1264,13 +1264,13 @@
     <t>FG기획11기본충실티셔츠</t>
   </si>
   <si>
-    <t>14e4m8dh66u</t>
-  </si>
-  <si>
-    <t>910yk8yvuts</t>
-  </si>
-  <si>
-    <t>x7y9w3bmghg</t>
+    <t>og67iqqps3</t>
+  </si>
+  <si>
+    <t>bgj9bhcyspb</t>
+  </si>
+  <si>
+    <t>j9psilymeim</t>
   </si>
   <si>
     <t>24Ff기획)토스트상하세트</t>
@@ -1279,13 +1279,13 @@
     <t>FF기획토스트상하세트</t>
   </si>
   <si>
-    <t>zz1va2gry0o</t>
-  </si>
-  <si>
-    <t>pkexxcx2z0r</t>
-  </si>
-  <si>
-    <t>avex5ayleft</t>
+    <t>dfg1rsg88ch</t>
+  </si>
+  <si>
+    <t>2rgucl1x3n3</t>
+  </si>
+  <si>
+    <t>dr3gbwytv5l</t>
   </si>
   <si>
     <t>24Fc)리본자수맨투맨</t>
@@ -1294,13 +1294,13 @@
     <t>FC리본자수맨투맨</t>
   </si>
   <si>
-    <t>df4mj7v7k5b</t>
-  </si>
-  <si>
-    <t>vrgjf19o4i</t>
-  </si>
-  <si>
-    <t>v6hyv6meqc</t>
+    <t>b28s66vucbp</t>
+  </si>
+  <si>
+    <t>66mqfhsegt7</t>
+  </si>
+  <si>
+    <t>w92o2p9tyha</t>
   </si>
   <si>
     <t>24Fg)브이넥니트</t>
@@ -1309,7 +1309,7 @@
     <t>FG브이넥니트</t>
   </si>
   <si>
-    <t>niytcurovtg</t>
+    <t>qao92jluos</t>
   </si>
   <si>
     <t>24Fb)생지루즈청자켓</t>
@@ -1324,7 +1324,7 @@
     <t>ONECOLOR</t>
   </si>
   <si>
-    <t>gfqhrnm0c0u</t>
+    <t>kt5vtzri3fa</t>
   </si>
   <si>
     <t>24Fd)생지와이드팬츠</t>
@@ -1333,7 +1333,7 @@
     <t>FD생지와이드팬츠</t>
   </si>
   <si>
-    <t>dwnzryww4tl</t>
+    <t>eyof1xytwuo</t>
   </si>
   <si>
     <t>24Fd)생지주류스커트</t>
@@ -1345,7 +1345,7 @@
     <t>FD생지주류스커트</t>
   </si>
   <si>
-    <t>hcxkkf12ps5</t>
+    <t>ea9p1kzuml</t>
   </si>
   <si>
     <t>24Fb)어텀실내복</t>
@@ -1354,7 +1354,7 @@
     <t>FB어텀실내복</t>
   </si>
   <si>
-    <t>si32mfkk8u</t>
+    <t>fw6193psu04</t>
   </si>
   <si>
     <t>24Fe)위드러브상하세트</t>
@@ -1363,7 +1363,7 @@
     <t>FE위드러브상하세트</t>
   </si>
   <si>
-    <t>u101lwr3fz</t>
+    <t>r5hnsj59s9o</t>
   </si>
   <si>
     <t>24FC)파리하트맨투맨</t>
@@ -1372,13 +1372,13 @@
     <t>FC파리하트맨투맨</t>
   </si>
   <si>
-    <t>4oi8yk92lv9</t>
+    <t>t8jz8zbmkd9</t>
   </si>
   <si>
     <t>24Fc)파리하트맨투맨</t>
   </si>
   <si>
-    <t>qza80fjzpff</t>
+    <t>33adhsih7z2</t>
   </si>
   <si>
     <t>24Fe)피그먼트세트</t>
@@ -1387,13 +1387,13 @@
     <t>FE피그먼트세트</t>
   </si>
   <si>
-    <t>0ubeu4b6i9dn</t>
+    <t>lyj7eeiv5j</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>to6n9zx2nb</t>
+    <t>iaj90aismoe</t>
   </si>
   <si>
     <t>도레도레</t>
@@ -1411,7 +1411,7 @@
     <t>줄기모청팬츠</t>
   </si>
   <si>
-    <t>fqlsrn5t9aj</t>
+    <t>it6rl4cidv</t>
   </si>
   <si>
     <t>89기모크롬맨투맨</t>
@@ -1426,7 +1426,7 @@
     <t>기모크롬맨투맨</t>
   </si>
   <si>
-    <t>3jqkuhnukjo</t>
+    <t>sumqcsxze6b</t>
   </si>
   <si>
     <t>89기모후드집업</t>
@@ -1438,13 +1438,13 @@
     <t>기모후드집업</t>
   </si>
   <si>
-    <t>nq3v1oeocy</t>
+    <t>u94x5abrhnm</t>
   </si>
   <si>
     <t>97기모크롬맨투맨</t>
   </si>
   <si>
-    <t>f9ra63ifds</t>
+    <t>drfk30vlhz9</t>
   </si>
   <si>
     <t>곰두마리기모맨투맨</t>
@@ -1453,10 +1453,10 @@
     <t>07</t>
   </si>
   <si>
-    <t>gtktti7w21g</t>
-  </si>
-  <si>
-    <t>8f6984j1jz</t>
+    <t>cfjc4agm7v</t>
+  </si>
+  <si>
+    <t>nfqpyfspt6g</t>
   </si>
   <si>
     <t>단가라토끼기모맨투맨</t>
@@ -1468,34 +1468,34 @@
     <t>13</t>
   </si>
   <si>
-    <t>nzfrox8sqys</t>
-  </si>
-  <si>
-    <t>w3mn3uw1pv</t>
+    <t>ofdlvkl26ed</t>
+  </si>
+  <si>
+    <t>biivlcpt1ur</t>
   </si>
   <si>
     <t>05</t>
   </si>
   <si>
-    <t>pbqgwl8ykz</t>
-  </si>
-  <si>
-    <t>ifgvdjdvcz</t>
+    <t>sp4o6xxjgs9</t>
+  </si>
+  <si>
+    <t>wepahydhwm</t>
   </si>
   <si>
     <t>09</t>
   </si>
   <si>
-    <t>816kimc6phr</t>
-  </si>
-  <si>
-    <t>ek8f26kmte5</t>
-  </si>
-  <si>
-    <t>u8l14e0dclc</t>
-  </si>
-  <si>
-    <t>0fxpu2mok7g</t>
+    <t>7a5cer96pqi</t>
+  </si>
+  <si>
+    <t>gak1be11tl</t>
+  </si>
+  <si>
+    <t>ddo6hwtbz6m</t>
+  </si>
+  <si>
+    <t>l1j7niokmvk</t>
   </si>
   <si>
     <t>메이드양기모조거바지</t>
@@ -1504,7 +1504,7 @@
     <t>메이드양기모조거팬츠</t>
   </si>
   <si>
-    <t>e51rfgermuk</t>
+    <t>8czg5actaiv</t>
   </si>
   <si>
     <t>반폴라기모티</t>
@@ -1513,7 +1513,7 @@
     <t>반폴라기모티셔츠</t>
   </si>
   <si>
-    <t>5nwwxgzcaej</t>
+    <t>ihuwjfbd8fl</t>
   </si>
   <si>
     <t>벨로아밍크조거바지</t>
@@ -1522,7 +1522,7 @@
     <t>벨로아밍크조거팬츠</t>
   </si>
   <si>
-    <t>u0rwpx2916</t>
+    <t>hh19mrgn749</t>
   </si>
   <si>
     <t>듀디</t>
@@ -1531,13 +1531,13 @@
     <t>골지타이즈</t>
   </si>
   <si>
-    <t>m6azkws9m0g</t>
+    <t>6vwfix6m23j</t>
   </si>
   <si>
     <t>로우리비니</t>
   </si>
   <si>
-    <t>onw8n5iwyx</t>
+    <t>okr78z2ry3c</t>
   </si>
   <si>
     <t>로진바라클라바</t>
@@ -1546,25 +1546,25 @@
     <t>그레이</t>
   </si>
   <si>
-    <t>hukcbcfz4rj</t>
-  </si>
-  <si>
-    <t>42qngdockfj</t>
+    <t>k9g7vazcfd</t>
+  </si>
+  <si>
+    <t>7nhcopy955q</t>
   </si>
   <si>
     <t>루이블랙</t>
   </si>
   <si>
-    <t>8mx25hydoks</t>
+    <t>u03ip6l7t0f</t>
   </si>
   <si>
     <t>리본머리띠</t>
   </si>
   <si>
-    <t>9gidesgws1k</t>
-  </si>
-  <si>
-    <t>qkupetf1ghp</t>
+    <t>s716jb7o1yr</t>
+  </si>
+  <si>
+    <t>r5mpeicvw3c</t>
   </si>
   <si>
     <t>링클리본장갑</t>
@@ -1576,13 +1576,13 @@
     <t>연핑크</t>
   </si>
   <si>
-    <t>2dowg00q9do</t>
+    <t>a8bw1so8s8r</t>
   </si>
   <si>
     <t>버블장갑</t>
   </si>
   <si>
-    <t>mmlabkjmj5i</t>
+    <t>pfmh8pgf9jl</t>
   </si>
   <si>
     <t>부띠끄머플러</t>
@@ -1591,28 +1591,28 @@
     <t>연베</t>
   </si>
   <si>
-    <t>oow8jqrm54</t>
+    <t>qybc6u0qvj</t>
   </si>
   <si>
     <t>진베</t>
   </si>
   <si>
-    <t>5chwm08x7b4</t>
-  </si>
-  <si>
-    <t>go038n0jxuv</t>
+    <t>s63moxffoid</t>
+  </si>
+  <si>
+    <t>pu0bdc4q7z</t>
   </si>
   <si>
     <t>비글비니</t>
   </si>
   <si>
-    <t>69jylgsvqgc</t>
+    <t>3msinukn2if</t>
   </si>
   <si>
     <t>우퍼바라클라바</t>
   </si>
   <si>
-    <t>atesfi8nb3</t>
+    <t>te5r8pirx7</t>
   </si>
   <si>
     <t>포돌바라클라바</t>
@@ -1621,13 +1621,13 @@
     <t>베이비</t>
   </si>
   <si>
-    <t>7rxxv9ht0oh</t>
-  </si>
-  <si>
-    <t>ow86zzmo4pa</t>
-  </si>
-  <si>
-    <t>w9j04618wqp</t>
+    <t>782myb3fmlt</t>
+  </si>
+  <si>
+    <t>uxivpr5yd4s</t>
+  </si>
+  <si>
+    <t>ki8ym45tkf</t>
   </si>
   <si>
     <t>핸프장갑</t>
@@ -1636,19 +1636,19 @@
     <t>키즈</t>
   </si>
   <si>
-    <t>9ow8eiko6em</t>
+    <t>tlp3a1atvyc</t>
   </si>
   <si>
     <t>홀링4종</t>
   </si>
   <si>
-    <t>lja0ov32og</t>
+    <t>o962q09umd</t>
   </si>
   <si>
     <t>타오캡</t>
   </si>
   <si>
-    <t>0ruxhp1631i</t>
+    <t>uwvpgi525c</t>
   </si>
   <si>
     <t>디그린</t>
@@ -1660,7 +1660,7 @@
     <t>부팬츠</t>
   </si>
   <si>
-    <t>r2l290uuhu</t>
+    <t>gyqxyk8uzwa</t>
   </si>
   <si>
     <t>데이데님팬츠</t>
@@ -1672,13 +1672,13 @@
     <t>XXL</t>
   </si>
   <si>
-    <t>nmnr49ybvtj</t>
+    <t>3o9dvgpjyuj</t>
   </si>
   <si>
     <t>딜라이트맨투맨</t>
   </si>
   <si>
-    <t>nbq8m69utr9</t>
+    <t>c6qsd5o7ngv</t>
   </si>
   <si>
     <t>레이티셔츠</t>
@@ -1687,7 +1687,7 @@
     <t>소라</t>
   </si>
   <si>
-    <t>rcc9efggjyi</t>
+    <t>mketb5v98pq</t>
   </si>
   <si>
     <t>루즈반목티</t>
@@ -1696,43 +1696,43 @@
     <t>루즈반목티셔츠</t>
   </si>
   <si>
-    <t>ks9gjq0v3u</t>
+    <t>y8a025pjiz</t>
   </si>
   <si>
     <t>마이쮸팬츠</t>
   </si>
   <si>
-    <t>oi5va6fmw2r</t>
-  </si>
-  <si>
-    <t>imoaou1k25</t>
+    <t>utokczbvp1r</t>
+  </si>
+  <si>
+    <t>mb7qmi3z4uf</t>
   </si>
   <si>
     <t>뽀글반오픈맨투맨</t>
   </si>
   <si>
-    <t>dxdhbwc29l</t>
+    <t>8ijze7riyoa</t>
   </si>
   <si>
     <t>슈슈조거팬츠</t>
   </si>
   <si>
-    <t>skpsqllhsw</t>
-  </si>
-  <si>
-    <t>7kz653d8h1f</t>
+    <t>51l9xs02id</t>
+  </si>
+  <si>
+    <t>10hydbxa4czc</t>
   </si>
   <si>
     <t>조거레깅스</t>
   </si>
   <si>
-    <t>vanoajckie</t>
+    <t>8badi3x23ge</t>
   </si>
   <si>
     <t>플립반목티셔츠</t>
   </si>
   <si>
-    <t>uonljm57fyq</t>
+    <t>808nqe3gee5</t>
   </si>
   <si>
     <t>내추럴 서스펜더</t>
@@ -1741,7 +1741,7 @@
     <t>내추럴서스펜더</t>
   </si>
   <si>
-    <t>kqw7h3wzotb</t>
+    <t>s01nud9qxl</t>
   </si>
   <si>
     <t>레이어드삭스</t>
@@ -1750,13 +1750,13 @@
     <t>ONE/M</t>
   </si>
   <si>
-    <t>yenpxi1k3ln</t>
+    <t>o5gpdwfgm1</t>
   </si>
   <si>
     <t>밤토리보넷</t>
   </si>
   <si>
-    <t>8rlxszg4kg5</t>
+    <t>f0ulkwr359i</t>
   </si>
   <si>
     <t>버터삭스</t>
@@ -1765,25 +1765,25 @@
     <t>ONE/XL</t>
   </si>
   <si>
-    <t>b4ed6gdi6xr</t>
-  </si>
-  <si>
-    <t>nwrwl9np91l</t>
+    <t>2wty03hkp1d</t>
+  </si>
+  <si>
+    <t>xx3b7szfubj</t>
   </si>
   <si>
     <t>앤더스덤블캡</t>
   </si>
   <si>
-    <t>wh2cgip2o7s</t>
+    <t>3ve6cr7nxn7</t>
   </si>
   <si>
     <t>앤더스패딩</t>
   </si>
   <si>
-    <t>kaxneeu7j5n</t>
-  </si>
-  <si>
-    <t>zyf4740ss6</t>
+    <t>ylbtk0w4h3a</t>
+  </si>
+  <si>
+    <t>hangv3rg14p</t>
   </si>
   <si>
     <t>윌리삭스</t>
@@ -1792,22 +1792,22 @@
     <t>ONE/L</t>
   </si>
   <si>
-    <t>1feet9lokx</t>
+    <t>u3cgmn3mhgi</t>
   </si>
   <si>
     <t>크림워머</t>
   </si>
   <si>
-    <t>3soue1q9lze</t>
-  </si>
-  <si>
-    <t>07mfyfgzen8m</t>
+    <t>rmt2tm7ygdn</t>
+  </si>
+  <si>
+    <t>xegkv9ed3fg</t>
   </si>
   <si>
     <t>퓨처삭스</t>
   </si>
   <si>
-    <t>f6elzhat9xs</t>
+    <t>kbhbkkvx7t7</t>
   </si>
   <si>
     <t>라고</t>
@@ -1816,7 +1816,7 @@
     <t>핀택조거팬츠</t>
   </si>
   <si>
-    <t>744u2gimolq</t>
+    <t>p660bxtwos</t>
   </si>
   <si>
     <t>라라랜드</t>
@@ -1828,7 +1828,7 @@
     <t>WB곰돌이푸들</t>
   </si>
   <si>
-    <t>zep4zmthgc</t>
+    <t>4bcwc6w3fsf</t>
   </si>
   <si>
     <t>24w.b마카롱줄티</t>
@@ -1837,7 +1837,7 @@
     <t>WB마카롱줄티셔츠</t>
   </si>
   <si>
-    <t>gpp3v8qgd5f</t>
+    <t>rbwnovliauf</t>
   </si>
   <si>
     <t>24w.b버터골지</t>
@@ -1846,13 +1846,13 @@
     <t>WB버터골지</t>
   </si>
   <si>
-    <t>s60mvev242</t>
+    <t>1zm0uarh27y</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>m1axtkmu77j</t>
+    <t>xpxl9nrxs5</t>
   </si>
   <si>
     <t>24w.b기모니트레깅스</t>
@@ -1861,7 +1861,7 @@
     <t>WB기모니트레깅스</t>
   </si>
   <si>
-    <t>rng0kzdr2bo</t>
+    <t>9cwy07uefx</t>
   </si>
   <si>
     <t>24w.b버튼비니</t>
@@ -1873,7 +1873,7 @@
     <t>WB버튼비니</t>
   </si>
   <si>
-    <t>4rr85mn7hav</t>
+    <t>vja6c29w6fj</t>
   </si>
   <si>
     <t>24w.b푸들멜빵블루머</t>
@@ -1882,7 +1882,7 @@
     <t>WB푸들멜빵블루머</t>
   </si>
   <si>
-    <t>ch9wouzglzk</t>
+    <t>j05e7jnnf9q</t>
   </si>
   <si>
     <t>24w.b푸들조거</t>
@@ -1891,7 +1891,7 @@
     <t>WB푸들조거</t>
   </si>
   <si>
-    <t>x9l2q79n8l</t>
+    <t>diilzi1cuim</t>
   </si>
   <si>
     <t>24w.b풋워머</t>
@@ -1903,10 +1903,10 @@
     <t>WB풋워머</t>
   </si>
   <si>
-    <t>c9pln0o99ib</t>
-  </si>
-  <si>
-    <t>xc44wr3m0qe</t>
+    <t>v6rm0yb4ob</t>
+  </si>
+  <si>
+    <t>6k25dc0vtjd</t>
   </si>
   <si>
     <t>24w.b항아리누빔멜빵</t>
@@ -1915,7 +1915,7 @@
     <t>WB항아리누빔멜빵</t>
   </si>
   <si>
-    <t>q6d5a5tvhi7</t>
+    <t>mz0x5doq0r8</t>
   </si>
   <si>
     <t>러브로지</t>
@@ -1924,10 +1924,10 @@
     <t>리본조거바지24겨울</t>
   </si>
   <si>
-    <t>h6x2bqpy89i</t>
-  </si>
-  <si>
-    <t>7qo8xs4l5xh</t>
+    <t>ug1ulgp91g</t>
+  </si>
+  <si>
+    <t>act9e22reit</t>
   </si>
   <si>
     <t>레모네이드</t>
@@ -1939,13 +1939,13 @@
     <t>화이트</t>
   </si>
   <si>
-    <t>rnjuxmab2rf</t>
+    <t>jk0ybdhpr9p</t>
   </si>
   <si>
     <t>루안</t>
   </si>
   <si>
-    <t>ptxicxxr9zs</t>
+    <t>wweq492v2wa</t>
   </si>
   <si>
     <t>보글보글</t>
@@ -1954,34 +1954,34 @@
     <t>민트</t>
   </si>
   <si>
-    <t>fafbspuyspq</t>
+    <t>dsnl6bvef9</t>
   </si>
   <si>
     <t>보노후리스</t>
   </si>
   <si>
-    <t>mdiswoscry</t>
+    <t>h5tww1fxh4k</t>
   </si>
   <si>
     <t>장미슈트</t>
   </si>
   <si>
-    <t>znzxv8of5eq</t>
+    <t>cms8f7j0r</t>
   </si>
   <si>
     <t>제리팬츠</t>
   </si>
   <si>
-    <t>w35sfpqdrx</t>
-  </si>
-  <si>
-    <t>7zge7h7tg2u</t>
+    <t>12jgrin8xzc</t>
+  </si>
+  <si>
+    <t>gxf18drupa7</t>
   </si>
   <si>
     <t>초이스</t>
   </si>
   <si>
-    <t>zry2usbgh2</t>
+    <t>66d1ar3nptj</t>
   </si>
   <si>
     <t>토시워머</t>
@@ -1993,19 +1993,19 @@
     <t>M12M</t>
   </si>
   <si>
-    <t>6vn7dqgxp9u</t>
+    <t>i16parvju9</t>
   </si>
   <si>
     <t>포근혜</t>
   </si>
   <si>
-    <t>1gi5ath27oz</t>
+    <t>0wyewouhprn</t>
   </si>
   <si>
     <t>풋레깅스</t>
   </si>
   <si>
-    <t>mxl4axb5ukg</t>
+    <t>yeagxmj3swj</t>
   </si>
   <si>
     <t>후드머플러</t>
@@ -2017,7 +2017,7 @@
     <t>M18M</t>
   </si>
   <si>
-    <t>01kou0octxcu</t>
+    <t>czs13npd2ug</t>
   </si>
   <si>
     <t>레브</t>
@@ -2026,25 +2026,25 @@
     <t>네추럴니트</t>
   </si>
   <si>
-    <t>g6xr24saapk</t>
+    <t>co0w69s9llq</t>
   </si>
   <si>
     <t>레드니트가디건</t>
   </si>
   <si>
-    <t>vlxzoi7l1in</t>
+    <t>mhew9gyg47n</t>
   </si>
   <si>
     <t>사선패턴니트</t>
   </si>
   <si>
-    <t>tfyofht3r8</t>
+    <t>h9vlrkmf4hi</t>
   </si>
   <si>
     <t>시즌케이블니트</t>
   </si>
   <si>
-    <t>3a9cw747y55</t>
+    <t>ploxj1q7t7h</t>
   </si>
   <si>
     <t>22오버핏케이블가디건</t>
@@ -2053,7 +2053,7 @@
     <t>오버핏케이블가디건</t>
   </si>
   <si>
-    <t>o3o2s4wt3cc</t>
+    <t>nm54k730pkd</t>
   </si>
   <si>
     <t>윈드아노락</t>
@@ -2062,28 +2062,28 @@
     <t>머스타드</t>
   </si>
   <si>
-    <t>u4d54ojxd9</t>
-  </si>
-  <si>
-    <t>if2v8ps5hn</t>
-  </si>
-  <si>
-    <t>57132p54r8b</t>
+    <t>lscq7xt12p</t>
+  </si>
+  <si>
+    <t>tdfs2n86x5h</t>
+  </si>
+  <si>
+    <t>01j1oya720g6</t>
   </si>
   <si>
     <t>슬릿케이블니트</t>
   </si>
   <si>
-    <t>59cz3gmwcs8</t>
+    <t>mof02grnmf</t>
   </si>
   <si>
     <t>맘</t>
   </si>
   <si>
-    <t>paucce8c2uj</t>
-  </si>
-  <si>
-    <t>8z62bel38y6</t>
+    <t>d7bidw73xj8</t>
+  </si>
+  <si>
+    <t>bfty4ehotmu</t>
   </si>
   <si>
     <t>빵빵트루퍼햇</t>
@@ -2092,7 +2092,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>hky6dzj16k4</t>
+    <t>3ljkz34ahkz</t>
   </si>
   <si>
     <t>레브베베</t>
@@ -2101,7 +2101,7 @@
     <t>케이블니트세트</t>
   </si>
   <si>
-    <t>2pkkoq3aw3e</t>
+    <t>vrxe1kegav</t>
   </si>
   <si>
     <t>베어클라바</t>
@@ -2110,7 +2110,7 @@
     <t>카멜</t>
   </si>
   <si>
-    <t>9pzlmewlojo</t>
+    <t>7k2tgr5poi3</t>
   </si>
   <si>
     <t>베베체크리본세트</t>
@@ -2119,22 +2119,22 @@
     <t>핑크베이지</t>
   </si>
   <si>
-    <t>q3diwdtr2mg</t>
+    <t>8lmfkf51ftg</t>
   </si>
   <si>
     <t>와플니트가디건</t>
   </si>
   <si>
-    <t>5xenb6etb5f</t>
+    <t>kaxvk1j0yhd</t>
   </si>
   <si>
     <t>베베양면패딩조끼</t>
   </si>
   <si>
-    <t>e6q24s2yp7r</t>
-  </si>
-  <si>
-    <t>fdswc4rjo8r</t>
+    <t>ngijgl001i</t>
+  </si>
+  <si>
+    <t>rheu1knspea</t>
   </si>
   <si>
     <t>24밴딩데님팬츠</t>
@@ -2146,19 +2146,19 @@
     <t>밴딩데님팬츠</t>
   </si>
   <si>
-    <t>brtgdlawgs7</t>
+    <t>awfmgof0da7</t>
   </si>
   <si>
     <t>니트투피스</t>
   </si>
   <si>
-    <t>w4o1az1a23n</t>
+    <t>rr49hyluy2l</t>
   </si>
   <si>
     <t>누빔원피스</t>
   </si>
   <si>
-    <t>vox8zkj38zq</t>
+    <t>cmfrfer0vta</t>
   </si>
   <si>
     <t>24기획곰돌이패딩</t>
@@ -2170,10 +2170,10 @@
     <t>기획곰돌이패딩</t>
   </si>
   <si>
-    <t>g6yq87s4ili</t>
-  </si>
-  <si>
-    <t>c5dv3ahzpvf</t>
+    <t>0bol01nj0rv8</t>
+  </si>
+  <si>
+    <t>05m82y01dql</t>
   </si>
   <si>
     <t>23누빔보넷세트</t>
@@ -2182,13 +2182,13 @@
     <t>누빔보넷세트</t>
   </si>
   <si>
-    <t>c0rl2ogcdkr</t>
+    <t>2kkn4p6etb2</t>
   </si>
   <si>
     <t>가디건세트</t>
   </si>
   <si>
-    <t>vpgnhgoxsvs</t>
+    <t>q0kkqv8d1vj</t>
   </si>
   <si>
     <t>베베5종니삭스</t>
@@ -2200,7 +2200,7 @@
     <t>ASET</t>
   </si>
   <si>
-    <t>5qpzhrt8ed</t>
+    <t>8natydai07l</t>
   </si>
   <si>
     <t>B세트</t>
@@ -2209,7 +2209,7 @@
     <t>BSET</t>
   </si>
   <si>
-    <t>ocgnmn3mrme</t>
+    <t>070rkf2wg9tg</t>
   </si>
   <si>
     <t>C세트</t>
@@ -2218,7 +2218,7 @@
     <t>CSET</t>
   </si>
   <si>
-    <t>d7um4s5v1u</t>
+    <t>lz9hjcrdz8p</t>
   </si>
   <si>
     <t>M+ 에스닉니트가디건</t>
@@ -2227,7 +2227,7 @@
     <t>M에스닉니트가디건</t>
   </si>
   <si>
-    <t>hh7ugeerlkg</t>
+    <t>6aguruqh68m</t>
   </si>
   <si>
     <t>M+ 기획베어후리스자켓</t>
@@ -2236,7 +2236,7 @@
     <t>M기획베어후리스자켓</t>
   </si>
   <si>
-    <t>eunozbvxbqh</t>
+    <t>ohm0p8bzp6</t>
   </si>
   <si>
     <t>M+ 24누빔코트</t>
@@ -2245,7 +2245,7 @@
     <t>M24누빔코트</t>
   </si>
   <si>
-    <t>h8ruhm1mtik</t>
+    <t>cam1jns3cm</t>
   </si>
   <si>
     <t>M+ 누빔원피스</t>
@@ -2254,7 +2254,7 @@
     <t>M누빔원피스</t>
   </si>
   <si>
-    <t>1refarsh0l7</t>
+    <t>xvp5h4ixuqd</t>
   </si>
   <si>
     <t>M+ 꽈베기상하세트</t>
@@ -2263,7 +2263,7 @@
     <t>M꽈베기상하세트</t>
   </si>
   <si>
-    <t>r7omdicm6y</t>
+    <t>wkieqr9awxi</t>
   </si>
   <si>
     <t>M+ 24기획곰돌이패딩</t>
@@ -2272,7 +2272,7 @@
     <t>M24기획곰돌이패딩</t>
   </si>
   <si>
-    <t>cgx5imjs2a</t>
+    <t>bn7e0o8n7n4</t>
   </si>
   <si>
     <t>로다제이</t>
@@ -2284,19 +2284,19 @@
     <t>연카키</t>
   </si>
   <si>
-    <t>s1fbdnufspn</t>
+    <t>mo4gkfc75o</t>
   </si>
   <si>
     <t>B올인가디건</t>
   </si>
   <si>
-    <t>swnzu3o2cvf</t>
+    <t>t06iyh52cdq</t>
   </si>
   <si>
     <t>머즈체크남방</t>
   </si>
   <si>
-    <t>vvnzcvkterr</t>
+    <t>taia5iv54h</t>
   </si>
   <si>
     <t>로이</t>
@@ -2314,7 +2314,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>s4m0xzidhi</t>
+    <t>wk92ibhk4o</t>
   </si>
   <si>
     <t>알파벳 양말</t>
@@ -2329,7 +2329,7 @@
     <t>알파벳양말</t>
   </si>
   <si>
-    <t>u6liwoqh72</t>
+    <t>j32vgmptih</t>
   </si>
   <si>
     <t>토이데일리후드</t>
@@ -2338,13 +2338,13 @@
     <t>민트카키</t>
   </si>
   <si>
-    <t>x5z79gymfc</t>
+    <t>43lynw0m0ey</t>
   </si>
   <si>
     <t>시데일리토미조거</t>
   </si>
   <si>
-    <t>yok07icob0n</t>
+    <t>8zmodzaore</t>
   </si>
   <si>
     <t>리우리우</t>
@@ -2359,10 +2359,10 @@
     <t>RW와이드핀탁조거팬츠</t>
   </si>
   <si>
-    <t>cg9fw4geua</t>
-  </si>
-  <si>
-    <t>25ggqx25kiz</t>
+    <t>jehbbmwsk7n</t>
+  </si>
+  <si>
+    <t>u69yilse2hm</t>
   </si>
   <si>
     <t>리우CP스트링팬츠</t>
@@ -2371,7 +2371,7 @@
     <t>4X</t>
   </si>
   <si>
-    <t>a8eycibd3g</t>
+    <t>8zth0dj2qo</t>
   </si>
   <si>
     <t>리버스와이드배색PT</t>
@@ -2380,7 +2380,7 @@
     <t>리버스와이드배색팬츠</t>
   </si>
   <si>
-    <t>3v39l2s1vpi</t>
+    <t>tm900j5c7ln</t>
   </si>
   <si>
     <t>린도</t>
@@ -2392,7 +2392,7 @@
     <t>다람쥐맨투맨</t>
   </si>
   <si>
-    <t>gdvtdhibeb</t>
+    <t>armuwrdt13m</t>
   </si>
   <si>
     <t>레이스패치MTM</t>
@@ -2401,7 +2401,7 @@
     <t>레이스패치맨투맨</t>
   </si>
   <si>
-    <t>zhj2igownch</t>
+    <t>m6ftarht70a</t>
   </si>
   <si>
     <t>마미베어MTM</t>
@@ -2410,7 +2410,7 @@
     <t>마미베어맨투맨</t>
   </si>
   <si>
-    <t>67bykveo7w</t>
+    <t>v4w3ukei9kr</t>
   </si>
   <si>
     <t>모네PT</t>
@@ -2419,7 +2419,7 @@
     <t>모네팬츠</t>
   </si>
   <si>
-    <t>bv2d5nulze</t>
+    <t>lu3a81jut3s</t>
   </si>
   <si>
     <t>보보MTM</t>
@@ -2434,7 +2434,7 @@
     <t>퍼플</t>
   </si>
   <si>
-    <t>j5q96nhb6no</t>
+    <t>pyzpwj1p9fr</t>
   </si>
   <si>
     <t>소프트볼MTM</t>
@@ -2443,7 +2443,7 @@
     <t>소프트볼맨투맨</t>
   </si>
   <si>
-    <t>b0txknrwbf</t>
+    <t>ryh0yw306uc</t>
   </si>
   <si>
     <t>스쿨베어MTM</t>
@@ -2452,7 +2452,7 @@
     <t>스쿨베어맨투맨</t>
   </si>
   <si>
-    <t>sna62d6a1rf</t>
+    <t>rj6z05dmba</t>
   </si>
   <si>
     <t>스퀘어PT</t>
@@ -2461,22 +2461,22 @@
     <t>스퀘어팬츠</t>
   </si>
   <si>
-    <t>3dt66dakfo8</t>
+    <t>8v9hisf9039</t>
   </si>
   <si>
     <t>심플자수CD</t>
   </si>
   <si>
-    <t>b5wolp31l4s</t>
+    <t>6he8xby1n7l</t>
   </si>
   <si>
     <t>캠핑망또</t>
   </si>
   <si>
-    <t>r185b6r4eh</t>
-  </si>
-  <si>
-    <t>vrw6cjmxf1</t>
+    <t>d299g6as6ut</t>
+  </si>
+  <si>
+    <t>mv4tk732kc</t>
   </si>
   <si>
     <t>릴리부스</t>
@@ -2491,7 +2491,7 @@
     <t>긍정이티J</t>
   </si>
   <si>
-    <t>do3aye33q9</t>
+    <t>9ux4jh1udak</t>
   </si>
   <si>
     <t>리얼나그랑 티J</t>
@@ -2500,7 +2500,7 @@
     <t>리얼나그랑티J</t>
   </si>
   <si>
-    <t>qbd3fo54m7e</t>
+    <t>wzzxqpfr4q</t>
   </si>
   <si>
     <t>미유 맨투맨J</t>
@@ -2509,7 +2509,7 @@
     <t>미유맨투맨J</t>
   </si>
   <si>
-    <t>kgv5yfqy7xd</t>
+    <t>ck0jwyyec6w</t>
   </si>
   <si>
     <t>기획/어텀핀턱조거</t>
@@ -2518,7 +2518,7 @@
     <t>기획어텀핀턱조거</t>
   </si>
   <si>
-    <t>1yog576bim2</t>
+    <t>zhhe71mlsc</t>
   </si>
   <si>
     <t>마이베베</t>
@@ -2530,25 +2530,25 @@
     <t>I</t>
   </si>
   <si>
-    <t>r98n6gw21n</t>
+    <t>mt55ozi4t8</t>
   </si>
   <si>
     <t>기모골지유발레깅스</t>
   </si>
   <si>
-    <t>jyk4zn6zx4t</t>
-  </si>
-  <si>
-    <t>myybro10y1</t>
-  </si>
-  <si>
-    <t>1410jj6pz3s</t>
+    <t>mo17f2skucb</t>
+  </si>
+  <si>
+    <t>d915d3new3</t>
+  </si>
+  <si>
+    <t>01ihm10hxdbc</t>
   </si>
   <si>
     <t>리버시후드슈트</t>
   </si>
   <si>
-    <t>h8djlfc4b4b</t>
+    <t>w4dg1rzmel</t>
   </si>
   <si>
     <t>망토보넷</t>
@@ -2560,7 +2560,7 @@
     <t>FREESIZE</t>
   </si>
   <si>
-    <t>2iw2cbokukq</t>
+    <t>qu5s4vkkzt</t>
   </si>
   <si>
     <t>반폴라티</t>
@@ -2572,10 +2572,10 @@
     <t>반폴라티셔츠</t>
   </si>
   <si>
-    <t>9r6oknyn1a</t>
-  </si>
-  <si>
-    <t>2d3qg9s64ip</t>
+    <t>2y2nb85cbtz</t>
+  </si>
+  <si>
+    <t>py8smjaavl</t>
   </si>
   <si>
     <t>스틱골덴슈트</t>
@@ -2584,25 +2584,25 @@
     <t>리본</t>
   </si>
   <si>
-    <t>g48q6qsldn</t>
+    <t>f5qra8nt3wf</t>
   </si>
   <si>
     <t>체크</t>
   </si>
   <si>
-    <t>qwsxat3xkh</t>
+    <t>vcilzusrfs</t>
   </si>
   <si>
     <t>양기모단가라바디슈트</t>
   </si>
   <si>
-    <t>nketfhsmx5</t>
+    <t>gdusyk9dewc</t>
   </si>
   <si>
     <t>m</t>
   </si>
   <si>
-    <t>hqklhz9z0t4</t>
+    <t>n13dimmck0l</t>
   </si>
   <si>
     <t>마이삭스</t>
@@ -2617,7 +2617,7 @@
     <t>호밀빵</t>
   </si>
   <si>
-    <t>6xz76j7wx8</t>
+    <t>6dqi7gvfel7</t>
   </si>
   <si>
     <t>307바게트</t>
@@ -2629,13 +2629,13 @@
     <t>바게트</t>
   </si>
   <si>
-    <t>rlj1dlsaqt</t>
+    <t>sam0e0bjmi</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>yhj7l286kyp</t>
+    <t>gj9s1eypi</t>
   </si>
   <si>
     <t>308고로케</t>
@@ -2644,7 +2644,7 @@
     <t>고로케</t>
   </si>
   <si>
-    <t>mth8akkanx</t>
+    <t>fxtw57zbtvn</t>
   </si>
   <si>
     <t>368반딧불이</t>
@@ -2656,7 +2656,7 @@
     <t>반딧불이</t>
   </si>
   <si>
-    <t>2tn0tldbnqe</t>
+    <t>euztwimvsnj</t>
   </si>
   <si>
     <t>375잠자리</t>
@@ -2665,7 +2665,7 @@
     <t>잠자리</t>
   </si>
   <si>
-    <t>c9zdu1wxn1j</t>
+    <t>xr0wm9y9e8</t>
   </si>
   <si>
     <t>마틸다앤리</t>
@@ -2677,7 +2677,7 @@
     <t>회색</t>
   </si>
   <si>
-    <t>4o9kfoojmab</t>
+    <t>fbel72fw7yh</t>
   </si>
   <si>
     <t>데일리데님바지</t>
@@ -2686,7 +2686,7 @@
     <t>데일리데님팬츠</t>
   </si>
   <si>
-    <t>mrcqn36c24</t>
+    <t>3fmlevyc2s</t>
   </si>
   <si>
     <t>멜멜</t>
@@ -2698,13 +2698,13 @@
     <t>골지티셔츠</t>
   </si>
   <si>
-    <t>yonkvxdd47e</t>
-  </si>
-  <si>
-    <t>uvcoel2w1r</t>
-  </si>
-  <si>
-    <t>735zlwf2ea8</t>
+    <t>9h1pynxwm68</t>
+  </si>
+  <si>
+    <t>c9hfxu16kvf</t>
+  </si>
+  <si>
+    <t>vrvp8g1kr</t>
   </si>
   <si>
     <t>스트레이트 데님 PT</t>
@@ -2713,7 +2713,7 @@
     <t>스트레이트데님팬츠</t>
   </si>
   <si>
-    <t>mal522ymria</t>
+    <t>dp3f50q24hi</t>
   </si>
   <si>
     <t>모란</t>
@@ -2725,7 +2725,7 @@
     <t>곰돌이꽃상하</t>
   </si>
   <si>
-    <t>pgx7b7vv3fg</t>
+    <t>heab98xznt6</t>
   </si>
   <si>
     <t>꽃가득 셋트</t>
@@ -2737,13 +2737,13 @@
     <t>꽃가득셋트</t>
   </si>
   <si>
-    <t>efn4mwuo9y</t>
+    <t>xpdif0dgff</t>
   </si>
   <si>
     <t>니트고쟁이</t>
   </si>
   <si>
-    <t>yxlmi6bvdas</t>
+    <t>09harwdlc5wr</t>
   </si>
   <si>
     <t>당근 상하복</t>
@@ -2752,13 +2752,13 @@
     <t>당근상하복</t>
   </si>
   <si>
-    <t>773j9m2zx1a</t>
+    <t>fl33nm9npzg</t>
   </si>
   <si>
     <t>루돌프미니슈트</t>
   </si>
   <si>
-    <t>w82hxxmug</t>
+    <t>xexbnhscmxn</t>
   </si>
   <si>
     <t>모자곰 상하</t>
@@ -2767,7 +2767,7 @@
     <t>모자곰상하</t>
   </si>
   <si>
-    <t>zpkrzyoy21</t>
+    <t>s2cvx7uchc</t>
   </si>
   <si>
     <t>미오팬츠 세트</t>
@@ -2779,7 +2779,7 @@
     <t>미오팬츠세트</t>
   </si>
   <si>
-    <t>ljwzohnq7zh</t>
+    <t>1s5z0u813fy</t>
   </si>
   <si>
     <t>베베 미키T</t>
@@ -2791,19 +2791,19 @@
     <t>베베미키티셔츠</t>
   </si>
   <si>
-    <t>0jbb4266k57j</t>
+    <t>d4a227z3mn5</t>
   </si>
   <si>
     <t>베이직하트상하</t>
   </si>
   <si>
-    <t>mv6aauqyyan</t>
+    <t>pbl89y07qsp</t>
   </si>
   <si>
     <t>뽀글곰상하</t>
   </si>
   <si>
-    <t>7jt283c4szt</t>
+    <t>x7i8ws6kmzj</t>
   </si>
   <si>
     <t>신호등 3종 슈트</t>
@@ -2812,16 +2812,16 @@
     <t>신호등3종슈트</t>
   </si>
   <si>
-    <t>oo3u7q7qji</t>
+    <t>xhm8ttccami</t>
   </si>
   <si>
     <t>신호등 3종슈트</t>
   </si>
   <si>
-    <t>rwtx28ylywi</t>
-  </si>
-  <si>
-    <t>dr94j6p06g</t>
+    <t>v44np6djyyi</t>
+  </si>
+  <si>
+    <t>lup89vd09ac</t>
   </si>
   <si>
     <t>아이린 조끼 셋트</t>
@@ -2830,13 +2830,13 @@
     <t>아이린조끼셋트</t>
   </si>
   <si>
-    <t>h39z53hunuf</t>
+    <t>tbj87zks9le</t>
   </si>
   <si>
     <t>아이린조끼 셋트</t>
   </si>
   <si>
-    <t>23lzjg0e8bi</t>
+    <t>stxn30g9gi</t>
   </si>
   <si>
     <t>안녕미키 슈트</t>
@@ -2845,13 +2845,13 @@
     <t>안녕미키슈트</t>
   </si>
   <si>
-    <t>9edcnc4zirp</t>
+    <t>zhn758moaag</t>
   </si>
   <si>
     <t>오렌지</t>
   </si>
   <si>
-    <t>lpz1llwkv</t>
+    <t>re133jt38n</t>
   </si>
   <si>
     <t>야채 슈트</t>
@@ -2860,7 +2860,7 @@
     <t>야채슈트</t>
   </si>
   <si>
-    <t>vn2knozkk5</t>
+    <t>ggwc45aj1ir</t>
   </si>
   <si>
     <t>에브리데이 슈트</t>
@@ -2869,7 +2869,7 @@
     <t>에브리데이슈트</t>
   </si>
   <si>
-    <t>lssjq9iplf</t>
+    <t>080xvhao0lvx</t>
   </si>
   <si>
     <t>와플수면 쪼끼</t>
@@ -2878,7 +2878,7 @@
     <t>와플수면쪼끼</t>
   </si>
   <si>
-    <t>qzvakae2vi</t>
+    <t>l305fmk0ti</t>
   </si>
   <si>
     <t>요일 맨투맨</t>
@@ -2890,13 +2890,13 @@
     <t>요일맨투맨</t>
   </si>
   <si>
-    <t>25hxprazo1c</t>
+    <t>2v0jvp6zmj1</t>
   </si>
   <si>
     <t>유스마일세트</t>
   </si>
   <si>
-    <t>john9lebe8s</t>
+    <t>jfj2bxdhim8</t>
   </si>
   <si>
     <t>쥬시 슈트</t>
@@ -2905,7 +2905,7 @@
     <t>쥬시슈트</t>
   </si>
   <si>
-    <t>3cuhylciyjq</t>
+    <t>bjw7a8mumq6</t>
   </si>
   <si>
     <t>쫀쫀 슈트</t>
@@ -2914,7 +2914,7 @@
     <t>쫀쫀슈트</t>
   </si>
   <si>
-    <t>uq9gplkjku</t>
+    <t>kay0hz7a82</t>
   </si>
   <si>
     <t>존존 슈트</t>
@@ -2923,40 +2923,40 @@
     <t>존존슈트</t>
   </si>
   <si>
-    <t>d9c9993tm5m</t>
+    <t>r17j63olv3</t>
   </si>
   <si>
     <t>체크고쟁이</t>
   </si>
   <si>
-    <t>uh0hkv4qfo</t>
-  </si>
-  <si>
-    <t>jr24qxu7bz</t>
-  </si>
-  <si>
-    <t>hmipq7p9k76</t>
-  </si>
-  <si>
-    <t>kqh6f942yfa</t>
+    <t>ahnix7hcq2t</t>
+  </si>
+  <si>
+    <t>5oisgtvxkxt</t>
+  </si>
+  <si>
+    <t>vp933qjt5e</t>
+  </si>
+  <si>
+    <t>suwz7shk4v</t>
   </si>
   <si>
     <t>치즈상하복</t>
   </si>
   <si>
-    <t>phldy0dyep</t>
+    <t>sfynxobn9c</t>
   </si>
   <si>
     <t>친구들슈트</t>
   </si>
   <si>
-    <t>vulqkrh2r3i</t>
-  </si>
-  <si>
-    <t>fga7s57ftnw</t>
-  </si>
-  <si>
-    <t>378ys6atcme</t>
+    <t>yz6vsmtc78h</t>
+  </si>
+  <si>
+    <t>dy9a10ou828</t>
+  </si>
+  <si>
+    <t>c6cq43pdvns</t>
   </si>
   <si>
     <t>코듀조거P</t>
@@ -2965,10 +2965,10 @@
     <t>코듀조거팬츠</t>
   </si>
   <si>
-    <t>tbnflxbtpcc</t>
-  </si>
-  <si>
-    <t>j41fktw3c6</t>
+    <t>zwp0brxv0cf</t>
+  </si>
+  <si>
+    <t>4midp7pdm6e</t>
   </si>
   <si>
     <t>파리 벨로아세트</t>
@@ -2977,7 +2977,7 @@
     <t>파리벨로아세트</t>
   </si>
   <si>
-    <t>ou4equ3cri</t>
+    <t>wu7fi94fum</t>
   </si>
   <si>
     <t>포인트 미키세트</t>
@@ -2986,16 +2986,16 @@
     <t>포인트미키세트</t>
   </si>
   <si>
-    <t>hvl2sxlplmh</t>
+    <t>zn8d6ell2co</t>
   </si>
   <si>
     <t>푸딩세트</t>
   </si>
   <si>
-    <t>xk188rtkf6</t>
-  </si>
-  <si>
-    <t>3fkkja10sie</t>
+    <t>45jzm726ewj</t>
+  </si>
+  <si>
+    <t>lexsli5wmej</t>
   </si>
   <si>
     <t>풍선 미키 세트</t>
@@ -3004,7 +3004,7 @@
     <t>풍선미키세트</t>
   </si>
   <si>
-    <t>dyfq55lnvk</t>
+    <t>cx0f3e4w82</t>
   </si>
   <si>
     <t>하트 가디건</t>
@@ -3013,13 +3013,13 @@
     <t>하트가디건</t>
   </si>
   <si>
-    <t>3mwh7xnxlra</t>
-  </si>
-  <si>
-    <t>eh6xnwl3al</t>
-  </si>
-  <si>
-    <t>t356dn21chq</t>
+    <t>xye8ulzndc</t>
+  </si>
+  <si>
+    <t>rwnq0ukm3ar</t>
+  </si>
+  <si>
+    <t>s149g0f4y09</t>
   </si>
   <si>
     <t>하트폴라티</t>
@@ -3031,7 +3031,7 @@
     <t>하트폴라티셔츠</t>
   </si>
   <si>
-    <t>u45mfup9tlh</t>
+    <t>2fwjpdedbp</t>
   </si>
   <si>
     <t>몽젤로</t>
@@ -3046,13 +3046,13 @@
     <t>120(XL)</t>
   </si>
   <si>
-    <t>hy4rcma1uj</t>
+    <t>0pe12srj7ujc</t>
   </si>
   <si>
     <t>130(JS)</t>
   </si>
   <si>
-    <t>koaqeo2h86</t>
+    <t>spzysm4iqc9</t>
   </si>
   <si>
     <t>미뇽</t>
@@ -3073,7 +3073,7 @@
     <t>크림블랙</t>
   </si>
   <si>
-    <t>e2pjs19xvqf</t>
+    <t>r5zy6ab6uq9</t>
   </si>
   <si>
     <t>꾸러기베어MTM</t>
@@ -3082,7 +3082,7 @@
     <t>꾸러기베어맨투맨</t>
   </si>
   <si>
-    <t>dcu36mju8b6</t>
+    <t>o65bnertb57</t>
   </si>
   <si>
     <t>베어자가드MTM</t>
@@ -3091,7 +3091,7 @@
     <t>베어자가드맨투맨</t>
   </si>
   <si>
-    <t>d4c0wkwwj3u</t>
+    <t>r13dxky19b7</t>
   </si>
   <si>
     <t>츄러스PT</t>
@@ -3100,10 +3100,10 @@
     <t>츄러스팬츠</t>
   </si>
   <si>
-    <t>3e474fb1eoc</t>
-  </si>
-  <si>
-    <t>pimjrpqoop</t>
+    <t>cp5h2jw597n</t>
+  </si>
+  <si>
+    <t>s792hjm4219</t>
   </si>
   <si>
     <t>크리에이티브MTM</t>
@@ -3112,7 +3112,7 @@
     <t>크리에이티브맨투맨</t>
   </si>
   <si>
-    <t>2o8beug3dsi</t>
+    <t>n4qpoobrx2</t>
   </si>
   <si>
     <t>투톤스마일PT</t>
@@ -3121,10 +3121,10 @@
     <t>투톤스마일팬츠</t>
   </si>
   <si>
-    <t>zzol7fuipce</t>
-  </si>
-  <si>
-    <t>xespd3zxct</t>
+    <t>nfqav2jqlz</t>
+  </si>
+  <si>
+    <t>nwzqo3n32o</t>
   </si>
   <si>
     <t>해피MTM</t>
@@ -3133,7 +3133,7 @@
     <t>해피맨투맨</t>
   </si>
   <si>
-    <t>a1j54lg32t</t>
+    <t>yt54r0ebl4r</t>
   </si>
   <si>
     <t>뽀글멍뭉MTM</t>
@@ -3142,7 +3142,7 @@
     <t>뽀글멍뭉맨투맨</t>
   </si>
   <si>
-    <t>q8d0t9xvhnd</t>
+    <t>cf2r3x6f4kv</t>
   </si>
   <si>
     <t>미니로브</t>
@@ -3151,49 +3151,49 @@
     <t>러뷰삭스</t>
   </si>
   <si>
-    <t>cs3o9w1kfhh</t>
+    <t>ok2293k67dh</t>
   </si>
   <si>
     <t>로니바라클라바</t>
   </si>
   <si>
-    <t>vpjtfr5ehn</t>
+    <t>3y4nc5q2f59</t>
   </si>
   <si>
     <t>버블리버시블패딩</t>
   </si>
   <si>
-    <t>qkqy41iqgib</t>
+    <t>6ylfszescnt</t>
   </si>
   <si>
     <t>비비드양말</t>
   </si>
   <si>
-    <t>yype7pxnky9</t>
+    <t>3ycsx9incpn</t>
   </si>
   <si>
     <t>뽀송머플러</t>
   </si>
   <si>
-    <t>ohuhsy242a</t>
-  </si>
-  <si>
-    <t>tm5xy382qyq</t>
+    <t>n7ygul1cj5f</t>
+  </si>
+  <si>
+    <t>fd3511ysyci</t>
   </si>
   <si>
     <t>쁘띠목폴라</t>
   </si>
   <si>
-    <t>6nh4wx3tpmf</t>
-  </si>
-  <si>
-    <t>5cv2hgo23rs</t>
+    <t>voas8nsbfc</t>
+  </si>
+  <si>
+    <t>f5b1o6dfmad</t>
   </si>
   <si>
     <t>와플보넷</t>
   </si>
   <si>
-    <t>34nhahgkv1l</t>
+    <t>nxia468oaq</t>
   </si>
   <si>
     <t>토끼 비니</t>
@@ -3202,13 +3202,13 @@
     <t>토끼비니</t>
   </si>
   <si>
-    <t>8y8bmkkg6i</t>
+    <t>decwsunq2qo</t>
   </si>
   <si>
     <t>피스타치오양말</t>
   </si>
   <si>
-    <t>3i4qep5gbjq</t>
+    <t>go6klultk1n</t>
   </si>
   <si>
     <t>둥카기모맨투맨</t>
@@ -3217,58 +3217,58 @@
     <t>블루</t>
   </si>
   <si>
-    <t>qth3s6esjg9</t>
+    <t>s33pcdxzth</t>
   </si>
   <si>
     <t>라인골지팬츠</t>
   </si>
   <si>
-    <t>hc19cbqix5v</t>
-  </si>
-  <si>
-    <t>jtztx9ta5fo</t>
-  </si>
-  <si>
-    <t>9mek36fknda</t>
+    <t>vivrcpdp04</t>
+  </si>
+  <si>
+    <t>skon8q4cjzh</t>
+  </si>
+  <si>
+    <t>xinlcu2acsf</t>
   </si>
   <si>
     <t>라인일자팬츠</t>
   </si>
   <si>
-    <t>dqj7eljoj9w</t>
-  </si>
-  <si>
-    <t>70sapxiu5qj</t>
+    <t>p3rrl4jvgbs</t>
+  </si>
+  <si>
+    <t>mxzd5ts8jiq</t>
   </si>
   <si>
     <t>레오반집업맨투맨</t>
   </si>
   <si>
-    <t>wn09vwavji</t>
+    <t>ocko26ikln</t>
   </si>
   <si>
     <t>로브골지레깅스</t>
   </si>
   <si>
-    <t>xjticijoba</t>
-  </si>
-  <si>
-    <t>7p4vxnklrm</t>
-  </si>
-  <si>
-    <t>52kd9b4f168</t>
-  </si>
-  <si>
-    <t>s26tzmnz48r</t>
+    <t>l7jnte7g99</t>
+  </si>
+  <si>
+    <t>4o8xycyeq4n</t>
+  </si>
+  <si>
+    <t>sybtp2mnlf</t>
+  </si>
+  <si>
+    <t>3gauhhcyma4</t>
   </si>
   <si>
     <t>로이버튼수트</t>
   </si>
   <si>
-    <t>m92y28qbjpf</t>
-  </si>
-  <si>
-    <t>aukkbpdi8nt</t>
+    <t>1iuly8hgizv</t>
+  </si>
+  <si>
+    <t>nx7ezr8uxc</t>
   </si>
   <si>
     <t>롤링속기모맨투맨</t>
@@ -3280,7 +3280,7 @@
     <t>베이지블랙</t>
   </si>
   <si>
-    <t>eq7kdbaxl2d</t>
+    <t>uy1cpucfzjg</t>
   </si>
   <si>
     <t>블루/브라운</t>
@@ -3289,16 +3289,16 @@
     <t>블루브라운</t>
   </si>
   <si>
-    <t>qknchaabypi</t>
-  </si>
-  <si>
-    <t>g0b34v3oo1f</t>
+    <t>a1r40uasxvj</t>
+  </si>
+  <si>
+    <t>8rbl8sd0m9w</t>
   </si>
   <si>
     <t>밍크데님팬츠</t>
   </si>
   <si>
-    <t>847uxnmqjo6</t>
+    <t>dvc5x1oj22u</t>
   </si>
   <si>
     <t>버튼배색티</t>
@@ -3307,7 +3307,7 @@
     <t>버튼배색티셔츠</t>
   </si>
   <si>
-    <t>quo2ll853sn</t>
+    <t>nlos7k5dtla</t>
   </si>
   <si>
     <t>보들루즈핏폴라티</t>
@@ -3316,31 +3316,31 @@
     <t>보들루즈핏폴라티셔츠</t>
   </si>
   <si>
-    <t>tmbujtoo3q</t>
-  </si>
-  <si>
-    <t>t56ac3imyz</t>
-  </si>
-  <si>
-    <t>xdxkoqr2vzs</t>
-  </si>
-  <si>
-    <t>0voc4oe7fa1</t>
+    <t>vh6cm7jliw9</t>
+  </si>
+  <si>
+    <t>fyuvhr6a47a</t>
+  </si>
+  <si>
+    <t>34u0ocffge6</t>
+  </si>
+  <si>
+    <t>6g7lhjlf6ck</t>
   </si>
   <si>
     <t>스노우골지팬츠</t>
   </si>
   <si>
-    <t>2qb9etjlw81</t>
+    <t>swy2qcpbi1q</t>
   </si>
   <si>
     <t>시소맨투맨</t>
   </si>
   <si>
-    <t>q7ikfsrvr3i</t>
-  </si>
-  <si>
-    <t>dv4urb9pbtm</t>
+    <t>io4plrx98t</t>
+  </si>
+  <si>
+    <t>4p98364p0sp</t>
   </si>
   <si>
     <t>쓰리라인티</t>
@@ -3349,25 +3349,25 @@
     <t>쓰리라인티셔츠</t>
   </si>
   <si>
-    <t>w9jtpwy7ype</t>
-  </si>
-  <si>
-    <t>kuoc3lamkeh</t>
-  </si>
-  <si>
-    <t>va8nsm22o8i</t>
+    <t>s35rpuxxvac</t>
+  </si>
+  <si>
+    <t>dhoa9op5whd</t>
+  </si>
+  <si>
+    <t>7cq1hklo68i</t>
   </si>
   <si>
     <t>우디코듀로이팬츠</t>
   </si>
   <si>
-    <t>hf68lgdx2ac</t>
-  </si>
-  <si>
-    <t>umpnrhposha</t>
-  </si>
-  <si>
-    <t>lu8spxyx3d</t>
+    <t>ajweqijq6ip</t>
+  </si>
+  <si>
+    <t>t38sxbw2w8j</t>
+  </si>
+  <si>
+    <t>ayhj6tcuqz</t>
   </si>
   <si>
     <t>캥거루후드티</t>
@@ -3376,10 +3376,10 @@
     <t>캥거루후드티셔츠</t>
   </si>
   <si>
-    <t>4gjpjsaodew</t>
-  </si>
-  <si>
-    <t>7ozvmsk04ha</t>
+    <t>zimnpidbg77</t>
+  </si>
+  <si>
+    <t>s0y63o5aju9</t>
   </si>
   <si>
     <t>코니반목티</t>
@@ -3388,52 +3388,52 @@
     <t>코니반목티셔츠</t>
   </si>
   <si>
-    <t>iwdth1jyy7c</t>
-  </si>
-  <si>
-    <t>edlmcxrqrp5</t>
+    <t>2dwm7dnmad5</t>
+  </si>
+  <si>
+    <t>t2fkf3q3j3</t>
   </si>
   <si>
     <t>코코니트</t>
   </si>
   <si>
-    <t>4syp6eu4jpl</t>
-  </si>
-  <si>
-    <t>x1ccu06p8xi</t>
-  </si>
-  <si>
-    <t>uts8thprfx9</t>
+    <t>0xh8pfnmkx7</t>
+  </si>
+  <si>
+    <t>560nw5ni0uh</t>
+  </si>
+  <si>
+    <t>744oelhbv8</t>
   </si>
   <si>
     <t>테리베스트</t>
   </si>
   <si>
-    <t>omqdopwy0v</t>
+    <t>mi8lhotchx</t>
   </si>
   <si>
     <t>패치데님팬츠</t>
   </si>
   <si>
-    <t>amw5xp4hje9</t>
-  </si>
-  <si>
-    <t>sq0cvg1c1pk</t>
+    <t>r22tpb1oyga</t>
+  </si>
+  <si>
+    <t>setm7zvrkee</t>
   </si>
   <si>
     <t>포그니가디건</t>
   </si>
   <si>
-    <t>gdudzcgoqka</t>
-  </si>
-  <si>
-    <t>nf3pm0aeex</t>
+    <t>yneccrjofjd</t>
+  </si>
+  <si>
+    <t>en02sst9fch</t>
   </si>
   <si>
     <t>플리스조거팬츠</t>
   </si>
   <si>
-    <t>r9vm96fxu1h</t>
+    <t>s4a4cln8d98</t>
   </si>
   <si>
     <t>피치배색티</t>
@@ -3442,19 +3442,19 @@
     <t>피치배색티셔츠</t>
   </si>
   <si>
-    <t>lpwf4gm8bk</t>
-  </si>
-  <si>
-    <t>dywtkbvnf4m</t>
+    <t>br7h0f8iigs</t>
+  </si>
+  <si>
+    <t>1org4xx20uc</t>
   </si>
   <si>
     <t>핑퐁맨투맨</t>
   </si>
   <si>
-    <t>9ri0cf5fkqo</t>
-  </si>
-  <si>
-    <t>qr9s5sd6nja</t>
+    <t>2tcpeqrm98n</t>
+  </si>
+  <si>
+    <t>djmho2ynyh</t>
   </si>
   <si>
     <t>미니봉봉</t>
@@ -3463,7 +3463,7 @@
     <t>보조개스커트</t>
   </si>
   <si>
-    <t>t72m82axe7h</t>
+    <t>77kfo846sxe</t>
   </si>
   <si>
     <t>미소</t>
@@ -3484,13 +3484,13 @@
     <t>흰SET</t>
   </si>
   <si>
-    <t>jsa8d3tyx0c</t>
+    <t>yjxr891mme</t>
   </si>
   <si>
     <t>XL(9~12)</t>
   </si>
   <si>
-    <t>26ryer3emw9</t>
+    <t>a67y860mlsd</t>
   </si>
   <si>
     <t>베set</t>
@@ -3499,7 +3499,7 @@
     <t>베SET</t>
   </si>
   <si>
-    <t>apm5mke2kn</t>
+    <t>dng851kfzq</t>
   </si>
   <si>
     <t>검set</t>
@@ -3508,7 +3508,7 @@
     <t>검SET</t>
   </si>
   <si>
-    <t>8ottkha4zs</t>
+    <t>mzag6jdw1i7</t>
   </si>
   <si>
     <t>겨울돌돌이양말</t>
@@ -3517,7 +3517,7 @@
     <t>S(0-1세)</t>
   </si>
   <si>
-    <t>igub7hl0gp</t>
+    <t>h6t7of13qrq</t>
   </si>
   <si>
     <t>겨울셔링반타이즈</t>
@@ -3529,10 +3529,10 @@
     <t>30CM</t>
   </si>
   <si>
-    <t>lgjkvn7y4e</t>
-  </si>
-  <si>
-    <t>iv3y73rhchn</t>
+    <t>xt9vk1dkv9n</t>
+  </si>
+  <si>
+    <t>rz70azah53n</t>
   </si>
   <si>
     <t>곰보행기양말슈즈</t>
@@ -3544,7 +3544,7 @@
     <t>11CM</t>
   </si>
   <si>
-    <t>uwcahthhm</t>
+    <t>5mqpkshv9en</t>
   </si>
   <si>
     <t>공수면양말</t>
@@ -3556,7 +3556,7 @@
     <t>ONESIZE</t>
   </si>
   <si>
-    <t>ga5s1km563c</t>
+    <t>e8q8dnhqsgb</t>
   </si>
   <si>
     <t>동그리보들모자</t>
@@ -3568,10 +3568,10 @@
     <t>3M-2Y</t>
   </si>
   <si>
-    <t>bmrnx6hfbug</t>
-  </si>
-  <si>
-    <t>slkhbzp0ycl</t>
+    <t>5puxznibzx</t>
+  </si>
+  <si>
+    <t>1frjita0yj</t>
   </si>
   <si>
     <t>드림털부츠</t>
@@ -3580,7 +3580,7 @@
     <t>16(130)</t>
   </si>
   <si>
-    <t>nwair1gqhak</t>
+    <t>fduqg2afriu</t>
   </si>
   <si>
     <t>따뜻한슈즈</t>
@@ -3592,7 +3592,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>5ya32qx2ycw</t>
+    <t>o10uznrsfo</t>
   </si>
   <si>
     <t>25(150)</t>
@@ -3601,22 +3601,22 @@
     <t>25</t>
   </si>
   <si>
-    <t>ylfv6rqpjpj</t>
-  </si>
-  <si>
-    <t>wet8lvxags7</t>
+    <t>5w5pi5ornat</t>
+  </si>
+  <si>
+    <t>n0niah95rf</t>
   </si>
   <si>
     <t>레드니트리본핀</t>
   </si>
   <si>
-    <t>01ut4ie0eg9v</t>
+    <t>nkmc36mzna</t>
   </si>
   <si>
     <t>롤리팝반타이즈</t>
   </si>
   <si>
-    <t>hwdommmz9m6</t>
+    <t>epe0iamm3tc</t>
   </si>
   <si>
     <t>마이베레모</t>
@@ -3625,7 +3625,7 @@
     <t>2-6세</t>
   </si>
   <si>
-    <t>kgw6xbmafoe</t>
+    <t>r33xygzhnu</t>
   </si>
   <si>
     <t>명단가라양말</t>
@@ -3634,7 +3634,7 @@
     <t>S(6-12M)</t>
   </si>
   <si>
-    <t>q9cux679yy</t>
+    <t>yvccg183cbk</t>
   </si>
   <si>
     <t>모네슈즈</t>
@@ -3643,19 +3643,19 @@
     <t>190</t>
   </si>
   <si>
-    <t>ll3s983p8cc</t>
-  </si>
-  <si>
-    <t>r8it18n9ccm</t>
+    <t>3f9h0iam5ok</t>
+  </si>
+  <si>
+    <t>jjxb0xsao1</t>
   </si>
   <si>
     <t>모노보넷모자</t>
   </si>
   <si>
-    <t>ofzywtvk4ae</t>
-  </si>
-  <si>
-    <t>4z88ugee04</t>
+    <t>zpclpw32y5s</t>
+  </si>
+  <si>
+    <t>gm33n1l7u</t>
   </si>
   <si>
     <t>무릎보호니삭스</t>
@@ -3667,10 +3667,10 @@
     <t>6-18M</t>
   </si>
   <si>
-    <t>d8twrd1zllf</t>
-  </si>
-  <si>
-    <t>2u3k4fovp4v</t>
+    <t>gri9ymnwuqo</t>
+  </si>
+  <si>
+    <t>9cf50ah8n4</t>
   </si>
   <si>
     <t>무스탕슬리퍼</t>
@@ -3682,13 +3682,13 @@
     <t>28</t>
   </si>
   <si>
-    <t>nme30ysckz</t>
+    <t>u1bhdbwbauh</t>
   </si>
   <si>
     <t>발치수자</t>
   </si>
   <si>
-    <t>9yroewlw4gm</t>
+    <t>v3eawvqt9t</t>
   </si>
   <si>
     <t>베러양말(여성)</t>
@@ -3697,49 +3697,49 @@
     <t>베러양말여성</t>
   </si>
   <si>
-    <t>a7s7xkn7tjp</t>
-  </si>
-  <si>
-    <t>phnbwch69s</t>
-  </si>
-  <si>
-    <t>soz5rqd9j9</t>
-  </si>
-  <si>
-    <t>qb0z8xwjwa</t>
+    <t>iqwvumvi3o</t>
+  </si>
+  <si>
+    <t>xqjvhldx1n</t>
+  </si>
+  <si>
+    <t>doyrshs0nco</t>
+  </si>
+  <si>
+    <t>xcpcdpqnn4</t>
   </si>
   <si>
     <t>베베수면양말</t>
   </si>
   <si>
-    <t>biwtbgl68hu</t>
+    <t>y1iyop128mi</t>
   </si>
   <si>
     <t>스카이</t>
   </si>
   <si>
-    <t>3sj4rcai9zr</t>
-  </si>
-  <si>
-    <t>zcqixloaz8g</t>
+    <t>t4lwqrmjo</t>
+  </si>
+  <si>
+    <t>jmwgfv7rq7r</t>
   </si>
   <si>
     <t>벨로아머리띠</t>
   </si>
   <si>
-    <t>yd2uhnulkt</t>
+    <t>zslpj6r89z</t>
   </si>
   <si>
     <t>와인</t>
   </si>
   <si>
-    <t>egjhz1bvk</t>
-  </si>
-  <si>
-    <t>jccjw6ajiio</t>
-  </si>
-  <si>
-    <t>vlzaowgrzsd</t>
+    <t>v4di0k4aqvg</t>
+  </si>
+  <si>
+    <t>xffwv775wz</t>
+  </si>
+  <si>
+    <t>3a13wbnhido</t>
   </si>
   <si>
     <t>보들곰벙거지장갑</t>
@@ -3748,34 +3748,34 @@
     <t>1-4세</t>
   </si>
   <si>
-    <t>cwfzakpjsam</t>
+    <t>o4vit0qta0i</t>
   </si>
   <si>
     <t>보들이모자</t>
   </si>
   <si>
-    <t>sk4oj8xw7y</t>
+    <t>7pt3sdrzj7y</t>
   </si>
   <si>
     <t>보카시똑딱핀</t>
   </si>
   <si>
-    <t>ue7xpjwce6</t>
-  </si>
-  <si>
-    <t>8znkxibtqzi</t>
-  </si>
-  <si>
-    <t>3qui3w402c</t>
+    <t>cm2xwbsnxib</t>
+  </si>
+  <si>
+    <t>opy1t57qap</t>
+  </si>
+  <si>
+    <t>9tuuzemeee</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>exlmosbapsa</t>
-  </si>
-  <si>
-    <t>6gbh9d2xa5c</t>
+    <t>htu840hlh6</t>
+  </si>
+  <si>
+    <t>r7hucoeukr</t>
   </si>
   <si>
     <t>보카시양말(여성)</t>
@@ -3784,22 +3784,22 @@
     <t>보카시양말여성</t>
   </si>
   <si>
-    <t>dweohm0csra</t>
-  </si>
-  <si>
-    <t>faez6pp2y96</t>
+    <t>bnbapi1k2h</t>
+  </si>
+  <si>
+    <t>ru44abdx4sq</t>
   </si>
   <si>
     <t>브러쉬집게핀</t>
   </si>
   <si>
-    <t>8tboa2yfhlm</t>
-  </si>
-  <si>
-    <t>f6eej7urj5</t>
-  </si>
-  <si>
-    <t>zxb2li6q68b</t>
+    <t>yjsfrd1q7ug</t>
+  </si>
+  <si>
+    <t>diafaap3rcn</t>
+  </si>
+  <si>
+    <t>aavdaacv0kl</t>
   </si>
   <si>
     <t>솔리드골지양말</t>
@@ -3808,7 +3808,7 @@
     <t>L(3-5)</t>
   </si>
   <si>
-    <t>epkqhr4ntj4</t>
+    <t>as5cuio1x2v</t>
   </si>
   <si>
     <t>스몰바라클라바</t>
@@ -3817,10 +3817,10 @@
     <t>2-7세</t>
   </si>
   <si>
-    <t>5o28msp1mc</t>
-  </si>
-  <si>
-    <t>g1r3yh7lxo</t>
+    <t>mrk6i41i9kn</t>
+  </si>
+  <si>
+    <t>3oh38gzdl4n</t>
   </si>
   <si>
     <t>스웨이드털슬리퍼</t>
@@ -3829,13 +3829,13 @@
     <t>170</t>
   </si>
   <si>
-    <t>xhw7txzyane</t>
+    <t>xovtdeub78</t>
   </si>
   <si>
     <t>240</t>
   </si>
   <si>
-    <t>rd63bnopmq8</t>
+    <t>8irfk5lw2ej</t>
   </si>
   <si>
     <t>스텔라머리끈</t>
@@ -3847,7 +3847,7 @@
     <t>A보</t>
   </si>
   <si>
-    <t>ky7q00zf5x</t>
+    <t>wxf90fkb6ek</t>
   </si>
   <si>
     <t>어센틱운동화</t>
@@ -3862,22 +3862,22 @@
     <t>26</t>
   </si>
   <si>
-    <t>2cuj2vny9hd</t>
+    <t>m6pz6867vrp</t>
   </si>
   <si>
     <t>여성베이직양말</t>
   </si>
   <si>
-    <t>yaxtn155t3l</t>
+    <t>x67ibwc4rmi</t>
   </si>
   <si>
     <t>오색네키</t>
   </si>
   <si>
-    <t>jyz98k9j2bo</t>
-  </si>
-  <si>
-    <t>xw6y3moyhhi</t>
+    <t>cwtcgwe170m</t>
+  </si>
+  <si>
+    <t>68kystoexp</t>
   </si>
   <si>
     <t>왕방울후드모자</t>
@@ -3889,7 +3889,7 @@
     <t>8개월-6세</t>
   </si>
   <si>
-    <t>dvgkwcxzgtc</t>
+    <t>6y54w98yimj</t>
   </si>
   <si>
     <t>자수곰모자목도리set</t>
@@ -3901,13 +3901,13 @@
     <t>자수곰모자목도리세트</t>
   </si>
   <si>
-    <t>cnw95j1utd9</t>
+    <t>t62sais2bk</t>
   </si>
   <si>
     <t>체스목도리</t>
   </si>
   <si>
-    <t>woo64xp517</t>
+    <t>z4mwk6rxxd</t>
   </si>
   <si>
     <t>칼라벙거지장갑</t>
@@ -3919,19 +3919,19 @@
     <t>3-7Y</t>
   </si>
   <si>
-    <t>gmk32yypc5v</t>
-  </si>
-  <si>
-    <t>j3f31fpuwf</t>
-  </si>
-  <si>
-    <t>jx57d8l6yi</t>
+    <t>ktfyly87vse</t>
+  </si>
+  <si>
+    <t>krq5z058oc</t>
+  </si>
+  <si>
+    <t>uirlo7k0nw</t>
   </si>
   <si>
     <t>올리브</t>
   </si>
   <si>
-    <t>d13w6crptw</t>
+    <t>trnszwi1qp8</t>
   </si>
   <si>
     <t>진핑</t>
@@ -3943,10 +3943,10 @@
     <t>3-7V</t>
   </si>
   <si>
-    <t>ka402pfuxjh</t>
-  </si>
-  <si>
-    <t>3q1lwknd3gi</t>
+    <t>7ch48ncodrn</t>
+  </si>
+  <si>
+    <t>ig1sxtpiec</t>
   </si>
   <si>
     <t>토끼곰목도리</t>
@@ -3955,16 +3955,16 @@
     <t>토끼</t>
   </si>
   <si>
-    <t>wcf4y8kpbgl</t>
+    <t>sx2i21gwnvb</t>
   </si>
   <si>
     <t>통통레이스양말</t>
   </si>
   <si>
-    <t>1ig9l46fqp7</t>
-  </si>
-  <si>
-    <t>jpzqaietr2</t>
+    <t>22jjt873m7r</t>
+  </si>
+  <si>
+    <t>wn18m4s10xc</t>
   </si>
   <si>
     <t>튤립양말set</t>
@@ -3976,7 +3976,7 @@
     <t>튤립양말세트</t>
   </si>
   <si>
-    <t>glma57oh7q</t>
+    <t>rce9cjngyif</t>
   </si>
   <si>
     <t>파스텔수면양말</t>
@@ -3985,7 +3985,7 @@
     <t>아</t>
   </si>
   <si>
-    <t>5sink837fmg</t>
+    <t>ggb79sfxzv9</t>
   </si>
   <si>
     <t>패딩바라클라바</t>
@@ -3997,7 +3997,7 @@
     <t>49-54CM</t>
   </si>
   <si>
-    <t>y32ylgyag1</t>
+    <t>9gxsr2o3mg4</t>
   </si>
   <si>
     <t>포인투톤양말set</t>
@@ -4009,7 +4009,7 @@
     <t>포인투톤양말세트</t>
   </si>
   <si>
-    <t>ccozbxnp6qh</t>
+    <t>t5r9us3lf78</t>
   </si>
   <si>
     <t>포인트손가락장갑</t>
@@ -4021,7 +4021,7 @@
     <t>4-12Y</t>
   </si>
   <si>
-    <t>vhbli67rhwk</t>
+    <t>x6hgozfwi2</t>
   </si>
   <si>
     <t>프릴리본머리띠</t>
@@ -4030,7 +4030,7 @@
     <t>파랑</t>
   </si>
   <si>
-    <t>0rgjukjbt96</t>
+    <t>kzpkkyklaa</t>
   </si>
   <si>
     <t>하하뿔테안경</t>
@@ -4042,7 +4042,7 @@
     <t>포함</t>
   </si>
   <si>
-    <t>g5xictq6mca</t>
+    <t>wcdl4f6dcop</t>
   </si>
   <si>
     <t>할로윈레이스핀</t>
@@ -4051,7 +4051,7 @@
     <t>호박</t>
   </si>
   <si>
-    <t>cuc6nc57n5</t>
+    <t>ie2prh0yzz</t>
   </si>
   <si>
     <t>ot/ribbon hair</t>
@@ -4072,7 +4072,7 @@
     <t>1SET/8CM</t>
   </si>
   <si>
-    <t>wle8ch3kb5n</t>
+    <t>tq1snythz5</t>
   </si>
   <si>
     <t>silver</t>
@@ -4084,7 +4084,7 @@
     <t>SILVER</t>
   </si>
   <si>
-    <t>p8n5svozst7</t>
+    <t>ual21li0apg</t>
   </si>
   <si>
     <t>밀크파우더</t>
@@ -4093,34 +4093,34 @@
     <t>몽웰후리스점퍼</t>
   </si>
   <si>
-    <t>x19fq64wqr</t>
+    <t>uxqrkco3jqf</t>
   </si>
   <si>
     <t>보아팬츠</t>
   </si>
   <si>
-    <t>jooi9h2np0c</t>
-  </si>
-  <si>
-    <t>syf42ifu6ae</t>
+    <t>7u27ccnosi9</t>
+  </si>
+  <si>
+    <t>cb3g15ut86h</t>
   </si>
   <si>
     <t>블린스커트셋업</t>
   </si>
   <si>
-    <t>4b957i9lsbg</t>
+    <t>uba0p22xse</t>
   </si>
   <si>
     <t>스노퀼팅팬츠</t>
   </si>
   <si>
-    <t>xt3ypmlsso</t>
+    <t>ml9z7rr97nf</t>
   </si>
   <si>
     <t>어그팬츠</t>
   </si>
   <si>
-    <t>nf1ccj1uphr</t>
+    <t>v22qgh7ihx</t>
   </si>
   <si>
     <t>코코아맨투맨티</t>
@@ -4129,7 +4129,7 @@
     <t>코코아맨투맨티셔츠</t>
   </si>
   <si>
-    <t>6lvttd8nncp</t>
+    <t>yjwhjzhimkm</t>
   </si>
   <si>
     <t>포그니티</t>
@@ -4138,7 +4138,7 @@
     <t>포그니티셔츠</t>
   </si>
   <si>
-    <t>l3bm59wv3xn</t>
+    <t>xd6cch7blzl</t>
   </si>
   <si>
     <t>폴라티</t>
@@ -4147,10 +4147,10 @@
     <t>폴라티셔츠</t>
   </si>
   <si>
-    <t>x3yfdnhnlt</t>
-  </si>
-  <si>
-    <t>6cojc330iav</t>
+    <t>jsismo0iowj</t>
+  </si>
+  <si>
+    <t>699gxmfyad9</t>
   </si>
   <si>
     <t>하츄티</t>
@@ -4159,16 +4159,16 @@
     <t>하츄티셔츠</t>
   </si>
   <si>
-    <t>7kf5lg5au4t</t>
-  </si>
-  <si>
-    <t>qc41t6ur9o</t>
-  </si>
-  <si>
-    <t>fpe914adqav</t>
-  </si>
-  <si>
-    <t>704w4soys9b</t>
+    <t>i5hruucjrm</t>
+  </si>
+  <si>
+    <t>e5yh6dt1ugi</t>
+  </si>
+  <si>
+    <t>cn2c4mfg4nj</t>
+  </si>
+  <si>
+    <t>8afznet5yhf</t>
   </si>
   <si>
     <t>초코티</t>
@@ -4180,7 +4180,7 @@
     <t>초코티셔츠</t>
   </si>
   <si>
-    <t>biq4mmo7ivl</t>
+    <t>1ol3fx442u6</t>
   </si>
   <si>
     <t>바닐라버니</t>
@@ -4192,22 +4192,22 @@
     <t>레몬</t>
   </si>
   <si>
-    <t>s623t5bsrnm</t>
+    <t>mnpmv1bhqm</t>
   </si>
   <si>
     <t>노미캡</t>
   </si>
   <si>
-    <t>i1t09cqouf</t>
-  </si>
-  <si>
-    <t>cypxu1enyon</t>
+    <t>ios99jc7wch</t>
+  </si>
+  <si>
+    <t>xbt7k015o7i</t>
   </si>
   <si>
     <t>누빔귀달이캡</t>
   </si>
   <si>
-    <t>safvatfcq1</t>
+    <t>vjb80v0viqd</t>
   </si>
   <si>
     <t>누빔목도리</t>
@@ -4216,7 +4216,7 @@
     <t>땡땡이</t>
   </si>
   <si>
-    <t>lmxj8fr75cl</t>
+    <t>u6zib7t1v8c</t>
   </si>
   <si>
     <t>누빙목도리</t>
@@ -4225,16 +4225,16 @@
     <t>스트라</t>
   </si>
   <si>
-    <t>6ry2ac7ryma</t>
-  </si>
-  <si>
-    <t>3fmdfty560a</t>
+    <t>b9mz6ex2kmn</t>
+  </si>
+  <si>
+    <t>70ex3rheb89</t>
   </si>
   <si>
     <t>뉴색종이장갑</t>
   </si>
   <si>
-    <t>g3xdd76xnyc</t>
+    <t>h5gldn5hr9</t>
   </si>
   <si>
     <t>달마시안팬티</t>
@@ -4246,13 +4246,13 @@
     <t>달마시안팬티셔츠</t>
   </si>
   <si>
-    <t>4blcq4odwm2</t>
+    <t>vo14cizyod8</t>
   </si>
   <si>
     <t>라벨장갑</t>
   </si>
   <si>
-    <t>4a4961yzsxr</t>
+    <t>dkpp5sjk6j9</t>
   </si>
   <si>
     <t>리본끈 바라</t>
@@ -4261,7 +4261,7 @@
     <t>리본끈바라</t>
   </si>
   <si>
-    <t>00ocsfdi0ao9k</t>
+    <t>n0tqcf1ahop</t>
   </si>
   <si>
     <t>방수 벙어리장갑</t>
@@ -4270,13 +4270,13 @@
     <t>방수벙어리장갑</t>
   </si>
   <si>
-    <t>dvop3pahvkf</t>
+    <t>2wzgfee701r</t>
   </si>
   <si>
     <t>벙어리장갑</t>
   </si>
   <si>
-    <t>9ecrt36ld97</t>
+    <t>xibgkv2465m</t>
   </si>
   <si>
     <t>베이스볼 팬티</t>
@@ -4288,31 +4288,31 @@
     <t>베이스볼팬티셔츠</t>
   </si>
   <si>
-    <t>ecgwlcvfpk7</t>
+    <t>4ve9cm77dus</t>
   </si>
   <si>
     <t>빠삐용바라</t>
   </si>
   <si>
-    <t>nl0bbme22ps</t>
+    <t>zo2utal3fv</t>
   </si>
   <si>
     <t>삼각목도리</t>
   </si>
   <si>
-    <t>n9ppsfarkzh</t>
-  </si>
-  <si>
-    <t>2tewuvsp6j7</t>
-  </si>
-  <si>
-    <t>rsqb35wu7d</t>
+    <t>4b73ent8kds</t>
+  </si>
+  <si>
+    <t>l2cizp4b3nd</t>
+  </si>
+  <si>
+    <t>iwcaonhd8w</t>
   </si>
   <si>
     <t>수술목도리</t>
   </si>
   <si>
-    <t>iy299azhxbn</t>
+    <t>oym1njipn6k</t>
   </si>
   <si>
     <t>씨에프 캡</t>
@@ -4321,25 +4321,25 @@
     <t>씨에프캡</t>
   </si>
   <si>
-    <t>okt7c7ypd2p</t>
+    <t>b2se0jruexi</t>
   </si>
   <si>
     <t>엠비양말</t>
   </si>
   <si>
-    <t>evm8kuc7w1l</t>
+    <t>f23npypojv9</t>
   </si>
   <si>
     <t>와우장갑</t>
   </si>
   <si>
-    <t>pvdyq2so4wq</t>
+    <t>3iud9avnz9n</t>
   </si>
   <si>
     <t>진주리본양말</t>
   </si>
   <si>
-    <t>9tuxrneb6q6</t>
+    <t>9k7xzuyqd5c</t>
   </si>
   <si>
     <t>티컵팬티</t>
@@ -4348,40 +4348,40 @@
     <t>티컵팬티셔츠</t>
   </si>
   <si>
-    <t>hftrtneg4o</t>
+    <t>a9le287mv8v</t>
   </si>
   <si>
     <t>포근이목도리</t>
   </si>
   <si>
-    <t>4w99v164rxn</t>
-  </si>
-  <si>
-    <t>5ay1enchwwd</t>
-  </si>
-  <si>
-    <t>qtuzrrrawmb</t>
-  </si>
-  <si>
-    <t>mdf7ifyz0u</t>
-  </si>
-  <si>
-    <t>1ezjypo4ekph</t>
+    <t>pq8j9544aye</t>
+  </si>
+  <si>
+    <t>w6r201k0nyg</t>
+  </si>
+  <si>
+    <t>qnicbv1a73q</t>
+  </si>
+  <si>
+    <t>0g6kq3woomdm</t>
+  </si>
+  <si>
+    <t>g36zl1j5frc</t>
   </si>
   <si>
     <t>플라워귀마개</t>
   </si>
   <si>
-    <t>g6xcgjt5otm</t>
-  </si>
-  <si>
-    <t>mp8yyr54a4m</t>
+    <t>28hijqt8kmri</t>
+  </si>
+  <si>
+    <t>a76lkajvspm</t>
   </si>
   <si>
     <t>핑큐양말</t>
   </si>
   <si>
-    <t>mpi11y66rl</t>
+    <t>8pxgz3g96xh</t>
   </si>
   <si>
     <t>핑크앵두양말세트</t>
@@ -4390,7 +4390,7 @@
     <t>Free</t>
   </si>
   <si>
-    <t>eaioke3l41m</t>
+    <t>f5dy8bqg8z</t>
   </si>
   <si>
     <t>바이미미</t>
@@ -4402,10 +4402,10 @@
     <t>두툼니트세트</t>
   </si>
   <si>
-    <t>o8ui5b7938s</t>
-  </si>
-  <si>
-    <t>g8rbaxxx23t</t>
+    <t>6vubr9mc7c</t>
+  </si>
+  <si>
+    <t>wxwht0eu0qk</t>
   </si>
   <si>
     <t>들꽃자수cd</t>
@@ -4417,7 +4417,7 @@
     <t>들꽃자수CD</t>
   </si>
   <si>
-    <t>m8ln429vajq</t>
+    <t>glk4syd6v2k</t>
   </si>
   <si>
     <t>따슘골덴pt</t>
@@ -4426,25 +4426,25 @@
     <t>따슘골덴팬츠</t>
   </si>
   <si>
-    <t>6q3zuori1a2</t>
-  </si>
-  <si>
-    <t>7z5tnr386jd</t>
-  </si>
-  <si>
-    <t>nndvfyx2y9</t>
-  </si>
-  <si>
-    <t>0f947lznobhh</t>
+    <t>3ffiixf6jnr</t>
+  </si>
+  <si>
+    <t>npy7ecfilx</t>
+  </si>
+  <si>
+    <t>ce64k7udy8</t>
+  </si>
+  <si>
+    <t>iq25zgbt4jc</t>
   </si>
   <si>
     <t>라인레깅스</t>
   </si>
   <si>
-    <t>2k2hxaraww4</t>
-  </si>
-  <si>
-    <t>box0inckgpl</t>
+    <t>8jtwc9xh73</t>
+  </si>
+  <si>
+    <t>6usjnge4eva</t>
   </si>
   <si>
     <t>모카폴라t</t>
@@ -4456,7 +4456,7 @@
     <t>모카폴라티셔츠</t>
   </si>
   <si>
-    <t>6hx1m0bteta</t>
+    <t>ckjmd49fdc6</t>
   </si>
   <si>
     <t>부클nt</t>
@@ -4465,13 +4465,13 @@
     <t>부클N티셔츠</t>
   </si>
   <si>
-    <t>3u4pznb3aam</t>
+    <t>wag8hwedgni</t>
   </si>
   <si>
     <t>비쵸비반다나</t>
   </si>
   <si>
-    <t>vz7ibkpy41</t>
+    <t>t18z5riimk</t>
   </si>
   <si>
     <t>비행기mtm</t>
@@ -4480,13 +4480,13 @@
     <t>비행기맨투맨</t>
   </si>
   <si>
-    <t>2rfmbuv0oyv</t>
-  </si>
-  <si>
-    <t>g61n3e8j49l</t>
-  </si>
-  <si>
-    <t>lcwwqie3jxm</t>
+    <t>7mcrnlaz99p</t>
+  </si>
+  <si>
+    <t>b9ooj7pwbh</t>
+  </si>
+  <si>
+    <t>wl8dukinlvo</t>
   </si>
   <si>
     <t>뽀글이아노락(br)</t>
@@ -4495,16 +4495,16 @@
     <t>뽀글이아노락BR</t>
   </si>
   <si>
-    <t>997edumxjrc</t>
-  </si>
-  <si>
-    <t>ztvhvmwt56</t>
+    <t>96gyngy0v7n</t>
+  </si>
+  <si>
+    <t>3iddvb72ohx</t>
   </si>
   <si>
     <t>샌드보넷</t>
   </si>
   <si>
-    <t>l3h7kzan2nn</t>
+    <t>gdq41y2om2</t>
   </si>
   <si>
     <t>샤앤샤sk</t>
@@ -4513,22 +4513,22 @@
     <t>샤앤샤스커트</t>
   </si>
   <si>
-    <t>kn3d72b8qh</t>
+    <t>ioke39v15w</t>
   </si>
   <si>
     <t>스토리조끼패딩</t>
   </si>
   <si>
-    <t>0y8zv5vvt9n</t>
+    <t>8hpb7qhbgdh</t>
   </si>
   <si>
     <t>아벨로레깅스</t>
   </si>
   <si>
-    <t>vqddq8wfke</t>
-  </si>
-  <si>
-    <t>x7gnumm2d4d</t>
+    <t>mjeyadqofd</t>
+  </si>
+  <si>
+    <t>23tvyhgtr5l</t>
   </si>
   <si>
     <t>아이콘조거pt</t>
@@ -4537,13 +4537,13 @@
     <t>아이콘조거팬츠</t>
   </si>
   <si>
-    <t>37cs8lz3w3n</t>
-  </si>
-  <si>
-    <t>u6m3rouznnk</t>
-  </si>
-  <si>
-    <t>30g9ak11m2x</t>
+    <t>v1d5knpg4xq</t>
+  </si>
+  <si>
+    <t>jm1v4iv8tk</t>
+  </si>
+  <si>
+    <t>kj0esebr2g</t>
   </si>
   <si>
     <t>애쉬꽃자수ops</t>
@@ -4552,7 +4552,7 @@
     <t>애쉬꽃자수원피스</t>
   </si>
   <si>
-    <t>3c3z4uqpgo5</t>
+    <t>id8hgro8w2</t>
   </si>
   <si>
     <t>잘자곰mtm</t>
@@ -4561,10 +4561,10 @@
     <t>잘자곰맨투맨</t>
   </si>
   <si>
-    <t>j5szte3mdqb</t>
-  </si>
-  <si>
-    <t>q98mb8ykm0c</t>
+    <t>0jvqh2qfr6q6</t>
+  </si>
+  <si>
+    <t>q65qmle8jh</t>
   </si>
   <si>
     <t>젤리니트폴라t</t>
@@ -4573,7 +4573,7 @@
     <t>젤리니트폴라티셔츠</t>
   </si>
   <si>
-    <t>kyqhcl49jnr</t>
+    <t>qyqn5vixk3</t>
   </si>
   <si>
     <t>캔들와플t</t>
@@ -4582,10 +4582,10 @@
     <t>캔들와플티셔츠</t>
   </si>
   <si>
-    <t>1w7oxqhwmh3</t>
-  </si>
-  <si>
-    <t>uqia2dqp6vo</t>
+    <t>aq7n70r46rl</t>
+  </si>
+  <si>
+    <t>8cwxeumy42w</t>
   </si>
   <si>
     <t>코듀로이sk</t>
@@ -4594,7 +4594,7 @@
     <t>코듀로이스커트</t>
   </si>
   <si>
-    <t>wrhbj3amjeh</t>
+    <t>o2e175bho3</t>
   </si>
   <si>
     <t>크림벨벳set</t>
@@ -4603,10 +4603,10 @@
     <t>크림벨벳세트</t>
   </si>
   <si>
-    <t>2qek9lg8p7z</t>
-  </si>
-  <si>
-    <t>0tsbc6sf02tp</t>
+    <t>2n97qngkalq</t>
+  </si>
+  <si>
+    <t>sb4pzbeszzl</t>
   </si>
   <si>
     <t>포켓퍼후드t</t>
@@ -4615,7 +4615,7 @@
     <t>포켓퍼후드티셔츠</t>
   </si>
   <si>
-    <t>pzho641nhp8</t>
+    <t>0v45ge5wow9a</t>
   </si>
   <si>
     <t>프린트조거pt</t>
@@ -4624,13 +4624,13 @@
     <t>프린트조거팬츠</t>
   </si>
   <si>
-    <t>gp4v1jfe9bq</t>
-  </si>
-  <si>
-    <t>47ehjiqznp</t>
-  </si>
-  <si>
-    <t>md9dgnt29pk</t>
+    <t>j6zxojl02t</t>
+  </si>
+  <si>
+    <t>00ohpacvvizwi</t>
+  </si>
+  <si>
+    <t>2ndcbrdpsmr</t>
   </si>
   <si>
     <t>프로그후드t</t>
@@ -4639,16 +4639,16 @@
     <t>프로그후드티셔츠</t>
   </si>
   <si>
-    <t>annijxxpggd</t>
+    <t>6gd9wqfnx8</t>
   </si>
   <si>
     <t>피넛바클</t>
   </si>
   <si>
-    <t>t0qrr2svh9</t>
-  </si>
-  <si>
-    <t>meln93r0wyk</t>
+    <t>i2i9tc1jdd</t>
+  </si>
+  <si>
+    <t>bw2wj5syuhp</t>
   </si>
   <si>
     <t>해리조거pt</t>
@@ -4657,22 +4657,22 @@
     <t>해리조거팬츠</t>
   </si>
   <si>
-    <t>razndo4fxol</t>
-  </si>
-  <si>
-    <t>dx7yaprj1ve</t>
-  </si>
-  <si>
-    <t>klui7ws76b</t>
-  </si>
-  <si>
-    <t>eiv9t5gom95</t>
+    <t>fcavnsqjggc</t>
+  </si>
+  <si>
+    <t>s7h9cd1wsdo</t>
+  </si>
+  <si>
+    <t>ikjluuhr6qb</t>
+  </si>
+  <si>
+    <t>ic9s3l0mnf</t>
   </si>
   <si>
     <t>홈런볼보넷</t>
   </si>
   <si>
-    <t>lcyooxf6o6d</t>
+    <t>f66ugtjlaju</t>
   </si>
   <si>
     <t>버니파우더</t>
@@ -4684,7 +4684,7 @@
     <t>퍼피티셔츠</t>
   </si>
   <si>
-    <t>s822ue83imh</t>
+    <t>hpbhpbsvg6</t>
   </si>
   <si>
     <t>희지니T</t>
@@ -4693,7 +4693,7 @@
     <t>희지니티셔츠</t>
   </si>
   <si>
-    <t>q9w1taxmsej</t>
+    <t>xvsl6rtr2jc</t>
   </si>
   <si>
     <t>베베홀릭</t>
@@ -4711,7 +4711,7 @@
     <t>단톤맨투맨베네</t>
   </si>
   <si>
-    <t>oga5phoo4jd</t>
+    <t>jtgmw0mx7e</t>
   </si>
   <si>
     <t>55.단톤맨투맨(베베)</t>
@@ -4726,7 +4726,7 @@
     <t>단톤맨투맨베베</t>
   </si>
   <si>
-    <t>wagcky1st5o</t>
+    <t>thgsb773sp</t>
   </si>
   <si>
     <t>70.반플라티(키즈)</t>
@@ -4744,7 +4744,7 @@
     <t>S/90CM</t>
   </si>
   <si>
-    <t>jt69mc3as7s</t>
+    <t>iaw4ankr1a</t>
   </si>
   <si>
     <t>70.반폴라티(키즈)</t>
@@ -4762,7 +4762,7 @@
     <t>5(3~4JT/90CM</t>
   </si>
   <si>
-    <t>fe4gs5okc4</t>
+    <t>0v3pqbtw3zeg</t>
   </si>
   <si>
     <t>60.베이글멜빵슈트</t>
@@ -4771,13 +4771,13 @@
     <t>베이글멜빵슈트</t>
   </si>
   <si>
-    <t>dx82r7pgxus</t>
+    <t>fhgxgb3amk9</t>
   </si>
   <si>
     <t>S(3~6M)</t>
   </si>
   <si>
-    <t>g6b1vezzxq8</t>
+    <t>t4uw9y7prv9</t>
   </si>
   <si>
     <t>베이비슈</t>
@@ -4786,103 +4786,103 @@
     <t>미니하트스커트</t>
   </si>
   <si>
-    <t>2s0zeyse0vr</t>
-  </si>
-  <si>
-    <t>0z8y7c1r2c9</t>
-  </si>
-  <si>
-    <t>rxuc183vukf</t>
+    <t>06jxpdz968lk</t>
+  </si>
+  <si>
+    <t>xjp45gjyp5n</t>
+  </si>
+  <si>
+    <t>ao9s891se9q</t>
   </si>
   <si>
     <t>밍크리본부츠컷</t>
   </si>
   <si>
-    <t>z9ousdng22b</t>
-  </si>
-  <si>
-    <t>cajrdbed7va</t>
-  </si>
-  <si>
-    <t>h6ccm8x12tn</t>
-  </si>
-  <si>
-    <t>aukn6r5iqav</t>
+    <t>xi9s3m014j</t>
+  </si>
+  <si>
+    <t>r9owg0pfpal</t>
+  </si>
+  <si>
+    <t>vnty33e2dv</t>
+  </si>
+  <si>
+    <t>a236k016re</t>
   </si>
   <si>
     <t>바닐라폴라</t>
   </si>
   <si>
-    <t>705xegf7eha</t>
-  </si>
-  <si>
-    <t>f08gp018ah</t>
-  </si>
-  <si>
-    <t>mvm6aq7bwbc</t>
-  </si>
-  <si>
-    <t>oe3fez4j8ip</t>
+    <t>twfi4z9u9qd</t>
+  </si>
+  <si>
+    <t>8fz4gsvjnad</t>
+  </si>
+  <si>
+    <t>j8svd3bhs8</t>
+  </si>
+  <si>
+    <t>p0ujssstzk</t>
   </si>
   <si>
     <t>오즐리가디건</t>
   </si>
   <si>
-    <t>9su9ey7bese</t>
-  </si>
-  <si>
-    <t>4oh40tat5p</t>
+    <t>hosua88ezg</t>
+  </si>
+  <si>
+    <t>2zscxch6w2j</t>
   </si>
   <si>
     <t>올리카라맨투맨</t>
   </si>
   <si>
-    <t>k804q6o6twm</t>
-  </si>
-  <si>
-    <t>3byz3z7mgtb</t>
-  </si>
-  <si>
-    <t>761w4w935y3</t>
-  </si>
-  <si>
-    <t>q8hei4149t</t>
+    <t>cc6n4jz03qe</t>
+  </si>
+  <si>
+    <t>zx58z4zw4bc</t>
+  </si>
+  <si>
+    <t>mj0rwekmmb</t>
+  </si>
+  <si>
+    <t>h070ak689mb</t>
   </si>
   <si>
     <t>기모워머레깅스</t>
   </si>
   <si>
-    <t>4z6xv4tkpm6</t>
+    <t>mtrop5scxi</t>
   </si>
   <si>
     <t>제니폴라</t>
   </si>
   <si>
-    <t>m8ne4zp4xs8</t>
-  </si>
-  <si>
-    <t>jrtx54ypmd9</t>
-  </si>
-  <si>
-    <t>r4wqqnw89z</t>
+    <t>kbq18l4sjc</t>
+  </si>
+  <si>
+    <t>671zgxagwyf</t>
+  </si>
+  <si>
+    <t>818xpfyjr1u</t>
   </si>
   <si>
     <t>핀턱기모조거</t>
   </si>
   <si>
-    <t>sni8osfi8vm</t>
+    <t>n7634nkbax</t>
   </si>
   <si>
     <t>핀틱기모조거</t>
   </si>
   <si>
-    <t>37mu1rx02hu</t>
+    <t>6sov7ga0gf</t>
   </si>
   <si>
     <t>헤이리본가디건</t>
   </si>
   <si>
-    <t>mddohxxawvk</t>
+    <t>i8l9dg5nc3</t>
   </si>
   <si>
     <t>벨로</t>
@@ -4891,7 +4891,7 @@
     <t>푸딩가디건</t>
   </si>
   <si>
-    <t>o02mo1gecik</t>
+    <t>dljjxxpw6ts</t>
   </si>
   <si>
     <t>벨루베베</t>
@@ -4906,13 +4906,13 @@
     <t>KIND기모맨투맨</t>
   </si>
   <si>
-    <t>whpoyuzvmk</t>
+    <t>y8pr3xwqb6</t>
   </si>
   <si>
     <t>KIND 기모맨투맨</t>
   </si>
   <si>
-    <t>2r49yi1gpzq</t>
+    <t>zy2u2qvtgue</t>
   </si>
   <si>
     <t>겨울엠보팬츠</t>
@@ -4921,16 +4921,16 @@
     <t>곰그레이</t>
   </si>
   <si>
-    <t>rjqoarw1vhe</t>
+    <t>elsp2110y8b</t>
   </si>
   <si>
     <t>도트도트</t>
   </si>
   <si>
-    <t>p6hjwzmfb3b</t>
-  </si>
-  <si>
-    <t>ceo0qkjl1ak</t>
+    <t>gjxoa4ylqei</t>
+  </si>
+  <si>
+    <t>bld5q3rdeau</t>
   </si>
   <si>
     <t>블랙체크</t>
@@ -4939,7 +4939,7 @@
     <t>12M</t>
   </si>
   <si>
-    <t>72l8pm0g2p5</t>
+    <t>koxmfkh31xn</t>
   </si>
   <si>
     <t>귀음 귀달이 보넷(베베)</t>
@@ -4948,7 +4948,7 @@
     <t>귀음귀달이보넷베베</t>
   </si>
   <si>
-    <t>pkzalivm49</t>
+    <t>upuj9r4aoir</t>
   </si>
   <si>
     <t>귀음 빵떡 슈트</t>
@@ -4957,7 +4957,7 @@
     <t>귀음빵떡슈트</t>
   </si>
   <si>
-    <t>c8n8v85mtev</t>
+    <t>d1cbgudnkrh</t>
   </si>
   <si>
     <t>날개 골지 기모티</t>
@@ -4966,13 +4966,13 @@
     <t>날개골지기모티셔츠</t>
   </si>
   <si>
-    <t>mt74thtpzj</t>
-  </si>
-  <si>
-    <t>egq3h27hmwp</t>
-  </si>
-  <si>
-    <t>tbg7sq74ze</t>
+    <t>0443puvtpm0o</t>
+  </si>
+  <si>
+    <t>526kefjopwj</t>
+  </si>
+  <si>
+    <t>5sqtxq5kibh</t>
   </si>
   <si>
     <t>넬리꽃 프릴 블라우스</t>
@@ -4984,7 +4984,7 @@
     <t>넬리꽃프릴블라우스</t>
   </si>
   <si>
-    <t>tkhi2gqqxk</t>
+    <t>d57z6u8gkna</t>
   </si>
   <si>
     <t>넬리꽃 프릴 블루머</t>
@@ -4993,7 +4993,7 @@
     <t>넬리꽃프릴블루머</t>
   </si>
   <si>
-    <t>gtoi15z2n69</t>
+    <t>295tpqhm11h</t>
   </si>
   <si>
     <t>니트 빵모자</t>
@@ -5002,16 +5002,16 @@
     <t>니트빵모자</t>
   </si>
   <si>
-    <t>gxgl8m35kt7</t>
+    <t>3h1k1nyhktd</t>
   </si>
   <si>
     <t>덤블베스트</t>
   </si>
   <si>
-    <t>r13ws6rahe</t>
-  </si>
-  <si>
-    <t>cbwnuxqmigs</t>
+    <t>torsfby3gxc</t>
+  </si>
+  <si>
+    <t>hmvmd1u5oas</t>
   </si>
   <si>
     <t>레이스러플티</t>
@@ -5020,7 +5020,7 @@
     <t>레이스러플티셔츠</t>
   </si>
   <si>
-    <t>mzsh8vd2tj7</t>
+    <t>r0bukfat3g</t>
   </si>
   <si>
     <t>로멀 포켓팬츠</t>
@@ -5029,13 +5029,13 @@
     <t>로멀포켓팬츠</t>
   </si>
   <si>
-    <t>k9s8fa8akr</t>
-  </si>
-  <si>
-    <t>j91veeipx58</t>
-  </si>
-  <si>
-    <t>6aagezbk44</t>
+    <t>l4lem71jqc</t>
+  </si>
+  <si>
+    <t>90zzvn0u8ji</t>
+  </si>
+  <si>
+    <t>qx8jn6w3m</t>
   </si>
   <si>
     <t>말랑 패딩 우주복</t>
@@ -5047,7 +5047,7 @@
     <t>말랑패딩우주복</t>
   </si>
   <si>
-    <t>sjmi7easlhg</t>
+    <t>kasog2wm3as</t>
   </si>
   <si>
     <t>말랑패딩 우주복</t>
@@ -5056,13 +5056,13 @@
     <t>6M</t>
   </si>
   <si>
-    <t>rbav8z5qg9</t>
+    <t>et7c3eory08</t>
   </si>
   <si>
     <t>플라워</t>
   </si>
   <si>
-    <t>l326nvrk8mc</t>
+    <t>uvwkxhltz9</t>
   </si>
   <si>
     <t>멜로덤블 비니</t>
@@ -5071,7 +5071,7 @@
     <t>멜로덤블비니</t>
   </si>
   <si>
-    <t>ky4zwcn16ic</t>
+    <t>tuqencszm4b</t>
   </si>
   <si>
     <t>멜로덤블 자켓</t>
@@ -5080,7 +5080,7 @@
     <t>멜로덤블자켓</t>
   </si>
   <si>
-    <t>bnuokpy0t</t>
+    <t>b0l95ptlvk</t>
   </si>
   <si>
     <t>베베 모글퍼 자켓2</t>
@@ -5089,13 +5089,13 @@
     <t>베베모글퍼자켓2</t>
   </si>
   <si>
-    <t>g5zv27z127a</t>
-  </si>
-  <si>
-    <t>swlvo6b5t9o</t>
-  </si>
-  <si>
-    <t>kgqhcdwj48</t>
+    <t>skg3kntt23</t>
+  </si>
+  <si>
+    <t>348xe2zo1s</t>
+  </si>
+  <si>
+    <t>q4zxd1irwja</t>
   </si>
   <si>
     <t>몽글덤블 자켓</t>
@@ -5104,13 +5104,13 @@
     <t>몽글덤블자켓</t>
   </si>
   <si>
-    <t>1oq9n04en7w</t>
+    <t>thqxopglkl</t>
   </si>
   <si>
     <t>밍크레깅스</t>
   </si>
   <si>
-    <t>9urijhh06nl</t>
+    <t>fzonbc2axjv</t>
   </si>
   <si>
     <t>밍크퍼 케이프</t>
@@ -5119,10 +5119,10 @@
     <t>밍크퍼케이프</t>
   </si>
   <si>
-    <t>xr4ebrq2s4f</t>
-  </si>
-  <si>
-    <t>cjqgp8d0oun</t>
+    <t>owunkehwkzo</t>
+  </si>
+  <si>
+    <t>da8l6g0wftn</t>
   </si>
   <si>
     <t>버터 기모 가디건</t>
@@ -5131,10 +5131,10 @@
     <t>버터기모가디건</t>
   </si>
   <si>
-    <t>z4nvno57ez</t>
-  </si>
-  <si>
-    <t>z3d2kafi3tp</t>
+    <t>75p79dutm5s</t>
+  </si>
+  <si>
+    <t>y15mki92xao</t>
   </si>
   <si>
     <t>버터 기모 팬츠</t>
@@ -5143,7 +5143,7 @@
     <t>버터기모팬츠</t>
   </si>
   <si>
-    <t>xcwyliwqdo</t>
+    <t>polmlvgopbc</t>
   </si>
   <si>
     <t>베네 곰돌이 덤블 비니(베베)</t>
@@ -5152,10 +5152,10 @@
     <t>베네곰돌이덤블비니베베</t>
   </si>
   <si>
-    <t>20svmyuyry5</t>
-  </si>
-  <si>
-    <t>09j842tlbv4t</t>
+    <t>8cjz127o3ro</t>
+  </si>
+  <si>
+    <t>xp5xzt75xa</t>
   </si>
   <si>
     <t>베네 곰돌이 덤블슈트</t>
@@ -5164,10 +5164,10 @@
     <t>베네곰돌이덤블슈트</t>
   </si>
   <si>
-    <t>pkhw28hlv6p</t>
-  </si>
-  <si>
-    <t>j7e1gzgliml</t>
+    <t>zdmbx9iu6p</t>
+  </si>
+  <si>
+    <t>an0abtgfp4i</t>
   </si>
   <si>
     <t>베베 체크 패딩 슈트2</t>
@@ -5179,7 +5179,7 @@
     <t>베베체크패딩슈트2</t>
   </si>
   <si>
-    <t>ih5yu8ymud</t>
+    <t>0c1zre8uqavw</t>
   </si>
   <si>
     <t>베이직 골지 레깅스2</t>
@@ -5188,16 +5188,16 @@
     <t>베이직골지레깅스2</t>
   </si>
   <si>
-    <t>68ae2vu145</t>
+    <t>raq9sk35oj</t>
   </si>
   <si>
     <t>베이직 골지레깅스2</t>
   </si>
   <si>
-    <t>orwfjh8cbpj</t>
-  </si>
-  <si>
-    <t>wgtrei4vm9</t>
+    <t>zbm7szjxdl</t>
+  </si>
+  <si>
+    <t>1sfx1e8ne8y</t>
   </si>
   <si>
     <t>부클 베어 비니2(베베)</t>
@@ -5206,7 +5206,7 @@
     <t>부클베어비니2베베</t>
   </si>
   <si>
-    <t>sm12qwc7i29</t>
+    <t>120acf01smlm</t>
   </si>
   <si>
     <t>스트라이프 레깅스2</t>
@@ -5215,7 +5215,7 @@
     <t>스트라이프레깅스2</t>
   </si>
   <si>
-    <t>higg7xehsm9</t>
+    <t>m6r9a81jwgg</t>
   </si>
   <si>
     <t>마론 멜빵슈트</t>
@@ -5227,19 +5227,19 @@
     <t>마론멜빵슈트</t>
   </si>
   <si>
-    <t>46f2ejnqnf6</t>
-  </si>
-  <si>
-    <t>t79elewjyti</t>
-  </si>
-  <si>
-    <t>cq9trzfxfhn</t>
+    <t>bsfirdn0th</t>
+  </si>
+  <si>
+    <t>jlb0mbgtxcd</t>
+  </si>
+  <si>
+    <t>acqwron2aa4</t>
   </si>
   <si>
     <t>아론멜빵팬츠</t>
   </si>
   <si>
-    <t>0rn7bkrgcbw</t>
+    <t>prej3r25jb</t>
   </si>
   <si>
     <t>와플 둥카티</t>
@@ -5251,22 +5251,22 @@
     <t>와플둥카티셔츠</t>
   </si>
   <si>
-    <t>kxl9ax6aaih</t>
+    <t>n7pk93fbnu9</t>
   </si>
   <si>
     <t>울베레모</t>
   </si>
   <si>
-    <t>535inu67mz9</t>
+    <t>wf825lhrjlj</t>
   </si>
   <si>
     <t>윈터치노팬츠</t>
   </si>
   <si>
-    <t>h97ut66kw4u</t>
-  </si>
-  <si>
-    <t>1yv8nkdx7ko</t>
+    <t>4cf6iom10uk</t>
+  </si>
+  <si>
+    <t>gtr3rb42ib6</t>
   </si>
   <si>
     <t>코어 니트 가디건</t>
@@ -5278,10 +5278,10 @@
     <t>코어니트가디건</t>
   </si>
   <si>
-    <t>lv2rodnhrq</t>
-  </si>
-  <si>
-    <t>yvxp4gen7ek</t>
+    <t>kygpma1290n</t>
+  </si>
+  <si>
+    <t>l4lzwbm9fxp</t>
   </si>
   <si>
     <t>코어 니트멜빵</t>
@@ -5290,7 +5290,7 @@
     <t>코어니트멜빵</t>
   </si>
   <si>
-    <t>o36oqvcpd4</t>
+    <t>i6eno10mfz</t>
   </si>
   <si>
     <t>쿠우멜빵슈트</t>
@@ -5299,7 +5299,7 @@
     <t>덤블아이보리</t>
   </si>
   <si>
-    <t>shjnsfxb94</t>
+    <t>tg6ygwa772c</t>
   </si>
   <si>
     <t>티라미수 기모 맨투맨</t>
@@ -5308,7 +5308,7 @@
     <t>티라미수기모맨투맨</t>
   </si>
   <si>
-    <t>ygtmnul433</t>
+    <t>rj6ocxveyhh</t>
   </si>
   <si>
     <t>팝콘후드베스트</t>
@@ -5317,16 +5317,16 @@
     <t>멜란그레이</t>
   </si>
   <si>
-    <t>s20nkdku7y</t>
-  </si>
-  <si>
-    <t>19w6j45a4je</t>
+    <t>12q0th2fpqq</t>
+  </si>
+  <si>
+    <t>212fd1u3hbz</t>
   </si>
   <si>
     <t>페리본헤어밴드</t>
   </si>
   <si>
-    <t>wyo6tjx9k1</t>
+    <t>wcxflhcq9go</t>
   </si>
   <si>
     <t>KIND 포켓 팬츠</t>
@@ -5335,7 +5335,7 @@
     <t>KIND포켓팬츠</t>
   </si>
   <si>
-    <t>aovgingx7xg</t>
+    <t>7c9v9oqi5xh</t>
   </si>
   <si>
     <t>피치체크 셔츠</t>
@@ -5344,7 +5344,7 @@
     <t>피치체크셔츠</t>
   </si>
   <si>
-    <t>5080qowpkjy</t>
+    <t>jrkwet9b7al</t>
   </si>
   <si>
     <t>피치체크 팬츠</t>
@@ -5353,7 +5353,7 @@
     <t>피치체크팬츠</t>
   </si>
   <si>
-    <t>u9l4mh6g7n</t>
+    <t>4rik88uo9hw</t>
   </si>
   <si>
     <t>하로이 벨로아 멜빵</t>
@@ -5362,7 +5362,7 @@
     <t>하로이벨로아멜빵</t>
   </si>
   <si>
-    <t>8p9j9jxo2n5</t>
+    <t>36yyeig6flp</t>
   </si>
   <si>
     <t>하로이 벨로마멜빵</t>
@@ -5371,7 +5371,7 @@
     <t>하로이벨로마멜빵</t>
   </si>
   <si>
-    <t>wgvddr7zvk9</t>
+    <t>wvuw1wgduk</t>
   </si>
   <si>
     <t>하이디후드 망토</t>
@@ -5380,7 +5380,7 @@
     <t>하이디후드망토</t>
   </si>
   <si>
-    <t>ibaxlc2duir</t>
+    <t>zlt5nr48ypj</t>
   </si>
   <si>
     <t>하임 군밤 모자</t>
@@ -5389,7 +5389,7 @@
     <t>하임군밤모자</t>
   </si>
   <si>
-    <t>xcd3ba0kw4</t>
+    <t>216t04a206w</t>
   </si>
   <si>
     <t>하임패딩 베스트</t>
@@ -5398,10 +5398,10 @@
     <t>하임패딩베스트</t>
   </si>
   <si>
-    <t>fubwoyk4ipt</t>
-  </si>
-  <si>
-    <t>9eolu5s2p1n</t>
+    <t>1czjlohckni</t>
+  </si>
+  <si>
+    <t>x7efxpbrpn</t>
   </si>
   <si>
     <t>후리스덤블 아노락</t>
@@ -5410,25 +5410,25 @@
     <t>후리스덤블아노락</t>
   </si>
   <si>
-    <t>o9eot4xzky</t>
-  </si>
-  <si>
-    <t>byck76pr2lf</t>
+    <t>eidk2owgjii</t>
+  </si>
+  <si>
+    <t>hrlj3z0jm6f</t>
   </si>
   <si>
     <t>후리스 덤블 아노락</t>
   </si>
   <si>
-    <t>stsk7p3y0l</t>
-  </si>
-  <si>
-    <t>y6r8ijv7yw</t>
-  </si>
-  <si>
-    <t>bhbx9ibl3p9</t>
-  </si>
-  <si>
-    <t>rjbhbcdsgol</t>
+    <t>366uq77jqtp</t>
+  </si>
+  <si>
+    <t>pp5qi717jy</t>
+  </si>
+  <si>
+    <t>axbzj4v3jbj</t>
+  </si>
+  <si>
+    <t>6qfs58gv734</t>
   </si>
   <si>
     <t>후리스덤블 조거팬츠</t>
@@ -5437,13 +5437,13 @@
     <t>후리스덤블조거팬츠</t>
   </si>
   <si>
-    <t>5t53urww0gj</t>
+    <t>ebrp4ci8f34</t>
   </si>
   <si>
     <t>후리스 덤블조거팬츠</t>
   </si>
   <si>
-    <t>meorumw9w4</t>
+    <t>9bguyx6lg7p</t>
   </si>
   <si>
     <t>보네오네</t>
@@ -5455,10 +5455,10 @@
     <t>방긋꽃싱글티셔츠</t>
   </si>
   <si>
-    <t>jd36lqczhn</t>
-  </si>
-  <si>
-    <t>515mfxpqkfq</t>
+    <t>353q5yp5yuk</t>
+  </si>
+  <si>
+    <t>xv20ggto2j7</t>
   </si>
   <si>
     <t>보니토</t>
@@ -5470,7 +5470,7 @@
     <t>골덴5부반팬츠</t>
   </si>
   <si>
-    <t>loeakdxcrms</t>
+    <t>go73myr6n28</t>
   </si>
   <si>
     <t>기획)2+1베이스티</t>
@@ -5479,22 +5479,22 @@
     <t>기획21베이스티셔츠</t>
   </si>
   <si>
-    <t>gmt7ntw5lk6</t>
+    <t>r24hcywejw</t>
   </si>
   <si>
     <t>반반보니토후드집업</t>
   </si>
   <si>
-    <t>jpr7580fntc</t>
-  </si>
-  <si>
-    <t>95fgol2iykl</t>
+    <t>o8ss0l7pm9s</t>
+  </si>
+  <si>
+    <t>0c3ps04xjz2</t>
   </si>
   <si>
     <t>보니토호일맨투맨</t>
   </si>
   <si>
-    <t>25ilgzczj64</t>
+    <t>r2gbvlpa4w</t>
   </si>
   <si>
     <t>썬데이샤틴MTM</t>
@@ -5503,10 +5503,10 @@
     <t>썬데이샤틴맨투맨</t>
   </si>
   <si>
-    <t>h9ggryoi5ac</t>
-  </si>
-  <si>
-    <t>ben7ogywn2g</t>
+    <t>iqd3a7bxk6b</t>
+  </si>
+  <si>
+    <t>xcje6yaw2n</t>
   </si>
   <si>
     <t>24가을/어텀치노팬츠</t>
@@ -5521,10 +5521,10 @@
     <t>퍼플운</t>
   </si>
   <si>
-    <t>ag9cgre8k1s</t>
-  </si>
-  <si>
-    <t>r70lts0axp</t>
+    <t>ljqvbhc62mh</t>
+  </si>
+  <si>
+    <t>bwk529rtyya</t>
   </si>
   <si>
     <t>올림피아후드티</t>
@@ -5533,19 +5533,19 @@
     <t>올림피아후드티셔츠</t>
   </si>
   <si>
-    <t>45urd40gkq2</t>
+    <t>amngu5u12</t>
   </si>
   <si>
     <t>퍼티트맨투맨</t>
   </si>
   <si>
-    <t>cfzpqv6tnok</t>
+    <t>i21uq196mg8</t>
   </si>
   <si>
     <t>화섬포켓맨투맨</t>
   </si>
   <si>
-    <t>b16fz60a88</t>
+    <t>cxz690sd1pt</t>
   </si>
   <si>
     <t>기획)데님팬츠</t>
@@ -5557,10 +5557,10 @@
     <t>기획데님팬츠</t>
   </si>
   <si>
-    <t>pa2nerc9w4n</t>
-  </si>
-  <si>
-    <t>uk2cfb926wm</t>
+    <t>wsvrrrbu0so</t>
+  </si>
+  <si>
+    <t>fu97ihs7xlc</t>
   </si>
   <si>
     <t>기획)어텀조거팬츠</t>
@@ -5569,10 +5569,10 @@
     <t>기획어텀조거팬츠</t>
   </si>
   <si>
-    <t>phaler9dghb</t>
-  </si>
-  <si>
-    <t>1qw3t0d0sxi</t>
+    <t>yd26xkw31kn</t>
+  </si>
+  <si>
+    <t>mxmr2wvsekh</t>
   </si>
   <si>
     <t>봉봉부틱</t>
@@ -5584,7 +5584,7 @@
     <t>핑크주니어</t>
   </si>
   <si>
-    <t>ltf3p38mkvm</t>
+    <t>f3ei5k3u7hk</t>
   </si>
   <si>
     <t>블루틴주니어</t>
@@ -5602,10 +5602,10 @@
     <t>13152</t>
   </si>
   <si>
-    <t>uqfqdd14ef</t>
-  </si>
-  <si>
-    <t>z2x1zk7j6c</t>
+    <t>ls876xkyorq</t>
+  </si>
+  <si>
+    <t>l94ca14px2n</t>
   </si>
   <si>
     <t>비비드아이</t>
@@ -5620,7 +5620,7 @@
     <t>가을패턴고쟁이</t>
   </si>
   <si>
-    <t>pn2ut3fknjr</t>
+    <t>rqzaztrwft</t>
   </si>
   <si>
     <t>24골덴나염조거</t>
@@ -5638,13 +5638,13 @@
     <t>블랙도트</t>
   </si>
   <si>
-    <t>l4piip4laz</t>
+    <t>xg6kqk3tnjf</t>
   </si>
   <si>
     <t>7(M)</t>
   </si>
   <si>
-    <t>4aljmoctgc9</t>
+    <t>lar4c2bshri</t>
   </si>
   <si>
     <t>24데일리고쟁이</t>
@@ -5653,37 +5653,37 @@
     <t>데일리고쟁이</t>
   </si>
   <si>
-    <t>7l42kc81hri</t>
-  </si>
-  <si>
-    <t>liw3f4rfpp</t>
-  </si>
-  <si>
-    <t>0hbrv4iv9ig</t>
-  </si>
-  <si>
-    <t>r06mxugeekc</t>
+    <t>5a5m13ngxp9</t>
+  </si>
+  <si>
+    <t>r6ulpbgqlzi</t>
+  </si>
+  <si>
+    <t>2qj2f0hnbbg</t>
+  </si>
+  <si>
+    <t>n24iwns8j7</t>
   </si>
   <si>
     <t>3(XS)</t>
   </si>
   <si>
-    <t>mqdawstx6up</t>
-  </si>
-  <si>
-    <t>r5bmb0huy7b</t>
-  </si>
-  <si>
-    <t>j36muv4h51c</t>
-  </si>
-  <si>
-    <t>we5yjjqdu7</t>
+    <t>mgvt06cwrx</t>
+  </si>
+  <si>
+    <t>ibvmpmv9hu</t>
+  </si>
+  <si>
+    <t>w88dxtyfmsd</t>
+  </si>
+  <si>
+    <t>94ouabazwrr</t>
   </si>
   <si>
     <t>15(JM)</t>
   </si>
   <si>
-    <t>1fjqflztjfb</t>
+    <t>wywm72n4snd</t>
   </si>
   <si>
     <t>진회색</t>
@@ -5692,7 +5692,7 @@
     <t>진그레이</t>
   </si>
   <si>
-    <t>3fpptsgu9f</t>
+    <t>0d3lohafr4ii</t>
   </si>
   <si>
     <t>24큰단가라맨투맨</t>
@@ -5701,28 +5701,28 @@
     <t>큰단가라맨투맨</t>
   </si>
   <si>
-    <t>s4kg2iir7o</t>
-  </si>
-  <si>
-    <t>x435jylx25</t>
+    <t>4aqqdtvnsxd</t>
+  </si>
+  <si>
+    <t>2dtv9pnx94j</t>
   </si>
   <si>
     <t>블루밤색</t>
   </si>
   <si>
-    <t>jkv51w8fjgo</t>
+    <t>rj9a3z0bypo</t>
   </si>
   <si>
     <t>카키핑크</t>
   </si>
   <si>
-    <t>gzl8zxh250b</t>
-  </si>
-  <si>
-    <t>gkjmahtj6n</t>
-  </si>
-  <si>
-    <t>fda20p3ofuq</t>
+    <t>thmtmersjgc</t>
+  </si>
+  <si>
+    <t>k974lacily</t>
+  </si>
+  <si>
+    <t>0ke8v89qvr1g</t>
   </si>
   <si>
     <t>39자수조끼상하</t>
@@ -5734,19 +5734,19 @@
     <t>자수조끼상하</t>
   </si>
   <si>
-    <t>dc3e807z5bf</t>
+    <t>sha8k79gj3m</t>
   </si>
   <si>
     <t>11(XL)</t>
   </si>
   <si>
-    <t>jlzmb4tfjji</t>
+    <t>euyl3iumo2</t>
   </si>
   <si>
     <t>P자수맨투맨</t>
   </si>
   <si>
-    <t>8cmtfj98ziq</t>
+    <t>jvkiszrr6t8</t>
   </si>
   <si>
     <t>가을단가라조거</t>
@@ -5758,28 +5758,28 @@
     <t>크림블랙줄</t>
   </si>
   <si>
-    <t>gpt61dx3hrt</t>
+    <t>ci85nm3ur3p</t>
   </si>
   <si>
     <t>가을레이어드긴팔</t>
   </si>
   <si>
-    <t>2mi9f24787q</t>
-  </si>
-  <si>
-    <t>pzolhjaoegd</t>
-  </si>
-  <si>
-    <t>tashppdj2aj</t>
+    <t>897x1hul90l</t>
+  </si>
+  <si>
+    <t>ihj1ec96q79</t>
+  </si>
+  <si>
+    <t>3ybvrzmybwv</t>
   </si>
   <si>
     <t>가을반팔레이어드</t>
   </si>
   <si>
-    <t>0cx8kmt3q96q</t>
-  </si>
-  <si>
-    <t>kv4lllhbhvb</t>
+    <t>tzx6lyy831</t>
+  </si>
+  <si>
+    <t>x76w9vxfhp</t>
   </si>
   <si>
     <t>가을청팬츠</t>
@@ -5788,22 +5788,22 @@
     <t>13(JS)</t>
   </si>
   <si>
-    <t>xxv84adtuq</t>
-  </si>
-  <si>
-    <t>slesge08wel</t>
+    <t>r1wmzc66l9</t>
+  </si>
+  <si>
+    <t>avdpkgpagjl</t>
   </si>
   <si>
     <t>가을카고조거</t>
   </si>
   <si>
-    <t>x1gou3fya0c</t>
-  </si>
-  <si>
-    <t>ej6xf594r8o</t>
-  </si>
-  <si>
-    <t>590v8f5bax9</t>
+    <t>9bfuhfwyfuf</t>
+  </si>
+  <si>
+    <t>iu7r9wxt6w</t>
+  </si>
+  <si>
+    <t>fjpf9qti9f6</t>
   </si>
   <si>
     <t>가을포켓반바지</t>
@@ -5812,37 +5812,37 @@
     <t>가을포켓반팬츠</t>
   </si>
   <si>
-    <t>mo52r574qvl</t>
+    <t>dgrt5adytfq</t>
   </si>
   <si>
     <t>가이롭바상하</t>
   </si>
   <si>
-    <t>fzigfo3o2a</t>
-  </si>
-  <si>
-    <t>2fr2f5d608u</t>
-  </si>
-  <si>
-    <t>rtaq5kikuy9</t>
-  </si>
-  <si>
-    <t>kd74sfp0jrh</t>
-  </si>
-  <si>
-    <t>zp836iwd1t</t>
-  </si>
-  <si>
-    <t>ft5ps0yjd2c</t>
-  </si>
-  <si>
-    <t>ikvs4rpamgb</t>
+    <t>ip69509wkap</t>
+  </si>
+  <si>
+    <t>ygw7oqny8j</t>
+  </si>
+  <si>
+    <t>qssjmkytdz</t>
+  </si>
+  <si>
+    <t>157op1rm9c1</t>
+  </si>
+  <si>
+    <t>oy2lqs5bgp8</t>
+  </si>
+  <si>
+    <t>dor2u6xifi</t>
+  </si>
+  <si>
+    <t>3lp3c7u6kos</t>
   </si>
   <si>
     <t>골뎅자수조거</t>
   </si>
   <si>
-    <t>cl340vwvz</t>
+    <t>kpnwxxposj</t>
   </si>
   <si>
     <t>골지나팔바지</t>
@@ -5851,52 +5851,52 @@
     <t>골지나팔팬츠</t>
   </si>
   <si>
-    <t>ak4yrxhhb0k</t>
+    <t>cfyqkfokzwq</t>
   </si>
   <si>
     <t>곰곰졸줄상하</t>
   </si>
   <si>
-    <t>1r7pfb6k8f3</t>
+    <t>45chvezjwa3</t>
   </si>
   <si>
     <t>곰곰졸출상하</t>
   </si>
   <si>
-    <t>qjdmatapsho</t>
+    <t>uep5obkofsk</t>
   </si>
   <si>
     <t>곰나그랑원피스</t>
   </si>
   <si>
-    <t>v7qpovhtqd9</t>
+    <t>2tkp8lmrr5b</t>
   </si>
   <si>
     <t>곰자수카라상하</t>
   </si>
   <si>
-    <t>e1rvi8r24o5</t>
-  </si>
-  <si>
-    <t>4169qd3fq9y</t>
-  </si>
-  <si>
-    <t>ogoxp4rd2e</t>
-  </si>
-  <si>
-    <t>2rzeqw4pkgw</t>
+    <t>1i87me078gxi</t>
+  </si>
+  <si>
+    <t>1aow2gxckmx</t>
+  </si>
+  <si>
+    <t>igzpjdjofr</t>
+  </si>
+  <si>
+    <t>oowqbyr46b</t>
   </si>
   <si>
     <t>곰자수후드집업</t>
   </si>
   <si>
-    <t>ylytg1hv3n</t>
-  </si>
-  <si>
-    <t>wmoags2hsbi</t>
-  </si>
-  <si>
-    <t>z7f87fp053</t>
+    <t>r0xz5oay7c</t>
+  </si>
+  <si>
+    <t>h4wys3tultj</t>
+  </si>
+  <si>
+    <t>rve46ps364</t>
   </si>
   <si>
     <t>곰책책상하</t>
@@ -5905,13 +5905,13 @@
     <t>빨강</t>
   </si>
   <si>
-    <t>pa0o4jnu6y</t>
+    <t>gxgaer7wt5n</t>
   </si>
   <si>
     <t>곰프렌즈맨투맨</t>
   </si>
   <si>
-    <t>rf511eko9q</t>
+    <t>cmurus7l4fe</t>
   </si>
   <si>
     <t>공주프릴바지</t>
@@ -5920,7 +5920,7 @@
     <t>공주프릴팬츠</t>
   </si>
   <si>
-    <t>amdps6tb44i</t>
+    <t>9p4vf4kyu8h</t>
   </si>
   <si>
     <t>날라리골지티</t>
@@ -5929,13 +5929,13 @@
     <t>날라리골지티셔츠</t>
   </si>
   <si>
-    <t>n3ujddhpz6g</t>
+    <t>vti97ww2zj</t>
   </si>
   <si>
     <t>뉴욕바스락조거</t>
   </si>
   <si>
-    <t>zxd8kcngh09</t>
+    <t>47i176o3k5w</t>
   </si>
   <si>
     <t>단가라티</t>
@@ -5944,16 +5944,16 @@
     <t>단가라티셔츠</t>
   </si>
   <si>
-    <t>whlxsqk2qi</t>
-  </si>
-  <si>
-    <t>6pk1qfg3ubw</t>
-  </si>
-  <si>
-    <t>q1gizz4ar3</t>
-  </si>
-  <si>
-    <t>q1qnk4fvl0p</t>
+    <t>r3cgxv81ugk</t>
+  </si>
+  <si>
+    <t>rbbndk2w0fn</t>
+  </si>
+  <si>
+    <t>ab03rj46uts</t>
+  </si>
+  <si>
+    <t>9u5h19w9n6o</t>
   </si>
   <si>
     <t>데님나팔바지</t>
@@ -5965,13 +5965,13 @@
     <t>데님나팔팬츠</t>
   </si>
   <si>
-    <t>emw51ztjxrc</t>
+    <t>2fnocs7kwfq</t>
   </si>
   <si>
     <t>데일리가디건</t>
   </si>
   <si>
-    <t>smdlybxr6as</t>
+    <t>x89kcykwq9</t>
   </si>
   <si>
     <t>데일리날라리티</t>
@@ -5980,28 +5980,28 @@
     <t>데일리날라리티셔츠</t>
   </si>
   <si>
-    <t>qryr2u9aezi</t>
+    <t>b0b4mwsmhmh</t>
   </si>
   <si>
     <t>데일리치랭스</t>
   </si>
   <si>
-    <t>x54pk1qhx5a</t>
+    <t>mnxrvropqc</t>
   </si>
   <si>
     <t>라이스맨투맨</t>
   </si>
   <si>
-    <t>w919nmb465k</t>
+    <t>iffng260yvk</t>
   </si>
   <si>
     <t>럭비공맨투맨</t>
   </si>
   <si>
-    <t>xw0xceqsh78</t>
-  </si>
-  <si>
-    <t>jr9nln249z</t>
+    <t>jpd113m6irl</t>
+  </si>
+  <si>
+    <t>lc4awg6tbw</t>
   </si>
   <si>
     <t>무지티</t>
@@ -6010,31 +6010,31 @@
     <t>무지티셔츠</t>
   </si>
   <si>
-    <t>1mnktwjf2fs</t>
-  </si>
-  <si>
-    <t>iimlfjqlv89</t>
+    <t>a33tfmyh4fl</t>
+  </si>
+  <si>
+    <t>0nngqlbo0aq</t>
   </si>
   <si>
     <t>바스락뉴욕맨투맨</t>
   </si>
   <si>
-    <t>s2gkoif334</t>
-  </si>
-  <si>
-    <t>gks9z6gx0l</t>
-  </si>
-  <si>
-    <t>k1taqrfuno</t>
+    <t>jzypcob9y3</t>
+  </si>
+  <si>
+    <t>0arunkun8nd</t>
+  </si>
+  <si>
+    <t>pjb4mi82lus</t>
   </si>
   <si>
     <t>바스락주머니조거</t>
   </si>
   <si>
-    <t>39u310muctt</t>
-  </si>
-  <si>
-    <t>c666nem8bnm</t>
+    <t>pptc39vkqpi</t>
+  </si>
+  <si>
+    <t>frb5qrcr2v7</t>
   </si>
   <si>
     <t>베이직코튼바지</t>
@@ -6043,73 +6043,73 @@
     <t>베이직코튼팬츠</t>
   </si>
   <si>
-    <t>cbowrvyfuj5</t>
-  </si>
-  <si>
-    <t>xskfh9w28u</t>
+    <t>zf2wgw9hvq</t>
+  </si>
+  <si>
+    <t>dyeld1ddlbg</t>
   </si>
   <si>
     <t>진베이지</t>
   </si>
   <si>
-    <t>a4dw7i1edpq</t>
-  </si>
-  <si>
-    <t>9mkddiskmr</t>
+    <t>rcsa5qzz15n</t>
+  </si>
+  <si>
+    <t>8aiko51x1yf</t>
   </si>
   <si>
     <t>비비나팔상하</t>
   </si>
   <si>
-    <t>iln6qs1wd7i</t>
-  </si>
-  <si>
-    <t>6vt8tlwg2o</t>
-  </si>
-  <si>
-    <t>ig0zo623ivl</t>
-  </si>
-  <si>
-    <t>m8zw9xt8g8s</t>
-  </si>
-  <si>
-    <t>k9uy60eeojs</t>
+    <t>g5gm8wh50cl</t>
+  </si>
+  <si>
+    <t>t1zr29pp7ni</t>
+  </si>
+  <si>
+    <t>pb021rp9his</t>
+  </si>
+  <si>
+    <t>2fbsc0bx5ys</t>
+  </si>
+  <si>
+    <t>0ghzuejrkp7j</t>
   </si>
   <si>
     <t>비비드패딩조끼</t>
   </si>
   <si>
-    <t>xj26dbg8i6</t>
+    <t>yytifp6k2p</t>
   </si>
   <si>
     <t>백아이</t>
   </si>
   <si>
-    <t>snkp82otjsf</t>
+    <t>6m5bvgv4f7x</t>
   </si>
   <si>
     <t>빈티지이중맨투맨</t>
   </si>
   <si>
-    <t>c5049qv1ii7</t>
+    <t>pxs986kt12</t>
   </si>
   <si>
     <t>스마일상하</t>
   </si>
   <si>
-    <t>4fctu61ke9j</t>
-  </si>
-  <si>
-    <t>myhjolhpm1</t>
-  </si>
-  <si>
-    <t>jeo3i9d1tu</t>
+    <t>3cptr8hl21</t>
+  </si>
+  <si>
+    <t>xoc0jx3wkdh</t>
+  </si>
+  <si>
+    <t>0otyp0zkywbp</t>
   </si>
   <si>
     <t>스트라이프레깅스</t>
   </si>
   <si>
-    <t>84rwyyl9ag</t>
+    <t>fdkvw0bl8zs</t>
   </si>
   <si>
     <t>스티치라인티</t>
@@ -6118,55 +6118,55 @@
     <t>스티치라인티셔츠</t>
   </si>
   <si>
-    <t>4eyvi59c4um</t>
-  </si>
-  <si>
-    <t>hnyxoqpj4d</t>
+    <t>oz5iab2sufj</t>
+  </si>
+  <si>
+    <t>mushlgl2p9</t>
   </si>
   <si>
     <t>에니멀카맨투맨</t>
   </si>
   <si>
-    <t>j417aothv7</t>
+    <t>sj5cze09e1e</t>
   </si>
   <si>
     <t>연그레이</t>
   </si>
   <si>
-    <t>kucahc0noyd</t>
-  </si>
-  <si>
-    <t>1zp8fi7t05x</t>
-  </si>
-  <si>
-    <t>gjtyj5lnqwo</t>
+    <t>ru96k661ubo</t>
+  </si>
+  <si>
+    <t>2rv87936viv</t>
+  </si>
+  <si>
+    <t>r7e7mkynoyc</t>
   </si>
   <si>
     <t>와이맨투맨</t>
   </si>
   <si>
-    <t>2388gegwptl</t>
-  </si>
-  <si>
-    <t>tlqkjvuum6n</t>
+    <t>w6i8gpjm9f</t>
+  </si>
+  <si>
+    <t>gdmsjphrsfw</t>
   </si>
   <si>
     <t>유지맨투맨</t>
   </si>
   <si>
-    <t>ix41ves54q</t>
+    <t>rx6pkrj12z</t>
   </si>
   <si>
     <t>빈티지레드</t>
   </si>
   <si>
-    <t>4k5og0opodq</t>
+    <t>260ylo66311</t>
   </si>
   <si>
     <t>쥬라기월드상하</t>
   </si>
   <si>
-    <t>7w4eu14o45x</t>
+    <t>x7vh9u2zj5e</t>
   </si>
   <si>
     <t>테디스상하</t>
@@ -6175,10 +6175,10 @@
     <t>15(IM)</t>
   </si>
   <si>
-    <t>iiy3f0p2zn</t>
-  </si>
-  <si>
-    <t>p08rbhvzddc</t>
+    <t>qr8c201pn2</t>
+  </si>
+  <si>
+    <t>l0ki1ys25fr</t>
   </si>
   <si>
     <t>포인트나그랑티</t>
@@ -6187,46 +6187,46 @@
     <t>포인트나그랑티셔츠</t>
   </si>
   <si>
-    <t>5b1qogjb8k</t>
+    <t>1j2dx28ywy1</t>
   </si>
   <si>
     <t>인디고블루</t>
   </si>
   <si>
-    <t>fzjqh39myn</t>
-  </si>
-  <si>
-    <t>qo3l6r0w59n</t>
+    <t>ebim53d9a3c</t>
+  </si>
+  <si>
+    <t>qszz4pevkh</t>
   </si>
   <si>
     <t>포인트시보리맨투맨</t>
   </si>
   <si>
-    <t>6nizp9i3bz</t>
+    <t>9ax8vxmdm65</t>
   </si>
   <si>
     <t>피규어자수상하</t>
   </si>
   <si>
-    <t>3aj7yvjt3qn</t>
+    <t>9iw0yl5tke8</t>
   </si>
   <si>
     <t>핀탁조거팬츠</t>
   </si>
   <si>
-    <t>0cj9roaku1bi</t>
-  </si>
-  <si>
-    <t>gcze7jfiaos</t>
-  </si>
-  <si>
-    <t>nxyp4ngzmsr</t>
+    <t>1fclvahy88ah</t>
+  </si>
+  <si>
+    <t>axwdz742ygt</t>
+  </si>
+  <si>
+    <t>z2fma8lgefd</t>
   </si>
   <si>
     <t>헤지뷔스티에</t>
   </si>
   <si>
-    <t>rf4rweybc8</t>
+    <t>xj72g1rm8mm</t>
   </si>
   <si>
     <t>산리오캐릭터즈 나염맨투맨</t>
@@ -6235,7 +6235,7 @@
     <t>산리오캐릭터즈나염맨투맨</t>
   </si>
   <si>
-    <t>i30shbnn5f</t>
+    <t>5lntrly6ykm</t>
   </si>
   <si>
     <t>산리오캐릭터즈 캠핑맨투맨</t>
@@ -6244,7 +6244,7 @@
     <t>산리오캐릭터즈캠핑맨투맨</t>
   </si>
   <si>
-    <t>1977btqd14z</t>
+    <t>xh86qv0zoc</t>
   </si>
   <si>
     <t>빠빠</t>
@@ -6253,7 +6253,7 @@
     <t>보송곰슈트</t>
   </si>
   <si>
-    <t>d63fkd4841b</t>
+    <t>b4fv1guuo5n</t>
   </si>
   <si>
     <t>쁘띠워니</t>
@@ -6265,7 +6265,7 @@
     <t>어썸상하세트</t>
   </si>
   <si>
-    <t>ofb2awpd1s</t>
+    <t>72dvcuzb4p8</t>
   </si>
   <si>
     <t>세라</t>
@@ -6277,7 +6277,7 @@
     <t>단리본머리띠</t>
   </si>
   <si>
-    <t>yj96peku3u</t>
+    <t>bc0dmwndxnj</t>
   </si>
   <si>
     <t>하트세일러 카라 맨투맨</t>
@@ -6286,7 +6286,7 @@
     <t>하트세일러카라맨투맨</t>
   </si>
   <si>
-    <t>vylbeduyvm</t>
+    <t>wuel2asofvj</t>
   </si>
   <si>
     <t>소예</t>
@@ -6295,13 +6295,13 @@
     <t>네추럴타이즈</t>
   </si>
   <si>
-    <t>i32bzwjnh2r</t>
-  </si>
-  <si>
-    <t>cewrwp1yi6u</t>
-  </si>
-  <si>
-    <t>gibc29631k</t>
+    <t>rjn67jvz42</t>
+  </si>
+  <si>
+    <t>mvlxee2hudi</t>
+  </si>
+  <si>
+    <t>u8h7svdwxy</t>
   </si>
   <si>
     <t>데님팜큐롯</t>
@@ -6310,7 +6310,7 @@
     <t>데님</t>
   </si>
   <si>
-    <t>5ftmukqimfl</t>
+    <t>28qv4hgfcl4</t>
   </si>
   <si>
     <t>델리플리츠sk</t>
@@ -6322,16 +6322,16 @@
     <t>델리플리츠스커트</t>
   </si>
   <si>
-    <t>1zo08b4r06t</t>
+    <t>vedmwv03xv</t>
   </si>
   <si>
     <t>레이스삭스</t>
   </si>
   <si>
-    <t>og58myrow0j</t>
-  </si>
-  <si>
-    <t>s9lxjv6suy8</t>
+    <t>9ccf5r22jyg</t>
+  </si>
+  <si>
+    <t>khqi6h0g9g</t>
   </si>
   <si>
     <t>버뮤다버튼pt</t>
@@ -6343,13 +6343,13 @@
     <t>버뮤다버튼팬츠</t>
   </si>
   <si>
-    <t>yh831p814u</t>
+    <t>a693helqx54</t>
   </si>
   <si>
     <t>세일러숄</t>
   </si>
   <si>
-    <t>j2dqg77vo1</t>
+    <t>i3pbvszu568</t>
   </si>
   <si>
     <t>스웨이t</t>
@@ -6358,10 +6358,10 @@
     <t>스웨이티셔츠</t>
   </si>
   <si>
-    <t>2z5pbfdjpmm</t>
-  </si>
-  <si>
-    <t>fpop2rrlu3v</t>
+    <t>hj1z66jz7eo</t>
+  </si>
+  <si>
+    <t>fjc8x1ibe7l</t>
   </si>
   <si>
     <t>올드프릴t</t>
@@ -6370,34 +6370,34 @@
     <t>올드프릴티셔츠</t>
   </si>
   <si>
-    <t>9wp51kklbkv</t>
+    <t>ggug26e7jqd</t>
   </si>
   <si>
     <t>울튤립원피스</t>
   </si>
   <si>
-    <t>2luqu2p0hqa</t>
+    <t>ho7r95valkn</t>
   </si>
   <si>
     <t>울헨리라운드</t>
   </si>
   <si>
-    <t>fkd95gi9f7h</t>
-  </si>
-  <si>
-    <t>5dzetle7oaa</t>
-  </si>
-  <si>
-    <t>voeypktdz9e</t>
-  </si>
-  <si>
-    <t>82ij93e3bno</t>
+    <t>3el502onsjm</t>
+  </si>
+  <si>
+    <t>d499k13u3c</t>
+  </si>
+  <si>
+    <t>570l1jxpwwq</t>
+  </si>
+  <si>
+    <t>rdazlevzfnt</t>
   </si>
   <si>
     <t>윈드원피스</t>
   </si>
   <si>
-    <t>f34sgbcwyl</t>
+    <t>leg3a6tu7xh</t>
   </si>
   <si>
     <t>컬리pl</t>
@@ -6406,7 +6406,7 @@
     <t>컬리PL</t>
   </si>
   <si>
-    <t>kxx6zg0aewp</t>
+    <t>sdyxk3dbst</t>
   </si>
   <si>
     <t>케미p</t>
@@ -6415,28 +6415,28 @@
     <t>케미팬츠</t>
   </si>
   <si>
-    <t>2ayhg68dqvw</t>
+    <t>bje4slct2wa</t>
   </si>
   <si>
     <t>브릭</t>
   </si>
   <si>
-    <t>t4dsidiak9j</t>
-  </si>
-  <si>
-    <t>57xz49et1j3</t>
-  </si>
-  <si>
-    <t>hu281awm0gc</t>
+    <t>kio3xxghfw</t>
+  </si>
+  <si>
+    <t>r02uio6k1l</t>
+  </si>
+  <si>
+    <t>0rvkm4i69xt</t>
   </si>
   <si>
     <t>클로이가디건</t>
   </si>
   <si>
-    <t>4hgp2i0dyiw</t>
-  </si>
-  <si>
-    <t>38onur438pg</t>
+    <t>bzsuw16w5h6</t>
+  </si>
+  <si>
+    <t>s6sbgmeqpwp</t>
   </si>
   <si>
     <t>트리플타이즈</t>
@@ -6445,10 +6445,10 @@
     <t>버터베이지</t>
   </si>
   <si>
-    <t>s97t1m1dtsf</t>
-  </si>
-  <si>
-    <t>40eg87v85ts</t>
+    <t>s2yp843p4zp</t>
+  </si>
+  <si>
+    <t>r8xqtp4kqo</t>
   </si>
   <si>
     <t>펌킨샤sk</t>
@@ -6457,13 +6457,13 @@
     <t>펌킨샤스커트</t>
   </si>
   <si>
-    <t>3w5zg3p7mmk</t>
+    <t>ueaxjqsd8u9</t>
   </si>
   <si>
     <t>포시룸퍼</t>
   </si>
   <si>
-    <t>ftvg3dmqt38</t>
+    <t>3xlg6cew7id</t>
   </si>
   <si>
     <t>플레이팬츠</t>
@@ -6472,7 +6472,7 @@
     <t>카멜브라운</t>
   </si>
   <si>
-    <t>wtagtt9isjd</t>
+    <t>uc845i508mb</t>
   </si>
   <si>
     <t>피그립t</t>
@@ -6481,7 +6481,7 @@
     <t>피그립티셔츠</t>
   </si>
   <si>
-    <t>98w0yo1soog</t>
+    <t>01lmhyzuz8zd</t>
   </si>
   <si>
     <t>소이빈</t>
@@ -6496,7 +6496,7 @@
     <t>기획데일리통슬리브</t>
   </si>
   <si>
-    <t>vjkprcnnd6</t>
+    <t>xhihs1bj70k</t>
   </si>
   <si>
     <t>기획)데일리롱슬리브</t>
@@ -6505,13 +6505,13 @@
     <t>기획데일리롱슬리브</t>
   </si>
   <si>
-    <t>ambsubkr23d</t>
+    <t>m6pw01345n</t>
   </si>
   <si>
     <t>차클</t>
   </si>
   <si>
-    <t>q8buyssacl</t>
+    <t>6qraint9m6f</t>
   </si>
   <si>
     <t>기획)데일리와를상하복</t>
@@ -6523,7 +6523,7 @@
     <t>기획데일리와를상하복</t>
   </si>
   <si>
-    <t>w6awxweibs</t>
+    <t>boczfg45goe</t>
   </si>
   <si>
     <t>기획)스트라이프조거팬츠</t>
@@ -6532,10 +6532,10 @@
     <t>기획스트라이프조거팬츠</t>
   </si>
   <si>
-    <t>0023cwt4y4uxu</t>
-  </si>
-  <si>
-    <t>zh0vojz04g</t>
+    <t>75g9dvl0n5</t>
+  </si>
+  <si>
+    <t>wdho4xvgz0a</t>
   </si>
   <si>
     <t>기획)핀떡나팔팬츠</t>
@@ -6544,7 +6544,7 @@
     <t>기획핀떡나팔팬츠</t>
   </si>
   <si>
-    <t>daso741mler</t>
+    <t>3wtrm1sq9dm</t>
   </si>
   <si>
     <t>슈퍼맨레이어드티</t>
@@ -6559,7 +6559,7 @@
     <t>옐로우브라운</t>
   </si>
   <si>
-    <t>rd2vlei9z8h</t>
+    <t>tgw1d8gxpq</t>
   </si>
   <si>
     <t>슈슈샤샤</t>
@@ -6574,13 +6574,13 @@
     <t>롤리맨투맨티셔츠</t>
   </si>
   <si>
-    <t>v6cg0klp6j</t>
+    <t>lwry1gcdstp</t>
   </si>
   <si>
     <t>모모팬츠</t>
   </si>
   <si>
-    <t>c7ykykv79yp</t>
+    <t>4a1bfbconls</t>
   </si>
   <si>
     <t>슈크림</t>
@@ -6592,19 +6592,19 @@
     <t>망사레이스</t>
   </si>
   <si>
-    <t>opttps3w1j</t>
+    <t>7e80a77s17w</t>
   </si>
   <si>
     <t>미니베어모자</t>
   </si>
   <si>
-    <t>qchc2oc17t</t>
+    <t>niyu5b3usl</t>
   </si>
   <si>
     <t>베베골지가디건</t>
   </si>
   <si>
-    <t>sqrq4enz9io</t>
+    <t>zxeypgnfvtb</t>
   </si>
   <si>
     <t>스몰라벨</t>
@@ -6613,7 +6613,7 @@
     <t>골지나팔</t>
   </si>
   <si>
-    <t>pl4e6kgrl9g</t>
+    <t>hdmoj1msfnb</t>
   </si>
   <si>
     <t>신세계키즈</t>
@@ -6625,7 +6625,7 @@
     <t>S곰돌이방한모</t>
   </si>
   <si>
-    <t>7y69rcolt6j</t>
+    <t>ue7j3xfq71o</t>
   </si>
   <si>
     <t>s-공룡넥키</t>
@@ -6634,10 +6634,10 @@
     <t>S공룡넥키</t>
   </si>
   <si>
-    <t>6e1w76ibsqc</t>
-  </si>
-  <si>
-    <t>vmku31cpvw</t>
+    <t>gz9kh4i4sbb</t>
+  </si>
+  <si>
+    <t>ajr4happxe</t>
   </si>
   <si>
     <t>s-리본토끼 넥키</t>
@@ -6646,7 +6646,7 @@
     <t>S리본토끼넥키</t>
   </si>
   <si>
-    <t>9f497l5uqd</t>
+    <t>05ilpbtuwz8j</t>
   </si>
   <si>
     <t>s-양털 고리워머</t>
@@ -6655,7 +6655,7 @@
     <t>S양털고리워머</t>
   </si>
   <si>
-    <t>cvkblm29a4b</t>
+    <t>6e3w1ayv6s</t>
   </si>
   <si>
     <t>s-자석 무지털워머</t>
@@ -6664,7 +6664,7 @@
     <t>S자석무지털워머</t>
   </si>
   <si>
-    <t>lnx6c3mlru</t>
+    <t>r93jvvl63k</t>
   </si>
   <si>
     <t>s-패딩누빔자수귀다리</t>
@@ -6676,7 +6676,7 @@
     <t>S패딩누빔자수귀다리</t>
   </si>
   <si>
-    <t>0g18znpeff4m</t>
+    <t>eud1zwa7rnj</t>
   </si>
   <si>
     <t>s-팬더 방한모</t>
@@ -6688,13 +6688,13 @@
     <t>S팬더방한모</t>
   </si>
   <si>
-    <t>nxge94vr2aj</t>
+    <t>nensyb086yo</t>
   </si>
   <si>
     <t>팬더아이</t>
   </si>
   <si>
-    <t>2wsex6hxqpp</t>
+    <t>7vk62y0vb1g</t>
   </si>
   <si>
     <t>아미고</t>
@@ -6703,28 +6703,28 @@
     <t>골지데님자켓</t>
   </si>
   <si>
-    <t>mcmkkkkyl9</t>
+    <t>2b4n8149ad6</t>
   </si>
   <si>
     <t>멜번실내복</t>
   </si>
   <si>
-    <t>xg22aa9ckq</t>
-  </si>
-  <si>
-    <t>0j623ureahh</t>
+    <t>tm25vwrux5s</t>
+  </si>
+  <si>
+    <t>jqhesn1lmf9</t>
   </si>
   <si>
     <t>스티브맨투맨</t>
   </si>
   <si>
-    <t>mmjpshk83pl</t>
+    <t>qr1qrg358a</t>
   </si>
   <si>
     <t>피그팬츠</t>
   </si>
   <si>
-    <t>3m8fyx0oz72</t>
+    <t>60veq8colyw</t>
   </si>
   <si>
     <t>아오스타</t>
@@ -6733,7 +6733,7 @@
     <t>니트베스트</t>
   </si>
   <si>
-    <t>0d3m3gawpy1</t>
+    <t>vt5bsdhw44</t>
   </si>
   <si>
     <t>치노바지</t>
@@ -6748,7 +6748,7 @@
     <t>B꽃</t>
   </si>
   <si>
-    <t>1cimqfe70ic</t>
+    <t>6zksqe3bu2a</t>
   </si>
   <si>
     <t>클래식팬츠</t>
@@ -6760,7 +6760,7 @@
     <t>A핑크</t>
   </si>
   <si>
-    <t>l1qgbr3tidr</t>
+    <t>7iv742knw3r</t>
   </si>
   <si>
     <t>아오유스튜디오</t>
@@ -6772,7 +6772,7 @@
     <t>버터</t>
   </si>
   <si>
-    <t>9a7nwh3vk4a</t>
+    <t>nfwc2rpft3j</t>
   </si>
   <si>
     <t>크림골덴PT</t>
@@ -6784,7 +6784,7 @@
     <t>크림골덴팬츠</t>
   </si>
   <si>
-    <t>g9cuk70wuj</t>
+    <t>iaqcwfmo329</t>
   </si>
   <si>
     <t>아젤리아</t>
@@ -6793,28 +6793,28 @@
     <t>몽블랑원피스</t>
   </si>
   <si>
-    <t>dwnt3gc4z5m</t>
+    <t>wjv23j1g3vf</t>
   </si>
   <si>
     <t>블루밍팬츠</t>
   </si>
   <si>
-    <t>6iqfytt96yt</t>
-  </si>
-  <si>
-    <t>j2ffj45an2e</t>
-  </si>
-  <si>
-    <t>mg8c9a0eqs</t>
+    <t>snilxmhoj9c</t>
+  </si>
+  <si>
+    <t>vwsm6qrv2rl</t>
+  </si>
+  <si>
+    <t>3g6a5c1yx36</t>
   </si>
   <si>
     <t>블리앙고라니트</t>
   </si>
   <si>
-    <t>4mw6ebjqxmj</t>
-  </si>
-  <si>
-    <t>605tvxrcvs</t>
+    <t>eaha5kt9sdm</t>
+  </si>
+  <si>
+    <t>hpsgodveloj</t>
   </si>
   <si>
     <t>소프트단가라티</t>
@@ -6823,40 +6823,40 @@
     <t>소프트단가라티셔츠</t>
   </si>
   <si>
-    <t>c59lmxoi34s</t>
+    <t>vgxiskgyisg</t>
   </si>
   <si>
     <t>써니벨벳부츠컷</t>
   </si>
   <si>
-    <t>822mnugy1vt</t>
+    <t>fbm3vdihqq6</t>
   </si>
   <si>
     <t>엠버프릴니트</t>
   </si>
   <si>
-    <t>vab23dj6gyi</t>
-  </si>
-  <si>
-    <t>ez2mw063pmg</t>
-  </si>
-  <si>
-    <t>uybepk5wqi</t>
+    <t>5rochixsd6t</t>
+  </si>
+  <si>
+    <t>rctjg216g5o</t>
+  </si>
+  <si>
+    <t>m6q1t4zeeq</t>
   </si>
   <si>
     <t>오브제카라패팅</t>
   </si>
   <si>
-    <t>axdqm3kb9j4</t>
+    <t>9dn4rjmx7iu</t>
   </si>
   <si>
     <t>텐셀와이드팬츠</t>
   </si>
   <si>
-    <t>1tkgrl2pmp4</t>
-  </si>
-  <si>
-    <t>oo1c1zee6p8</t>
+    <t>ds9cqtn8ozj</t>
+  </si>
+  <si>
+    <t>udukayi677r</t>
   </si>
   <si>
     <t>텐셀티</t>
@@ -6865,7 +6865,7 @@
     <t>텐셀티셔츠</t>
   </si>
   <si>
-    <t>2cd79ejn7jk</t>
+    <t>ig2jxp4syy</t>
   </si>
   <si>
     <t>애플민트</t>
@@ -6883,7 +6883,7 @@
     <t>UCLA맨투맨</t>
   </si>
   <si>
-    <t>snqtmds2i3</t>
+    <t>phs3xkm7718</t>
   </si>
   <si>
     <t>앤드버터</t>
@@ -6895,19 +6895,19 @@
     <t>네이비ST</t>
   </si>
   <si>
-    <t>8jhs950zxbj</t>
+    <t>kdtirxcrkse</t>
   </si>
   <si>
     <t>아트루즈폴라</t>
   </si>
   <si>
-    <t>nqkhf7ndtca</t>
-  </si>
-  <si>
-    <t>o3c8nxnqm9</t>
-  </si>
-  <si>
-    <t>laz5ts9jrxd</t>
+    <t>xgpoiq7ga2</t>
+  </si>
+  <si>
+    <t>wn30kigpnd</t>
+  </si>
+  <si>
+    <t>iwrlechvp0s</t>
   </si>
   <si>
     <t>피치ST폴라티</t>
@@ -6916,7 +6916,7 @@
     <t>피치ST폴라티셔츠</t>
   </si>
   <si>
-    <t>0y5ws8l4pj3h</t>
+    <t>uxg8i68pmw</t>
   </si>
   <si>
     <t>앤셜리</t>
@@ -6925,7 +6925,7 @@
     <t>리나카라슈트24</t>
   </si>
   <si>
-    <t>but0tud5w1</t>
+    <t>antz2r5a3j</t>
   </si>
   <si>
     <t>에이마켓</t>
@@ -6937,16 +6937,16 @@
     <t>볼륨진주지비츠</t>
   </si>
   <si>
-    <t>wa0lw9rxdtr</t>
+    <t>8mv6c4sm094</t>
   </si>
   <si>
     <t>클래식패딩베스트</t>
   </si>
   <si>
-    <t>ojb1kuvy06e</t>
-  </si>
-  <si>
-    <t>2y0q1oo8pl2</t>
+    <t>25i2kyh1j7c</t>
+  </si>
+  <si>
+    <t>469paga9jeg</t>
   </si>
   <si>
     <t>에이모어</t>
@@ -6955,7 +6955,7 @@
     <t>드리머후드</t>
   </si>
   <si>
-    <t>4cecjgqcj6u</t>
+    <t>jqt8jdfz4j</t>
   </si>
   <si>
     <t>디저트가디건</t>
@@ -6964,7 +6964,7 @@
     <t>1(12M)</t>
   </si>
   <si>
-    <t>oefhyh8wlr</t>
+    <t>ho7vkanz29</t>
   </si>
   <si>
     <t>모빌조끼</t>
@@ -6973,13 +6973,13 @@
     <t>2(18M)</t>
   </si>
   <si>
-    <t>at6f2mb5yx</t>
+    <t>cwp0e1wq4qu</t>
   </si>
   <si>
     <t>보드팬츠</t>
   </si>
   <si>
-    <t>0406mpa2x1u1</t>
+    <t>g6udtqtmrmf</t>
   </si>
   <si>
     <t>체리티</t>
@@ -6988,22 +6988,22 @@
     <t>체리티셔츠</t>
   </si>
   <si>
-    <t>594kj8q7etl</t>
-  </si>
-  <si>
-    <t>cy6yqr5yt7</t>
+    <t>43y2p6sqjue</t>
+  </si>
+  <si>
+    <t>8blyexngopa</t>
   </si>
   <si>
     <t>페페로니팬츠</t>
   </si>
   <si>
-    <t>33jxy5aysi4</t>
+    <t>d99gq0o10cp</t>
   </si>
   <si>
     <t>호두조끼</t>
   </si>
   <si>
-    <t>c3w7kxrhadt</t>
+    <t>zj59a8d695</t>
   </si>
   <si>
     <t>열두달</t>
@@ -7012,7 +7012,7 @@
     <t>지구맨투맨</t>
   </si>
   <si>
-    <t>92s128enk2</t>
+    <t>gnl3zy2qeh5</t>
   </si>
   <si>
     <t>오뜨베베</t>
@@ -7024,13 +7024,13 @@
     <t>기획구름아노락상하세트</t>
   </si>
   <si>
-    <t>8co1bw78pad</t>
-  </si>
-  <si>
-    <t>egbo71czhm</t>
-  </si>
-  <si>
-    <t>4ro2tw49jyy</t>
+    <t>laz7qipwgam</t>
+  </si>
+  <si>
+    <t>oadtz0m0z88</t>
+  </si>
+  <si>
+    <t>r0hi3ukhx6</t>
   </si>
   <si>
     <t>기획)퐁당퐁당상하복</t>
@@ -7039,19 +7039,19 @@
     <t>기획퐁당퐁당상하복</t>
   </si>
   <si>
-    <t>9bi6tl20san</t>
-  </si>
-  <si>
-    <t>6w6ctxdr353</t>
-  </si>
-  <si>
-    <t>mj2dx9au0tc</t>
-  </si>
-  <si>
-    <t>3dxgxo5ewm8</t>
-  </si>
-  <si>
-    <t>20g5n5bjbue</t>
+    <t>9jvdomcgz4c</t>
+  </si>
+  <si>
+    <t>up5w4aia9f</t>
+  </si>
+  <si>
+    <t>uxw1uxy6cc</t>
+  </si>
+  <si>
+    <t>ev6cdb77ofq</t>
+  </si>
+  <si>
+    <t>auep9ju5oje</t>
   </si>
   <si>
     <t>단추골덴캡</t>
@@ -7060,13 +7060,13 @@
     <t>48-50</t>
   </si>
   <si>
-    <t>d7sujuobqlf</t>
+    <t>y5u1ngfo49m</t>
   </si>
   <si>
     <t>메리멜빵</t>
   </si>
   <si>
-    <t>iyuriivbxcl</t>
+    <t>xr4nunx118q</t>
   </si>
   <si>
     <t>네이비+레드st</t>
@@ -7075,25 +7075,25 @@
     <t>네이비레드ST</t>
   </si>
   <si>
-    <t>imorfrmph2l</t>
+    <t>fzw93d05xdw</t>
   </si>
   <si>
     <t>뽀뽀곰모자</t>
   </si>
   <si>
-    <t>qro7dhmuurd</t>
-  </si>
-  <si>
-    <t>wl6w266en7</t>
-  </si>
-  <si>
-    <t>czc9buw3p7m</t>
-  </si>
-  <si>
-    <t>w9y7bunnpwe</t>
-  </si>
-  <si>
-    <t>h49m5yfnu8</t>
+    <t>adj3r8obr5</t>
+  </si>
+  <si>
+    <t>ru477y78j8a</t>
+  </si>
+  <si>
+    <t>e3jyadbynp4</t>
+  </si>
+  <si>
+    <t>3m4wrn48znb</t>
+  </si>
+  <si>
+    <t>a1mk1n4q3ib</t>
   </si>
   <si>
     <t>전신슈트러브즈와플</t>
@@ -7102,7 +7102,7 @@
     <t>BS</t>
   </si>
   <si>
-    <t>gjssohf3k</t>
+    <t>msr0if2vkqd</t>
   </si>
   <si>
     <t>전신슈트러브즈와클</t>
@@ -7111,16 +7111,16 @@
     <t>BM</t>
   </si>
   <si>
-    <t>by3xdecsek9</t>
+    <t>tlo7yuf8ah9</t>
   </si>
   <si>
     <t>슈트메로나</t>
   </si>
   <si>
-    <t>23rslfowgra</t>
-  </si>
-  <si>
-    <t>pp1zd3zrlf</t>
+    <t>7rxf19mxk9</t>
+  </si>
+  <si>
+    <t>t1je4l46yxd</t>
   </si>
   <si>
     <t>bebeming크멜뱅레깅스</t>
@@ -7129,7 +7129,7 @@
     <t>BEBEMING크멜뱅레깅스</t>
   </si>
   <si>
-    <t>gh8p49nclu</t>
+    <t>sptpew91vm</t>
   </si>
   <si>
     <t>cebe베이글1+1티셔츠</t>
@@ -7144,7 +7144,7 @@
     <t>3브라운SET</t>
   </si>
   <si>
-    <t>7nd9b0ayacr</t>
+    <t>kg73u3o0gn9</t>
   </si>
   <si>
     <t>bebechon캉스우주복</t>
@@ -7156,19 +7156,19 @@
     <t>BEBECHON캉스우주복</t>
   </si>
   <si>
-    <t>2rj0594sq15</t>
+    <t>8i5y07zkooq</t>
   </si>
   <si>
     <t>엘로우클라워</t>
   </si>
   <si>
-    <t>2wb254u1ua</t>
+    <t>rudkhlo58ri</t>
   </si>
   <si>
     <t>핑크플라워</t>
   </si>
   <si>
-    <t>alh03pjiup</t>
+    <t>xiu64yphi6</t>
   </si>
   <si>
     <t>츄잉오띠1+1 T</t>
@@ -7183,16 +7183,16 @@
     <t>2블랙SET</t>
   </si>
   <si>
-    <t>ykysjad4lpm</t>
+    <t>xvueumvhqi</t>
   </si>
   <si>
     <t>슈트피치러브3종</t>
   </si>
   <si>
-    <t>pc0y55fciyb</t>
-  </si>
-  <si>
-    <t>yvbnhg2xkb</t>
+    <t>wf2r54xy5ca</t>
+  </si>
+  <si>
+    <t>y28vm8psyj</t>
   </si>
   <si>
     <t>베이글1+1티셔츠</t>
@@ -7207,10 +7207,10 @@
     <t>1아이SET</t>
   </si>
   <si>
-    <t>sa5b5vyv6o</t>
-  </si>
-  <si>
-    <t>ijo3ar5erej</t>
+    <t>a7n29gjyiz</t>
+  </si>
+  <si>
+    <t>mo5rfbwwpli</t>
   </si>
   <si>
     <t>2.핑크set</t>
@@ -7219,7 +7219,7 @@
     <t>2핑크SET</t>
   </si>
   <si>
-    <t>55n5g1zbaq4</t>
+    <t>u5vqwwvdhln</t>
   </si>
   <si>
     <t>4.베이지set</t>
@@ -7228,28 +7228,28 @@
     <t>4베이지SET</t>
   </si>
   <si>
-    <t>deklzezld8</t>
-  </si>
-  <si>
-    <t>7jwy4l313c9</t>
+    <t>x9s4r3qavi8</t>
+  </si>
+  <si>
+    <t>w72hf15qdnk</t>
   </si>
   <si>
     <t>CUP맨투맨</t>
   </si>
   <si>
-    <t>5see2rjk41u</t>
+    <t>vqukpuiahok</t>
   </si>
   <si>
     <t>다람쥐골지실내복</t>
   </si>
   <si>
-    <t>tmo0xt2ghpl</t>
+    <t>w4oucc4a35</t>
   </si>
   <si>
     <t>닥터베어맨투맨</t>
   </si>
   <si>
-    <t>9rapnfhsc3u</t>
+    <t>7kk2uch2auo</t>
   </si>
   <si>
     <t>데이지꽃곰상하</t>
@@ -7258,13 +7258,13 @@
     <t>라이트엘로우</t>
   </si>
   <si>
-    <t>apubro3d357</t>
+    <t>cpce0sw7nnn</t>
   </si>
   <si>
     <t>러브미모어맨투맨</t>
   </si>
   <si>
-    <t>djvt19owybw</t>
+    <t>iitq3oyvwy</t>
   </si>
   <si>
     <t>모카봉봉목폴라티</t>
@@ -7273,43 +7273,43 @@
     <t>모카봉봉목폴라티셔츠</t>
   </si>
   <si>
-    <t>cnxo59b9zv7</t>
-  </si>
-  <si>
-    <t>7fwl0kqyyht</t>
-  </si>
-  <si>
-    <t>afivxz526h7</t>
-  </si>
-  <si>
-    <t>sgohcf6de4e</t>
+    <t>81d3qwd592</t>
+  </si>
+  <si>
+    <t>8p6got31ltp</t>
+  </si>
+  <si>
+    <t>il3x5mexsu</t>
+  </si>
+  <si>
+    <t>ff139p6sji</t>
   </si>
   <si>
     <t>미드나잇맨투맨</t>
   </si>
   <si>
-    <t>jrrw8c3ez3s</t>
+    <t>49gu4dqc7ho</t>
   </si>
   <si>
     <t>밍크조거팬츠</t>
   </si>
   <si>
-    <t>1nni21aczdp</t>
-  </si>
-  <si>
-    <t>p1efg0iqq2</t>
-  </si>
-  <si>
-    <t>muteyfjrbv9</t>
-  </si>
-  <si>
-    <t>94024179e9o</t>
-  </si>
-  <si>
-    <t>75ss71xd51u</t>
-  </si>
-  <si>
-    <t>vke27ijfsef</t>
+    <t>g1jher73ctc</t>
+  </si>
+  <si>
+    <t>2dc41aqtmpl</t>
+  </si>
+  <si>
+    <t>c86voi4xn4</t>
+  </si>
+  <si>
+    <t>bxqdrmiz66v</t>
+  </si>
+  <si>
+    <t>ihazlhcmglj</t>
+  </si>
+  <si>
+    <t>d9ioplarie4</t>
   </si>
   <si>
     <t>배색레깅스</t>
@@ -7321,7 +7321,7 @@
     <t>4브라운</t>
   </si>
   <si>
-    <t>gbobco438iw</t>
+    <t>8wlzf7p78sq</t>
   </si>
   <si>
     <t>1.베이지</t>
@@ -7330,10 +7330,10 @@
     <t>1베이지</t>
   </si>
   <si>
-    <t>0ma5ol6cjkq</t>
-  </si>
-  <si>
-    <t>75ktrfcnxx4</t>
+    <t>uenkfkj9qc</t>
+  </si>
+  <si>
+    <t>jtwq0vap8o</t>
   </si>
   <si>
     <t>2.크림(블랙)</t>
@@ -7342,7 +7342,7 @@
     <t>2크림블랙</t>
   </si>
   <si>
-    <t>m36u331c4e</t>
+    <t>wjg5h8y71b</t>
   </si>
   <si>
     <t>빅단가라맨투맨</t>
@@ -7351,22 +7351,22 @@
     <t>블루레드</t>
   </si>
   <si>
-    <t>rki698w1q2</t>
-  </si>
-  <si>
-    <t>methi6rimy</t>
+    <t>xmtgzpupj5r</t>
+  </si>
+  <si>
+    <t>1dmkcbczw0w</t>
   </si>
   <si>
     <t>핑크그린</t>
   </si>
   <si>
-    <t>yn9w41i9qrn</t>
+    <t>6rcgvgykgwj</t>
   </si>
   <si>
     <t>베어원피스</t>
   </si>
   <si>
-    <t>a3wjd59vaff</t>
+    <t>x2916rx7x3m</t>
   </si>
   <si>
     <t>빅단가라OPS</t>
@@ -7375,7 +7375,7 @@
     <t>빅단가라원피스</t>
   </si>
   <si>
-    <t>xy5chzwjfk8</t>
+    <t>sbuf5fjge4g</t>
   </si>
   <si>
     <t>슈트삐삐3종set</t>
@@ -7384,22 +7384,22 @@
     <t>슈트삐삐3종세트</t>
   </si>
   <si>
-    <t>lqi4fwqrnu</t>
+    <t>jicrdstwesb</t>
   </si>
   <si>
     <t>알록달록실내복</t>
   </si>
   <si>
-    <t>8u1nka3esp3</t>
+    <t>b421zgakz3o</t>
   </si>
   <si>
     <t>어텀모달실내복</t>
   </si>
   <si>
-    <t>rhakrc7w81o</t>
-  </si>
-  <si>
-    <t>bkwkc6x6lud</t>
+    <t>nn080x51ajq</t>
+  </si>
+  <si>
+    <t>rzq8g87656</t>
   </si>
   <si>
     <t>요가레깅스(히트텍)</t>
@@ -7408,10 +7408,10 @@
     <t>요가레깅스히트텍</t>
   </si>
   <si>
-    <t>qe5wwydblq</t>
-  </si>
-  <si>
-    <t>o5k6b9ibeee</t>
+    <t>9gq936ddusm</t>
+  </si>
+  <si>
+    <t>vs8s950wubo</t>
   </si>
   <si>
     <t>요플레목폴라티</t>
@@ -7420,52 +7420,52 @@
     <t>요플레목폴라티셔츠</t>
   </si>
   <si>
-    <t>9j65hkg3fhp</t>
-  </si>
-  <si>
-    <t>cbtvpif3in</t>
-  </si>
-  <si>
-    <t>8sxbw5fcjxn</t>
-  </si>
-  <si>
-    <t>4fia1sglpig</t>
-  </si>
-  <si>
-    <t>mbbvllje9h</t>
+    <t>1i8g7l7n93n</t>
+  </si>
+  <si>
+    <t>gfehe3o03a4</t>
+  </si>
+  <si>
+    <t>o59a6ozlxy</t>
+  </si>
+  <si>
+    <t>jah0zxt4i58</t>
+  </si>
+  <si>
+    <t>41ok72smnmh</t>
   </si>
   <si>
     <t>찰랑골지레깅스</t>
   </si>
   <si>
-    <t>1wjcw5vmh02</t>
+    <t>oszs56j801h</t>
   </si>
   <si>
     <t>채소상하복</t>
   </si>
   <si>
-    <t>z0rbkitm66</t>
-  </si>
-  <si>
-    <t>4zn9k9dgbpn</t>
+    <t>mqqwlh2z3o</t>
+  </si>
+  <si>
+    <t>wjc766z9ci</t>
   </si>
   <si>
     <t>촌캉스세트</t>
   </si>
   <si>
-    <t>1budp6r6sagj</t>
-  </si>
-  <si>
-    <t>1k7qzwilf33</t>
-  </si>
-  <si>
-    <t>hmkwhf3txy</t>
+    <t>o4t55d0l52</t>
+  </si>
+  <si>
+    <t>zul789jbbw</t>
+  </si>
+  <si>
+    <t>lieh4jfhyv</t>
   </si>
   <si>
     <t>블루플라워</t>
   </si>
   <si>
-    <t>tuzhnwi32ll</t>
+    <t>d7r9h3abrq</t>
   </si>
   <si>
     <t>코듀로이버뮤다PT</t>
@@ -7474,19 +7474,19 @@
     <t>코듀로이버뮤다팬츠</t>
   </si>
   <si>
-    <t>5n76q1rybh5</t>
+    <t>2n9jf4jq43v</t>
   </si>
   <si>
     <t>테디카라상하</t>
   </si>
   <si>
-    <t>gb2au8sj9dn</t>
-  </si>
-  <si>
-    <t>13fb3mtm237e</t>
-  </si>
-  <si>
-    <t>ys1ousfer4j</t>
+    <t>ejwn1gu529</t>
+  </si>
+  <si>
+    <t>b8nexn4uxet</t>
+  </si>
+  <si>
+    <t>ayoy7oeijg5</t>
   </si>
   <si>
     <t>프렌즈단가라랍빠티</t>
@@ -7495,7 +7495,7 @@
     <t>프렌즈단가라랍빠티셔츠</t>
   </si>
   <si>
-    <t>8k6z973b9lu</t>
+    <t>sdl6n6r0x8</t>
   </si>
   <si>
     <t>프링목폴라티</t>
@@ -7504,19 +7504,19 @@
     <t>프링목폴라티셔츠</t>
   </si>
   <si>
-    <t>cuduzswbjp</t>
-  </si>
-  <si>
-    <t>3euh9nulvz2</t>
+    <t>388kf890ln8</t>
+  </si>
+  <si>
+    <t>ywb37mbehv</t>
   </si>
   <si>
     <t>로즈</t>
   </si>
   <si>
-    <t>1qggk2fg9k8</t>
-  </si>
-  <si>
-    <t>molj6pjxjg</t>
+    <t>soxparz7sm</t>
+  </si>
+  <si>
+    <t>0c8sqnk3aekk</t>
   </si>
   <si>
     <t>피그먼트컬러PT</t>
@@ -7525,22 +7525,22 @@
     <t>피그먼트컬러팬츠</t>
   </si>
   <si>
-    <t>mv36xzrnqv</t>
+    <t>k4vv1arwxnb</t>
   </si>
   <si>
     <t>피치러브실내복</t>
   </si>
   <si>
-    <t>q79wygu54jb</t>
+    <t>1w1n5x387kq</t>
   </si>
   <si>
     <t>피치배색스티치팬츠</t>
   </si>
   <si>
-    <t>kmd0uke6w49</t>
-  </si>
-  <si>
-    <t>z3ypv76a4fk</t>
+    <t>owkkwy5m5gr</t>
+  </si>
+  <si>
+    <t>25yzwytlvay</t>
   </si>
   <si>
     <t>피크닉캣츠티</t>
@@ -7549,22 +7549,22 @@
     <t>피크닉캣츠티셔츠</t>
   </si>
   <si>
-    <t>ap7m3s93l9s</t>
-  </si>
-  <si>
-    <t>lzfaa3mcv2m</t>
+    <t>93jnkyocbbr</t>
+  </si>
+  <si>
+    <t>zjwvfb40qj</t>
   </si>
   <si>
     <t>하트곰실내복</t>
   </si>
   <si>
-    <t>coau3gq5cau</t>
-  </si>
-  <si>
-    <t>s9eu6wdqs29</t>
-  </si>
-  <si>
-    <t>pxuzomu68ll</t>
+    <t>5ktent7u5c5</t>
+  </si>
+  <si>
+    <t>93sr2o9h14g</t>
+  </si>
+  <si>
+    <t>s51rxuapgao</t>
   </si>
   <si>
     <t>히트텍시보리티</t>
@@ -7573,7 +7573,7 @@
     <t>히트텍시보리티셔츠</t>
   </si>
   <si>
-    <t>a2guh0o869v</t>
+    <t>85649u71glq</t>
   </si>
   <si>
     <t>오웬</t>
@@ -7582,19 +7582,19 @@
     <t>건빵기모데님팬츠</t>
   </si>
   <si>
-    <t>dr1ec3b2dva</t>
+    <t>zr2er60nbv</t>
   </si>
   <si>
     <t>샌디에고기모후드집업</t>
   </si>
   <si>
-    <t>732y9y74or</t>
+    <t>6x0b6c05cu3</t>
   </si>
   <si>
     <t>스탠다드카라기모맨투맨</t>
   </si>
   <si>
-    <t>nr9acn89dh</t>
+    <t>q400puvkoid</t>
   </si>
   <si>
     <t>리즈퀼팅점퍼</t>
@@ -7603,31 +7603,31 @@
     <t>ADULT</t>
   </si>
   <si>
-    <t>cxyhgiyd7hv</t>
+    <t>ixlkiuz1ry</t>
   </si>
   <si>
     <t>벨로아골지카라티셔츠</t>
   </si>
   <si>
-    <t>yui1qqlt9t8</t>
+    <t>8xvvpjutv89</t>
   </si>
   <si>
     <t>캘리포니아기모후드</t>
   </si>
   <si>
-    <t>p3d33bfxp0b</t>
+    <t>lkzvzeu2bpr</t>
   </si>
   <si>
     <t>투웨이레그워머</t>
   </si>
   <si>
-    <t>s1a574ql80l</t>
+    <t>dc4d78b5q8o</t>
   </si>
   <si>
     <t>플란넬스기모맨투맨</t>
   </si>
   <si>
-    <t>gd4rjw8dh5a</t>
+    <t>9hbm0vvelr</t>
   </si>
   <si>
     <t>우디베베</t>
@@ -7639,13 +7639,13 @@
     <t>단무지목폴라세트</t>
   </si>
   <si>
-    <t>p40mffyvhct</t>
+    <t>afwv5g4qisn</t>
   </si>
   <si>
     <t>러브하트상하</t>
   </si>
   <si>
-    <t>qdns8s4b03f</t>
+    <t>bm7bdd0lgb</t>
   </si>
   <si>
     <t>머플티</t>
@@ -7654,13 +7654,13 @@
     <t>머플티셔츠</t>
   </si>
   <si>
-    <t>l94rc7dq8bl</t>
-  </si>
-  <si>
-    <t>qxcu1unfh4</t>
-  </si>
-  <si>
-    <t>z7d9ig821bp</t>
+    <t>1mcgp931xr2</t>
+  </si>
+  <si>
+    <t>58c8ecob4eo</t>
+  </si>
+  <si>
+    <t>8aiuryaqznj</t>
   </si>
   <si>
     <t>페리고수면조끼</t>
@@ -7669,34 +7669,34 @@
     <t>스카이블루</t>
   </si>
   <si>
-    <t>v2r7u5nia8</t>
+    <t>65awxc95qg2</t>
   </si>
   <si>
     <t>메리고수면조끼</t>
   </si>
   <si>
-    <t>m0mqcv5dr48</t>
+    <t>8nggatiefj</t>
   </si>
   <si>
     <t>메리고실내복</t>
   </si>
   <si>
-    <t>5canypopfhs</t>
+    <t>5390i1rk4xi</t>
   </si>
   <si>
     <t>무스탕조끼</t>
   </si>
   <si>
-    <t>dkik1oafg78</t>
+    <t>2mgk3069vsf</t>
   </si>
   <si>
     <t>보글보글조끼상하</t>
   </si>
   <si>
-    <t>o3qqzopmr3k</t>
-  </si>
-  <si>
-    <t>h2jug2n5b5u</t>
+    <t>a0kcjc87ygg</t>
+  </si>
+  <si>
+    <t>76e8zg4rh0a</t>
   </si>
   <si>
     <t>뽀송이바지</t>
@@ -7705,82 +7705,82 @@
     <t>뽀송이팬츠</t>
   </si>
   <si>
-    <t>mwbc7nq09i8</t>
+    <t>2vxu09jdluh</t>
   </si>
   <si>
     <t>뽀송이자켓</t>
   </si>
   <si>
-    <t>ubi0hin5kzm</t>
+    <t>j379tsym7xg</t>
   </si>
   <si>
     <t>스벅슈트</t>
   </si>
   <si>
-    <t>w2xbi1dpf8</t>
+    <t>4bxwnlmhyig</t>
   </si>
   <si>
     <t>업타운상하</t>
   </si>
   <si>
-    <t>mr91fqcki9j</t>
+    <t>y502r1vw9gn</t>
   </si>
   <si>
     <t>코듀로이버뮤다바지</t>
   </si>
   <si>
-    <t>c693f67wee</t>
-  </si>
-  <si>
-    <t>qszl0ba5tp</t>
+    <t>wzdr8gw381l</t>
+  </si>
+  <si>
+    <t>oya56ccngqr</t>
   </si>
   <si>
     <t>퍼니먼투맨</t>
   </si>
   <si>
-    <t>c8afqek6cl</t>
+    <t>f9aa5e176zj</t>
   </si>
   <si>
     <t>누빔방울비니</t>
   </si>
   <si>
-    <t>d1y19urq22</t>
+    <t>znygtlsaiwp</t>
   </si>
   <si>
     <t>누빔방한모</t>
   </si>
   <si>
-    <t>x51mhffemx</t>
+    <t>8dbi6i5l76h</t>
   </si>
   <si>
     <t>누빔베어귀달이</t>
   </si>
   <si>
-    <t>ap8ubju1k15</t>
+    <t>pd1u4dxory</t>
   </si>
   <si>
     <t>누빔베어캡</t>
   </si>
   <si>
-    <t>fxdnaiyuwws</t>
+    <t>gc810or2sn</t>
   </si>
   <si>
     <t>누빔베이캡</t>
   </si>
   <si>
-    <t>dljhulsoh8</t>
+    <t>pud1fhqxtti</t>
   </si>
   <si>
     <t>니트바라클라바</t>
   </si>
   <si>
-    <t>cwjkp0eaute</t>
+    <t>8uekthrzyjs</t>
   </si>
   <si>
     <t>퀼팅버킷햇</t>
   </si>
   <si>
-    <t>9gzrj7p22k6</t>
+    <t>adnvy152mo</t>
   </si>
   <si>
     <t>명명이</t>
@@ -7792,43 +7792,43 @@
     <t>5PIC</t>
   </si>
   <si>
-    <t>8cn6hk81puc</t>
+    <t>lt9j10kzspf</t>
   </si>
   <si>
     <t>러빙</t>
   </si>
   <si>
-    <t>zugx7ztln7e</t>
+    <t>hv98eh0epcu</t>
   </si>
   <si>
     <t>로마</t>
   </si>
   <si>
-    <t>7lg2hszd9fu</t>
+    <t>uq2y1ftonys</t>
   </si>
   <si>
     <t>베를린</t>
   </si>
   <si>
-    <t>lyz21zh934</t>
-  </si>
-  <si>
-    <t>cksjg7ehwjc</t>
-  </si>
-  <si>
-    <t>epw4hsyfbwq</t>
+    <t>4egodiucvr4</t>
+  </si>
+  <si>
+    <t>lqs3hjecvyo</t>
+  </si>
+  <si>
+    <t>eud6ol6mnzb</t>
   </si>
   <si>
     <t>수면양말</t>
   </si>
   <si>
-    <t>dn3px80nj</t>
+    <t>lzdv9z90xz</t>
   </si>
   <si>
     <t>커스텀</t>
   </si>
   <si>
-    <t>dpif285bt3</t>
+    <t>p0xqz8zf0j</t>
   </si>
   <si>
     <t>원팩토리</t>
@@ -7840,7 +7840,7 @@
     <t>가을블루블루와이드</t>
   </si>
   <si>
-    <t>peuhsrqpc6</t>
+    <t>kd50ecbj8h</t>
   </si>
   <si>
     <t>월드모자</t>
@@ -7858,7 +7858,7 @@
     <t>GMO~6Y</t>
   </si>
   <si>
-    <t>2a44l0tp8fu</t>
+    <t>kl8vfvocx6</t>
   </si>
   <si>
     <t>작은모자</t>
@@ -7870,7 +7870,7 @@
     <t>곰돌이비니</t>
   </si>
   <si>
-    <t>vhgqbaz06ch</t>
+    <t>igj09e7cc0i</t>
   </si>
   <si>
     <t>곰자수 바라클라바</t>
@@ -7879,7 +7879,7 @@
     <t>곰자수바라클라바</t>
   </si>
   <si>
-    <t>otrz5pwdrgm</t>
+    <t>ycgbc5o5p1</t>
   </si>
   <si>
     <t>누빔 네키 목도리</t>
@@ -7888,7 +7888,7 @@
     <t>누빔네키목도리</t>
   </si>
   <si>
-    <t>b891bwngefj</t>
+    <t>gx2l3xvntc4</t>
   </si>
   <si>
     <t>밍크 곰 방한모</t>
@@ -7897,7 +7897,7 @@
     <t>밍크곰방한모</t>
   </si>
   <si>
-    <t>ceetgojhj1</t>
+    <t>wfib9ibvic</t>
   </si>
   <si>
     <t>베이비 바라클라바</t>
@@ -7906,7 +7906,7 @@
     <t>베이비바라클라바</t>
   </si>
   <si>
-    <t>b15vm4rsako</t>
+    <t>bc6r0qndyq</t>
   </si>
   <si>
     <t>손뜨개 방울 망고</t>
@@ -7915,7 +7915,7 @@
     <t>손뜨개방울망고</t>
   </si>
   <si>
-    <t>12q57yth4i1r</t>
+    <t>obrb546he5o</t>
   </si>
   <si>
     <t>퀼팅 누빔 방한모</t>
@@ -7924,7 +7924,7 @@
     <t>퀼팅누빔방한모</t>
   </si>
   <si>
-    <t>ork1eptcbo</t>
+    <t>zdlqo35o6hl</t>
   </si>
   <si>
     <t>패딩 방울 비니</t>
@@ -7933,7 +7933,7 @@
     <t>패딩방울비니</t>
   </si>
   <si>
-    <t>dw5v2hge16h</t>
+    <t>q90xygs55p</t>
   </si>
   <si>
     <t>재야</t>
@@ -7945,7 +7945,7 @@
     <t>겨울베레모</t>
   </si>
   <si>
-    <t>iedy3cjz6am</t>
+    <t>3bpy2enk6ep</t>
   </si>
   <si>
     <t>24빠삐용실내복</t>
@@ -7954,10 +7954,10 @@
     <t>빠삐용실내복</t>
   </si>
   <si>
-    <t>6nx0nlzgk6d</t>
-  </si>
-  <si>
-    <t>vy9ftyn97ip</t>
+    <t>d7kpy7z9ltm</t>
+  </si>
+  <si>
+    <t>8azwca7u0ch</t>
   </si>
   <si>
     <t>재주소년</t>
@@ -7972,7 +7972,7 @@
     <t>뉴욕컷팅후드티셔츠</t>
   </si>
   <si>
-    <t>ff0e021j4c</t>
+    <t>ubxz9i010w</t>
   </si>
   <si>
     <t>리얼카펜더데님</t>
@@ -7981,7 +7981,7 @@
     <t>인디</t>
   </si>
   <si>
-    <t>5iq5tf1ijry</t>
+    <t>hzoout7pedj</t>
   </si>
   <si>
     <t>타미카라티</t>
@@ -7990,7 +7990,7 @@
     <t>타미카라티셔츠</t>
   </si>
   <si>
-    <t>vrjglzq4cx</t>
+    <t>p95zxftorrc</t>
   </si>
   <si>
     <t>제이룸</t>
@@ -7999,13 +7999,13 @@
     <t>라벨건빵와이드</t>
   </si>
   <si>
-    <t>szhnmcfduj</t>
+    <t>lgxngwki8n</t>
   </si>
   <si>
     <t>리본골지상하복</t>
   </si>
   <si>
-    <t>w21m251vu3i</t>
+    <t>rmhb1ptapen</t>
   </si>
   <si>
     <t>NYC자수후드티</t>
@@ -8014,10 +8014,10 @@
     <t>NYC자수후드티셔츠</t>
   </si>
   <si>
-    <t>f2gtlfazlvh</t>
-  </si>
-  <si>
-    <t>it8zyrlj4q</t>
+    <t>j6le0zc2qp8</t>
+  </si>
+  <si>
+    <t>xqop2hjbq7</t>
   </si>
   <si>
     <t>제제우노시티</t>
@@ -8032,7 +8032,7 @@
     <t>W88패딩오버롤</t>
   </si>
   <si>
-    <t>v12z3zh87v</t>
+    <t>k2ltfoycuam</t>
   </si>
   <si>
     <t>24F-다우니트나시</t>
@@ -8041,7 +8041,7 @@
     <t>F다우니트나시</t>
   </si>
   <si>
-    <t>we00q4ahlgq</t>
+    <t>6sdxw2vsfv</t>
   </si>
   <si>
     <t>24F-마르니트가디건</t>
@@ -8050,7 +8050,7 @@
     <t>F마르니트가디건</t>
   </si>
   <si>
-    <t>ynj3idp51pg</t>
+    <t>sqx72bok0ed</t>
   </si>
   <si>
     <t>24W-베스파일티</t>
@@ -8059,7 +8059,7 @@
     <t>W베스파일티셔츠</t>
   </si>
   <si>
-    <t>442fn7ok8wp</t>
+    <t>pi6wsyuw87g</t>
   </si>
   <si>
     <t>24F-아울씨티</t>
@@ -8068,10 +8068,10 @@
     <t>F아울씨티셔츠</t>
   </si>
   <si>
-    <t>9gn2gei7av7</t>
-  </si>
-  <si>
-    <t>bwnksa2x9mk</t>
+    <t>rwtqj5pc3h</t>
+  </si>
+  <si>
+    <t>2wqa61h83xp</t>
   </si>
   <si>
     <t>24W-파미레깅스</t>
@@ -8083,7 +8083,7 @@
     <t>W파미레깅스</t>
   </si>
   <si>
-    <t>dzq1sq995kh</t>
+    <t>cz1zti5ezzv</t>
   </si>
   <si>
     <t>Charcod</t>
@@ -8092,7 +8092,7 @@
     <t>CHARCOD</t>
   </si>
   <si>
-    <t>1q61ioim77ei</t>
+    <t>h4om9gj5h7q</t>
   </si>
   <si>
     <t>24W-힌트삭스</t>
@@ -8101,7 +8101,7 @@
     <t>W힌트삭스</t>
   </si>
   <si>
-    <t>jfvx82aqwop</t>
+    <t>hmeesg75bp</t>
   </si>
   <si>
     <t>조이엘로</t>
@@ -8110,7 +8110,7 @@
     <t>냥이부츠컷상하</t>
   </si>
   <si>
-    <t>nc02hd97ppc</t>
+    <t>3rcq9uvxcp4</t>
   </si>
   <si>
     <t>지안클로버</t>
@@ -8122,7 +8122,7 @@
     <t>노멀반폴라</t>
   </si>
   <si>
-    <t>mb716wz22lo</t>
+    <t>f1ud8kp3c5n</t>
   </si>
   <si>
     <t>24니트 핸드워머</t>
@@ -8131,7 +8131,7 @@
     <t>니트핸드워머</t>
   </si>
   <si>
-    <t>3st8enu43dm</t>
+    <t>y8tq5oy9ca</t>
   </si>
   <si>
     <t>레오파드 미니백</t>
@@ -8140,7 +8140,7 @@
     <t>레오파드미니백</t>
   </si>
   <si>
-    <t>ubb1ghslwz</t>
+    <t>zie4c94ukp9</t>
   </si>
   <si>
     <t>레이스 믹스 sk</t>
@@ -8149,10 +8149,10 @@
     <t>레이스믹스스커트</t>
   </si>
   <si>
-    <t>difprto0qwj</t>
-  </si>
-  <si>
-    <t>07q0mpdr3uig</t>
+    <t>pvo16rla1zq</t>
+  </si>
+  <si>
+    <t>ospcokew087</t>
   </si>
   <si>
     <t>루즈핏 크롭 후드티</t>
@@ -8161,7 +8161,7 @@
     <t>루즈핏크롭후드티셔츠</t>
   </si>
   <si>
-    <t>o1wkoc2hrxe</t>
+    <t>lrr65fs2pon</t>
   </si>
   <si>
     <t>리본 벌룬 sk</t>
@@ -8170,7 +8170,7 @@
     <t>리본벌룬스커트</t>
   </si>
   <si>
-    <t>2u0ngzcz8zk</t>
+    <t>9a6rz2gbkfa</t>
   </si>
   <si>
     <t>리본 벨로아 트레이닝</t>
@@ -8179,7 +8179,7 @@
     <t>리본벨로아트레이닝</t>
   </si>
   <si>
-    <t>ve8ls01lwz</t>
+    <t>yl1zkg0ibg</t>
   </si>
   <si>
     <t>벌룬 호피 팬츠</t>
@@ -8188,7 +8188,7 @@
     <t>벌룬호피팬츠</t>
   </si>
   <si>
-    <t>b8ubvfwi2vk</t>
+    <t>248bdfzxmk2</t>
   </si>
   <si>
     <t>트임 벨로아 부츠컷</t>
@@ -8197,7 +8197,7 @@
     <t>트임벨로아부츠컷</t>
   </si>
   <si>
-    <t>d0dbsfbeunk</t>
+    <t>aj1t7fd148h</t>
   </si>
   <si>
     <t>부클 미니 sk</t>
@@ -8206,7 +8206,7 @@
     <t>부클미니스커트</t>
   </si>
   <si>
-    <t>wzpjpcl39lm</t>
+    <t>ot6rl8vs6fb</t>
   </si>
   <si>
     <t>숏 부클 mtm</t>
@@ -8215,10 +8215,10 @@
     <t>숏부클맨투맨</t>
   </si>
   <si>
-    <t>2qgvnwj4ngm</t>
-  </si>
-  <si>
-    <t>bmmsgmduhvm</t>
+    <t>tzpc2k5yqr7</t>
+  </si>
+  <si>
+    <t>oltjl6nd0j</t>
   </si>
   <si>
     <t>스노우 더플 코트</t>
@@ -8227,7 +8227,7 @@
     <t>스노우더플코트</t>
   </si>
   <si>
-    <t>v0w5ptzyar9</t>
+    <t>7elrkcmsywv</t>
   </si>
   <si>
     <t>앙고라 베레모</t>
@@ -8239,7 +8239,7 @@
     <t>앙고라베레모</t>
   </si>
   <si>
-    <t>w99xjxoqaq</t>
+    <t>4ccf1cln4sb</t>
   </si>
   <si>
     <t>양털 롱부츠</t>
@@ -8248,7 +8248,7 @@
     <t>양털롱부츠</t>
   </si>
   <si>
-    <t>fu7hcgsuw5d</t>
+    <t>iw3r28hkjb</t>
   </si>
   <si>
     <t>언발나시</t>
@@ -8257,7 +8257,7 @@
     <t>피그차콜</t>
   </si>
   <si>
-    <t>n0a7yvbcuil</t>
+    <t>pmkcdj92laq</t>
   </si>
   <si>
     <t>캣츠 귀달이</t>
@@ -8266,7 +8266,7 @@
     <t>캣츠귀달이</t>
   </si>
   <si>
-    <t>pst5y2oc8nn</t>
+    <t>7q7sa579ulp</t>
   </si>
   <si>
     <t>팀버 워커</t>
@@ -8278,7 +8278,7 @@
     <t>팀버워커</t>
   </si>
   <si>
-    <t>w2fdnas5bu</t>
+    <t>36n93jx4ua7</t>
   </si>
   <si>
     <t>Sweet 패딩 점퍼</t>
@@ -8287,7 +8287,7 @@
     <t>SWEET패딩점퍼</t>
   </si>
   <si>
-    <t>x8b10viwue</t>
+    <t>9s3nctjik5e</t>
   </si>
   <si>
     <t>호그와트 넥타이</t>
@@ -8296,10 +8296,10 @@
     <t>호그와트넥타이</t>
   </si>
   <si>
-    <t>wpr8xpk5zq</t>
-  </si>
-  <si>
-    <t>899vs75rez7</t>
+    <t>4xzs9lappco</t>
+  </si>
+  <si>
+    <t>rhmkamhxbib</t>
   </si>
   <si>
     <t>호피 트레이닝</t>
@@ -8308,10 +8308,10 @@
     <t>호피트레이닝</t>
   </si>
   <si>
-    <t>2ltwwlxirrr</t>
-  </si>
-  <si>
-    <t>h4nj8snsj2e</t>
+    <t>n1ojf724uv</t>
+  </si>
+  <si>
+    <t>43w6h8mtyc8</t>
   </si>
   <si>
     <t>철수와영희</t>
@@ -8326,7 +8326,7 @@
     <t>가을에밀리티셔츠</t>
   </si>
   <si>
-    <t>rrabtlfe3l</t>
+    <t>vhsw6qtpfdh</t>
   </si>
   <si>
     <t>칼라</t>
@@ -8338,13 +8338,13 @@
     <t>러브상하세트</t>
   </si>
   <si>
-    <t>b2e2xfqas5q</t>
+    <t>nv0ebowwp2g</t>
   </si>
   <si>
     <t>푸딩TS</t>
   </si>
   <si>
-    <t>gggymptcns9</t>
+    <t>qhspr1fvbpf</t>
   </si>
   <si>
     <t>코튼캔디</t>
@@ -8353,13 +8353,13 @@
     <t>부츠컷레깅스</t>
   </si>
   <si>
-    <t>xd3m1tcv6k</t>
-  </si>
-  <si>
-    <t>ucfj3lqydl</t>
-  </si>
-  <si>
-    <t>b5ueoh3udjf</t>
+    <t>v86kt4h0ng9</t>
+  </si>
+  <si>
+    <t>cpanhiahklf</t>
+  </si>
+  <si>
+    <t>oeaw9snqs98</t>
   </si>
   <si>
     <t>콤마</t>
@@ -8374,25 +8374,25 @@
     <t>니트트임티셔츠</t>
   </si>
   <si>
-    <t>t05jjcgu0a</t>
+    <t>6sb3gumlic9</t>
   </si>
   <si>
     <t>두줄슬랙스</t>
   </si>
   <si>
-    <t>ln84u3jtyvb</t>
+    <t>ea1bryggobe</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>2x1rlt8ic9j</t>
+    <t>3olah3rbkd2</t>
   </si>
   <si>
     <t>러브미M</t>
   </si>
   <si>
-    <t>8sy1ffkwjzj</t>
+    <t>1wke44p7z6oh</t>
   </si>
   <si>
     <t>면주름SK</t>
@@ -8404,7 +8404,7 @@
     <t>면주름스커트</t>
   </si>
   <si>
-    <t>8yxlnoffbfb</t>
+    <t>ewtjs8mrar</t>
   </si>
   <si>
     <t>하우T</t>
@@ -8413,7 +8413,7 @@
     <t>하우티셔츠</t>
   </si>
   <si>
-    <t>95skx3nzef7</t>
+    <t>ycdlyprvhr</t>
   </si>
   <si>
     <t>키들리</t>
@@ -8425,7 +8425,7 @@
     <t>고리소프트퓨어머플러</t>
   </si>
   <si>
-    <t>1or139ypwz2</t>
+    <t>nk8pjlkttvq</t>
   </si>
   <si>
     <t>고리 안녕곰돌 머플러</t>
@@ -8434,16 +8434,16 @@
     <t>고리안녕곰돌머플러</t>
   </si>
   <si>
-    <t>7ara6gtuquh</t>
-  </si>
-  <si>
-    <t>grkvq679pxl</t>
-  </si>
-  <si>
-    <t>app06ra84p</t>
-  </si>
-  <si>
-    <t>98ipjs02tj</t>
+    <t>r7cinky69yg</t>
+  </si>
+  <si>
+    <t>6p3w3b27l9o</t>
+  </si>
+  <si>
+    <t>woz887rsuhp</t>
+  </si>
+  <si>
+    <t>9eevrt1eel</t>
   </si>
   <si>
     <t>네이쳐 웍스 귀달모자</t>
@@ -8452,7 +8452,7 @@
     <t>네이쳐웍스귀달모자</t>
   </si>
   <si>
-    <t>a3dxfik67d</t>
+    <t>u1e072mrapr</t>
   </si>
   <si>
     <t>노르딕 워머 모자</t>
@@ -8461,7 +8461,7 @@
     <t>노르딕워머모자</t>
   </si>
   <si>
-    <t>zh54tx30rq</t>
+    <t>wm77neg64do</t>
   </si>
   <si>
     <t>스트링 바라클라바</t>
@@ -8470,7 +8470,7 @@
     <t>스트링바라클라바</t>
   </si>
   <si>
-    <t>mxqi7yx7o1d</t>
+    <t>96j6u7zkev</t>
   </si>
   <si>
     <t>[무꿈치] 프릴 라벨 삭스</t>
@@ -8479,10 +8479,10 @@
     <t>무꿈치프릴라벨삭스</t>
   </si>
   <si>
-    <t>4eqzaqzys0c</t>
-  </si>
-  <si>
-    <t>3c7r98qsqd5</t>
+    <t>7ch7pjspl8o</t>
+  </si>
+  <si>
+    <t>8w8trp8djzg</t>
   </si>
   <si>
     <t>트윙클</t>
@@ -8491,7 +8491,7 @@
     <t>꽈베기니트가디건</t>
   </si>
   <si>
-    <t>wbeld8vibe</t>
+    <t>tcpfe0kr3lo</t>
   </si>
   <si>
     <t>포크칩스</t>
@@ -8500,7 +8500,7 @@
     <t>레오테잎져지</t>
   </si>
   <si>
-    <t>396oo7zsla9</t>
+    <t>dmk0kklad34</t>
   </si>
   <si>
     <t>슈팅스타후드티</t>
@@ -8509,13 +8509,13 @@
     <t>슈팅스타후드티셔츠</t>
   </si>
   <si>
-    <t>2php2yxg3m7</t>
-  </si>
-  <si>
-    <t>mqedn3njmv</t>
-  </si>
-  <si>
-    <t>dnodyufw6gs</t>
+    <t>1koheaxw85u</t>
+  </si>
+  <si>
+    <t>3jx0f4p4bio</t>
+  </si>
+  <si>
+    <t>54oeae0j4gf</t>
   </si>
   <si>
     <t>알파카버클스커트</t>
@@ -8524,10 +8524,10 @@
     <t>머스타트</t>
   </si>
   <si>
-    <t>g00xxkimpfe</t>
-  </si>
-  <si>
-    <t>gelkz32oqz</t>
+    <t>hdjcmd1c0mw</t>
+  </si>
+  <si>
+    <t>jgzv16mfong</t>
   </si>
   <si>
     <t>엔젤벨벳폴라티</t>
@@ -8536,43 +8536,43 @@
     <t>엔젤벨벳폴라티셔츠</t>
   </si>
   <si>
-    <t>tbih1fw0pr</t>
+    <t>t59qliazxf</t>
   </si>
   <si>
     <t>치치호피스커트</t>
   </si>
   <si>
-    <t>828ss4xh5a4</t>
+    <t>kpnpin6rheq</t>
   </si>
   <si>
     <t>케이블물가디건</t>
   </si>
   <si>
-    <t>4oak5lgpu2v</t>
+    <t>1ouit00d06z</t>
   </si>
   <si>
     <t>케이블울가디건</t>
   </si>
   <si>
-    <t>lw4dblsa2gh</t>
+    <t>6ycsorf103f</t>
   </si>
   <si>
     <t>테이크벨로아집업</t>
   </si>
   <si>
-    <t>0y3je0qvq6is</t>
+    <t>jd3cp9v55s</t>
   </si>
   <si>
     <t>테이크조거팬츠</t>
   </si>
   <si>
-    <t>sqv05e0av8</t>
+    <t>4eyy3pk1kul</t>
   </si>
   <si>
     <t>테이크캉캉스커트</t>
   </si>
   <si>
-    <t>krk3lhwoenh</t>
+    <t>s4r28ppj4nd</t>
   </si>
   <si>
     <t>파운드골덴청바지</t>
@@ -8581,25 +8581,25 @@
     <t>파운드골덴청팬츠</t>
   </si>
   <si>
-    <t>cm7hj7qk3vo</t>
+    <t>makqelun24e</t>
   </si>
   <si>
     <t>JXL</t>
   </si>
   <si>
-    <t>9ue7jdjxyge</t>
+    <t>a73y8kpxf4f</t>
   </si>
   <si>
     <t>하니밴딩맨투맨</t>
   </si>
   <si>
-    <t>2k4locokufv</t>
+    <t>appvqiwp7p8</t>
   </si>
   <si>
     <t>호피붑맨투맨</t>
   </si>
   <si>
-    <t>c867m4uopwa</t>
+    <t>yk39plpzmn</t>
   </si>
   <si>
     <t>퐁듀</t>
@@ -8608,7 +8608,7 @@
     <t>따수미플라</t>
   </si>
   <si>
-    <t>cexci9ay17g</t>
+    <t>v5951plh2j8</t>
   </si>
   <si>
     <t>첩명크mtm</t>
@@ -8617,7 +8617,7 @@
     <t>첩명크맨투맨</t>
   </si>
   <si>
-    <t>wwm3yqg4mt</t>
+    <t>616t2msiwrs</t>
   </si>
   <si>
     <t>피그코듀pt</t>
@@ -8626,7 +8626,7 @@
     <t>피그코듀팬츠</t>
   </si>
   <si>
-    <t>qzk5rnfbqb</t>
+    <t>9bltb1m9p9a</t>
   </si>
   <si>
     <t>핑크로로</t>
@@ -8638,13 +8638,13 @@
     <t>기획뉴하트기모조거팬츠</t>
   </si>
   <si>
-    <t>591yu4aibcp</t>
-  </si>
-  <si>
-    <t>8feimaior9j</t>
-  </si>
-  <si>
-    <t>bs16a483im</t>
+    <t>eoli2duw12</t>
+  </si>
+  <si>
+    <t>ccjvwvl3lto</t>
+  </si>
+  <si>
+    <t>dzxo36orfp7</t>
   </si>
   <si>
     <t>(기획)리본 반폴라 기모티셔츠</t>
@@ -8656,16 +8656,16 @@
     <t>기획리본반폴라기모티셔츠</t>
   </si>
   <si>
-    <t>lnwmlm3tv0e</t>
-  </si>
-  <si>
-    <t>e8otci4iz3t</t>
-  </si>
-  <si>
-    <t>uvmvjd4be6</t>
-  </si>
-  <si>
-    <t>okhoaqp5uhf</t>
+    <t>fqlbvj9krt</t>
+  </si>
+  <si>
+    <t>gphap386di</t>
+  </si>
+  <si>
+    <t>edge2tle7o</t>
+  </si>
+  <si>
+    <t>ky48f23qka</t>
   </si>
   <si>
     <t>(기획)선데이 기모 맨투맨</t>
@@ -8674,7 +8674,7 @@
     <t>기획선데이기모맨투맨</t>
   </si>
   <si>
-    <t>ab16zw0n1jt</t>
+    <t>8q0pkkpv0ye</t>
   </si>
   <si>
     <t>하로하로</t>
@@ -8686,7 +8686,7 @@
     <t>1라이트기모맨투맨</t>
   </si>
   <si>
-    <t>8qmp9w0ep2s</t>
+    <t>pnaxn3ioyvb</t>
   </si>
   <si>
     <t>1+1쇼폴라폴라티</t>
@@ -8695,7 +8695,7 @@
     <t>1쇼폴라폴라티셔츠</t>
   </si>
   <si>
-    <t>3x6muvv0vpr</t>
+    <t>dpe3l4ccexj</t>
   </si>
   <si>
     <t>1+1 줄리 페이크폴라</t>
@@ -8704,10 +8704,10 @@
     <t>1줄리페이크폴라</t>
   </si>
   <si>
-    <t>5jbd5b3py9y</t>
-  </si>
-  <si>
-    <t>6k47jwoaev3</t>
+    <t>eerlmugt2oc</t>
+  </si>
+  <si>
+    <t>rbmwyoskl5e</t>
   </si>
   <si>
     <t>블랙캣 양기모상하세트</t>
@@ -8716,7 +8716,7 @@
     <t>블랙캣양기모상하세트</t>
   </si>
   <si>
-    <t>gs0dsqumgri</t>
+    <t>pspyybrovcq</t>
   </si>
   <si>
     <t>하이바이베베</t>
@@ -8728,7 +8728,7 @@
     <t>디오르샤슈트</t>
   </si>
   <si>
-    <t>ldoo809avg8</t>
+    <t>xsgg17q1x27</t>
   </si>
   <si>
     <t>24메리체크산타모자</t>
@@ -8740,7 +8740,7 @@
     <t>메리체크산타모자</t>
   </si>
   <si>
-    <t>ukx4w05fjs</t>
+    <t>enpasm59vwi</t>
   </si>
   <si>
     <t>24메리파자마상하복</t>
@@ -8749,7 +8749,7 @@
     <t>메리파자마상하복</t>
   </si>
   <si>
-    <t>hkv5bobd1ul</t>
+    <t>x12160kcm2e</t>
   </si>
   <si>
     <t>24메리크리스마스베레모</t>
@@ -8758,7 +8758,7 @@
     <t>메리크리스마스베레모</t>
   </si>
   <si>
-    <t>yz29oi40xtm</t>
+    <t>998mnp74fxn</t>
   </si>
   <si>
     <t>24크리스마스양말</t>
@@ -8770,13 +8770,13 @@
     <t>크리스마스양말</t>
   </si>
   <si>
-    <t>2if939owwq2</t>
+    <t>rthfzglz4id</t>
   </si>
   <si>
     <t>레드3종</t>
   </si>
   <si>
-    <t>02aj4slyiwjy</t>
+    <t>vax4bkz8b3</t>
   </si>
   <si>
     <t>24메리요정슈트</t>
@@ -8788,10 +8788,10 @@
     <t>메리요정슈트</t>
   </si>
   <si>
-    <t>jtb1dsx1oke</t>
-  </si>
-  <si>
-    <t>mu4zzaluq6n</t>
+    <t>vxfsreratt</t>
+  </si>
+  <si>
+    <t>nu0gwcamcsc</t>
   </si>
   <si>
     <t>24산타스트라이프실내복</t>
@@ -8803,13 +8803,13 @@
     <t>산타스트라이프실내복</t>
   </si>
   <si>
-    <t>fhqap8hk5do</t>
+    <t>93pt1hqnhre</t>
   </si>
   <si>
     <t>레드ST</t>
   </si>
   <si>
-    <t>pk9w34chyl8</t>
+    <t>e67ywy6t6y9</t>
   </si>
   <si>
     <t>24크리스마스루돌프보넷</t>
@@ -8818,7 +8818,7 @@
     <t>크리스마스루돌프보넷</t>
   </si>
   <si>
-    <t>devebxlr93j</t>
+    <t>w1si33k9zld</t>
   </si>
   <si>
     <t>24순수하트퀼팅원피스</t>
@@ -8827,7 +8827,7 @@
     <t>순수하트퀼팅원피스</t>
   </si>
   <si>
-    <t>lipbp2kxts</t>
+    <t>najuk7ftzm8</t>
   </si>
   <si>
     <t>24순수하트퍼카라넥케이프</t>
@@ -8836,7 +8836,7 @@
     <t>순수하트퍼카라넥케이프</t>
   </si>
   <si>
-    <t>mx8ok2qdv1</t>
+    <t>l0z321hvq8a</t>
   </si>
   <si>
     <t>헤이도</t>
@@ -8848,7 +8848,7 @@
     <t>카라크롭티셔츠</t>
   </si>
   <si>
-    <t>2bu2kspivmo</t>
+    <t>niqkmaswlm9</t>
   </si>
   <si>
     <t>호제트</t>
@@ -8860,7 +8860,7 @@
     <t>브린팬츠</t>
   </si>
   <si>
-    <t>23p0zs2imc2</t>
+    <t>5p4yock9k3a</t>
   </si>
   <si>
     <t>히얼아이엠</t>
@@ -8869,7 +8869,7 @@
     <t>소프티수면조끼</t>
   </si>
   <si>
-    <t>46rlzeb7f4m</t>
+    <t>ftc30hytx3</t>
   </si>
   <si>
     <t>킨더버니햇</t>
@@ -8878,13 +8878,13 @@
     <t>라떼베이지</t>
   </si>
   <si>
-    <t>vs2y4k5feqp</t>
+    <t>j4ghwvl2rle</t>
   </si>
   <si>
     <t>파우더핑크</t>
   </si>
   <si>
-    <t>hxlsswjw8c</t>
+    <t>7yh1iahk3uv</t>
   </si>
   <si>
     <t>킨더베어햇</t>
@@ -8896,25 +8896,25 @@
     <t>곰</t>
   </si>
   <si>
-    <t>896zjnczaog</t>
-  </si>
-  <si>
-    <t>lw8vkqtis7</t>
+    <t>mmzbi7cpkn</t>
+  </si>
+  <si>
+    <t>baoof4jxk7</t>
   </si>
   <si>
     <t>밀크</t>
   </si>
   <si>
-    <t>ubwuz0ixht</t>
+    <t>yyj2mv6zg3</t>
   </si>
   <si>
     <t>버터엘로우</t>
   </si>
   <si>
-    <t>nyla1xxukwg</t>
-  </si>
-  <si>
-    <t>kjsf5ppfxze</t>
+    <t>t27bqtzt6j</t>
+  </si>
+  <si>
+    <t>9fglhovev84</t>
   </si>
   <si>
     <t>킨더베이비슈트</t>
@@ -8923,37 +8923,37 @@
     <t>슈트M</t>
   </si>
   <si>
-    <t>8wn2amfonqi</t>
+    <t>5krmeeis90u</t>
   </si>
   <si>
     <t>라페베이지</t>
   </si>
   <si>
-    <t>oswdlkg2ecn</t>
+    <t>hiwj1124l5g</t>
   </si>
   <si>
     <t>슈트S</t>
   </si>
   <si>
-    <t>aoiket1yayg</t>
+    <t>i4fn9541jim</t>
   </si>
   <si>
     <t>슈트L</t>
   </si>
   <si>
-    <t>g9sfddq73qb</t>
-  </si>
-  <si>
-    <t>5m1hcquoh5u</t>
-  </si>
-  <si>
-    <t>tk7ti1z0wa</t>
-  </si>
-  <si>
-    <t>wlj3lhrvdu</t>
-  </si>
-  <si>
-    <t>7xznun4kij6</t>
+    <t>iuck21eq4d</t>
+  </si>
+  <si>
+    <t>g2289genrs</t>
+  </si>
+  <si>
+    <t>3zztgrf3rks</t>
+  </si>
+  <si>
+    <t>jp8q3h0y9yp</t>
+  </si>
+  <si>
+    <t>orlbagtzcip</t>
   </si>
   <si>
     <t>킨더블랭킷</t>
@@ -8965,25 +8965,25 @@
     <t>담요</t>
   </si>
   <si>
-    <t>120gxm1pqe7c</t>
+    <t>h17ce3ogt4d</t>
   </si>
   <si>
     <t>킨더토글조끼</t>
   </si>
   <si>
-    <t>pgc9y7jk5q</t>
+    <t>31xlv5e6utg</t>
   </si>
   <si>
     <t>킨더팬츠</t>
   </si>
   <si>
-    <t>3gmlhnfmxzg</t>
+    <t>tngmddbvwng</t>
   </si>
   <si>
     <t>텐더토이점퍼</t>
   </si>
   <si>
-    <t>9066lg8pcci</t>
+    <t>0w8xfpc2ulso</t>
   </si>
   <si>
     <t>텐더토이햇</t>
@@ -8992,7 +8992,7 @@
     <t>one size</t>
   </si>
   <si>
-    <t>69vvh1z6gbb</t>
+    <t>uub2dor1zv</t>
   </si>
 </sst>
 </file>
